--- a/output/results_2023-08-01.xlsx
+++ b/output/results_2023-08-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,4197 +2332,4197 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Gold C, USP Grade Vitamin C, 1,000 mg, 60 Veggie Capsules</t>
+          <t>Mommy's Bliss, Kids Sleep Gummies, 3 Yrs+, Strawberry, 60 Gummies</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-gold-c-usp-grade-vitamin-c-1-000-mg-60-veggie-capsules/61864</t>
+          <t>https://www.iherb.com/pr/mommy-s-bliss-kids-sleep-gummies-3-yrs-strawberry-60-gummies/118780</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00931/c/164.jpg</t>
+          <t>https://s3.images-iherb.com/bab/bab07182/c/8.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>$3.50</t>
+          <t>$9.74</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NOW Foods, Vitamin D-3, 125 mcg (5,000 IU), 120 Softgels</t>
+          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Grape, 8 oz (227 g)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-125-mcg-5-000-iu-120-softgels/10421</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-grape-8-oz-227-g/98309</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00372/c/35.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01749/c/37.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>$5.69</t>
+          <t>$16.20</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 125 mcg (5,000 IU), 90 Fish Gelatin Softgels</t>
+          <t>Sierra Bees, Organic Lip Balm Variety Pack, 4 Pack, 0.15 oz (4.25 g) Each</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-125-mcg-5-000-iu-90-fish-gelatin-softgels/70316</t>
+          <t>https://www.iherb.com/pr/sierra-bees-organic-lip-balm-variety-pack-4-pack-0-15-oz-4-25-g-each/73550</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01065/c/174.jpg</t>
+          <t>https://s3.images-iherb.com/mbe/mbe01149/c/19.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>$5.40</t>
+          <t>$3.60</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Baby Vitamin D3 Liquid, 10 mcg (400 IU), 0.34 fl oz (10 ml)</t>
+          <t>Radiant Seoul, Bright Potion, Phyto Water Cream, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-baby-vitamin-d3-liquid-10-mcg-400-iu-0-34-fl-oz-10-ml/65958</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-phyto-water-cream-1-7-fl-oz-50-ml/103266</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01034/c/96.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01910/c/20.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 90 Fish Gelatin Softgels</t>
+          <t>NOW Foods, Potassium Plus Iodine, 180 Tablets</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-90-fish-gelatin-softgels/77548</t>
+          <t>https://www.iherb.com/pr/now-foods-potassium-plus-iodine-180-tablets/767</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01179/c/151.jpg</t>
+          <t>https://s3.images-iherb.com/now/now01452/c/34.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$3.60</t>
+          <t>$8.22</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 360 Fish Gelatin Softgels</t>
+          <t>Nature's Bounty, Dual Spectrum, Melatonin, 5 mg, 60 Bi-Layer Tablets</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-360-fish-gelatin-softgels/77549</t>
+          <t>https://www.iherb.com/pr/nature-s-bounty-dual-spectrum-melatonin-5-mg-60-bi-layer-tablets/67800</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01180/c/158.jpg</t>
+          <t>https://s3.images-iherb.com/nrt/nrt53098/c/45.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>$10.80</t>
+          <t>$6.84</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Fish Oil, Triple Strength, 180 Softgels</t>
+          <t>Gerber, Organic for Baby, 2nd Foods, Pear, Blueberry, Apple, Avocado, 3.5 oz (99 g)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-180-softgels/113871</t>
+          <t>https://www.iherb.com/pr/gerber-organic-for-baby-2nd-foods-pear-blueberry-apple-avocado-3-5-oz-99-g/82427</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09153/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/gbr/gbr07492/c/13.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>$43.98</t>
+          <t>$2.03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Eucerin, Intensive Repair Lotion, Fragrance Free, 16.9 fl oz (500 ml)</t>
+          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 30 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/eucerin-intensive-repair-lotion-fragrance-free-16-9-fl-oz-500-ml/45779</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-30-fish-gelatin-softgels/71629</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/euc/euc11016/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01100/c/144.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>$13.36</t>
+          <t>$7.20</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Immune 4, Immune System Support, 60 Veggie Capsules</t>
+          <t>G9skin, White In Milk Sun Plus, 1.35 fl oz (40 ml)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-immune-4-immune-system-support-60-veggie-capsules/101714</t>
+          <t>https://www.iherb.com/pr/g9skin-white-in-milk-sun-plus-1-35-fl-oz-40-ml/114754</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01842/c/63.jpg</t>
+          <t>https://s3.images-iherb.com/gni/gni65695/c/9.jpg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$5.40</t>
+          <t>$12.96</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Fish Oil, Triple Strength , 30 Softgels</t>
+          <t>Radiant Seoul, Bright Potion, Night Power Serum, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-30-softgels/113870</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-night-power-serum-1-7-fl-oz-50-ml/103275</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09152/c/24.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01909/c/16.jpg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>$12.58</t>
+          <t>$7.50</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ultamins, Men's Multi-Vitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, Spirulina AstaBlue Complex, 180 Tablets</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/ultamins-ultamins-men-s-multi-vitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96380</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-spirulina-astablue-complex-180-tablets/101719</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ulm/ulm01270/c/29.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01859/c/39.jpg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sports Research, Plant Based D3 + K2, 60 Veggie Softgels</t>
+          <t>NaturesPlus, Animal Parade, Kid Zinc, Tangerine, 90 Animal-Shaped Lozenges</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-plant-based-d3-k2-60-veggie-softgels/79975</t>
+          <t>https://www.iherb.com/pr/naturesplus-animal-parade-kid-zinc-tangerine-90-animal-shaped-lozenges/16944</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01134/c/70.jpg</t>
+          <t>https://s3.images-iherb.com/nap/nap29964/c/52.jpg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>$23.37</t>
+          <t>$15.11</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NOW Foods, NAC, 600 mg, 250 Veg Capsules</t>
+          <t>California Gold Nutrition, Menopause Support, 90 Veggie Capsules</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-nac-600-mg-250-veg-capsules/694</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-menopause-support-90-veggie-capsules/107239</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00086/c/45.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02060/c/10.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>$26.29</t>
+          <t>$18.33</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, SPORT - Whey Protein Isolate, 1 lb, 16 oz (454 g)</t>
+          <t>Sports Research, Omega-3 Krill Oil, Double Strength, 1,000 mg, 60 Softgels</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-whey-protein-isolate-1-lb-16-oz-454-g/71031</t>
+          <t>https://www.iherb.com/pr/sports-research-omega-3-krill-oil-double-strength-1-000-mg-60-softgels/71100</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01064/c/88.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre00453/c/44.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>$20.70</t>
+          <t>$28.77</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Premium Krill Oil with SUPERBABoost, 1,000 mg, 60  Fish Softgels</t>
+          <t>California Gold Nutrition, L-Tyrosine, AjiPure, 500 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superbaboost-1-000-mg-60-fish-softgels/100010</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-l-tyrosine-ajipure-500-mg-60-veggie-capsules/72322</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01807/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01135/c/99.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>$14.06</t>
+          <t>$7.50</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Curcumin C3 Complex with BioPerine, 500 mg, 120 Veggie Capsules</t>
+          <t>Sports Research, Evening Primrose, 120 Softgels</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-c3-complex-with-bioperine-500-mg-120-veggie-capsules/60047</t>
+          <t>https://www.iherb.com/pr/sports-research-evening-primrose-120-softgels/71103</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00940/c/121.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre01007/c/49.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$28.80</t>
+          <t>$20.67</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, LactoBif 65 Probiotics, 65 Billion CFU, 30 Veggie Capsules</t>
+          <t>California Gold Nutrition, Brain Health,  60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-lactobif-65-probiotics-65-billion-cfu-30-veggie-capsules/103277</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-brain-health-60-veggie-capsules/107581</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01904/c/36.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02071/c/29.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$19.80</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NOW Foods, Glutathione, 250 mg, 60 Veg Capsules</t>
+          <t>California Gold Nutrition, Bone Boost, 120 Tablets</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-glutathione-250-mg-60-veg-capsules/771</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-bone-boost-120-tablets/109120</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00096/c/57.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02100/c/44.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$14.23</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GummiKing, Multi-Vitamin + Mineral for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
+          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Tropical, 8 oz (227 g)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34007</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-tropical-8-oz-227-g/98307</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00068/c/38.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01748/c/17.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$6.80</t>
+          <t>$10.80</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ultamins, Men's 50+ Multivitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, French Maritime Pine Bark Extract, Oligopin, 100 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/ultamins-men-s-50-multivitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96381</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-french-maritime-pine-bark-extract-oligopin-100-mg-60-veggie-capsules/81026</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ulm/ulm01271/c/26.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01195/c/75.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$22.50</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sports Research, Collagen Beauty Complex, Marine Collagen, Unflavored, 5.75 oz (163 g)</t>
+          <t>Coppertone, Baby, Sunscreen Stick, SPF 50, 0.49 oz (13.9 g)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-collagen-beauty-complex-marine-collagen-unflavored-5-75-oz-163-g/101533</t>
+          <t>https://www.iherb.com/pr/coppertone-baby-sunscreen-stick-spf-50-0-49-oz-13-9-g/115052</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01347/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/cpt/cpt02886/c/5.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$16.78</t>
+          <t>$5.15</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ACURE, The Essentials, Moroccan Argan Oil, 1 fl oz (30 ml)</t>
+          <t>California Gold Nutrition, Cardio Complex, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-the-essentials-moroccan-argan-oil-1-fl-oz-30-ml/36391</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-cardio-complex-60-veggie-capsules/107580</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco00220/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02070/c/10.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$7.45</t>
+          <t>$10.50</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Doctor's Best, Multi-Vitamin with Vitashine D3 and Quatrefolic, Iron Free, 90 Veggie Capsules</t>
+          <t>California Gold Nutrition, FOODS - Organic Cayenne, 2.75 oz (77 g)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/doctor-s-best-multi-vitamin-with-vitashine-d3-and-quatrefolic-iron-free-90-veggie-capsules/50548</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-organic-cayenne-2-75-oz-77-g/106900</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/drb/drb00300/c/79.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02036/c/16.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>$18.36</t>
+          <t>$4.50</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NOW Foods, Astaxanthin, 4 mg, 60 Veggie Softgels</t>
+          <t>Mizon, All In One Snail Repair Cream,  2.53 fl oz (75 ml)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-astaxanthin-4-mg-60-veggie-softgels/414</t>
+          <t>https://www.iherb.com/pr/mizon-all-in-one-snail-repair-cream-2-53-fl-oz-75-ml/106481</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now03251/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/miz/miz75165/c/37.jpg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>$10.94</t>
+          <t>$14.88</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 1,000 mg, 120 Fish Gelatin Softgels</t>
+          <t>ACURE, Brightening Day Cream, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-1-000-mg-120-fish-gelatin-softgels/71631</t>
+          <t>https://www.iherb.com/pr/acure-brightening-day-cream-1-7-fl-oz-50-ml/36335</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01102/c/126.jpg</t>
+          <t>https://s3.images-iherb.com/aco/aco00208/c/48.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$36.00</t>
+          <t>$11.92</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Mizon, Snail Repair Eye Cream, 0.84 oz (25 ml)</t>
+          <t>California Gold Nutrition, FOODS, Mocha Nut Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mizon-snail-repair-eye-cream-0-84-oz-25-ml/106020</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-mocha-nut-chewy-granola-bars-12-bars-1-4-oz-40-g-each/88969</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/miz/miz75173/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01322/c/51.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>$12.32</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Beauty of Joseon, Green Plum Refreshing Cleanser, 3.38 fl oz (100 ml)</t>
+          <t>California Gold Nutrition, Andrographis Immune with AP-BIO, 100 mg, 30 Tablets</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/beauty-of-joseon-green-plum-refreshing-cleanser-3-38-fl-oz-100-ml/114781</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-andrographis-immune-with-ap-bio-100-mg-30-tablets/106144</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/boj/boj31467/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02030/c/10.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>$6.97</t>
+          <t>$2.76</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Premium Krill Oil with Superba2, 1,000 mg, 60 Fish Gelatin Softgels</t>
+          <t>California Gold Nutrition, FOODS, Cranberry &amp; Almond Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superba2-1-000-mg-60-fish-gelatin-softgels/100011</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-cranberry-almond-chewy-granola-bars-12-bars-1-4-oz-40-g-each/89093</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01808/c/17.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01321/c/48.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>$13.16</t>
+          <t>$11.55</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, SPORT - Dark Chocolate Whey Protein Isolate, 2 lbs (907 g)</t>
+          <t>Radiant Seoul, Bright Potion, Treatment Toner, 5 fl oz (150 ml)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-dark-chocolate-whey-protein-isolate-2-lbs-907-g/82696</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-treatment-toner-5-fl-oz-150-ml/103268</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01202/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01912/c/16.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>$34.20</t>
+          <t>$9.00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NOW Foods, Kid's DHA Chewables, Tasty Fruit, 60 Softgels</t>
+          <t>Lake Avenue Nutrition, Lutein, 20 mg, 360 Veggie Softgels</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-kid-s-dha-chewables-tasty-fruit-60-softgels/16274</t>
+          <t>https://www.iherb.com/pr/lake-avenue-nutrition-lutein-20-mg-360-veggie-softgels/96295</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now01607/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/lkn/lkn01543/c/71.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$9.85</t>
+          <t>$31.50</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Caramel Nut Chew Bar, 5 Bars, 1.2 oz (34 g) Each</t>
+          <t>California Gold Nutrition, MATCHA ROAD, Matcha + Collagen,  8 oz (227 g)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-caramel-nut-chew-bar-5-bars-1-2-oz-34-g-each/21256</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-matcha-road-matcha-collagen-8-oz-227-g/111971</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07502/c/26.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02158/c/25.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$5.92</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Super Nutrition, Omega-3 Fish Oils,  1,000 mg, 90 Fish Softgels</t>
+          <t>California Gold Nutrition, Stabilized R-Lipoic Acid, 120 Veggie Capsules</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/super-nutrition-omega-3-fish-oils-1-000-mg-90-fish-softgels/111467</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-stabilized-r-lipoic-acid-120-veggie-capsules/105624</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/spn/spn02140/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02005/c/30.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>$14.40</t>
+          <t>$27.00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Amish Origins, Deep Penetrating, Pain Relief Greaseless Cream, 3.5 fl oz (99.22 g)</t>
+          <t>Summer's Eve, 5 in 1 Cleansing Cloths, Island Splash, 16 Individually Wrapped Cloths</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/amish-origins-deep-penetrating-pain-relief-greaseless-cream-3-5-fl-oz-99-22-g/72772</t>
+          <t>https://www.iherb.com/pr/summer-s-eve-5-in-1-cleansing-cloths-island-splash-16-individually-wrapped-cloths/90842</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ami/ami00030/c/20.jpg</t>
+          <t>https://s3.images-iherb.com/sue/sue00200/c/13.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>$7.02</t>
+          <t>$2.88</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NOW Foods, Vitamin D-3, High Potency, 25 mcg (1,000 IU), 360 Softgels</t>
+          <t>Cetaphil, Derma Control, Oil Removing Foam Wash, Oily, Sensitive Skin, 8 fl oz (237 ml)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-high-potency-25-mcg-1-000-iu-360-softgels/16273</t>
+          <t>https://www.iherb.com/pr/cetaphil-derma-control-oil-removing-foam-wash-oily-sensitive-skin-8-fl-oz-237-ml/92049</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00375/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/cet/cet93118/c/4.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>$9.31</t>
+          <t>$14.54</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Liposomal Vitamin C, 1,000 mg, 30 Packets, 0.2 fl oz (6 ml) Each</t>
+          <t>California Gold Nutrition, Fungiology, MushRex Plus, Full-Spectrum Mushroom Complex, Certified Organic, Immune Assist Micron, 120 Plantcaps</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-liposomal-vitamin-c-1-000-mg-30-packets-0-2-fl-oz-6-ml-each/75532</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-fungiology-mushrex-plus-full-spectrum-mushroom-complex-certified-organic-immune-assist-micron-120-plantcaps/82850</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01072/c/47.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01258/c/59.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>$36.90</t>
+          <t>$18.00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Holika Holika, Fresh Moisturizing Soothing Gel, Aloe 99%, 8.45 fl oz (250 ml)</t>
+          <t>Atkins, Endulge, Chocolate Caramel Mousse Bar, 5 Bars, 1.2 oz (34 g) Per Bar</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/holika-holika-fresh-moisturizing-soothing-gel-aloe-99-8-45-fl-oz-250-ml/86870</t>
+          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-caramel-mousse-bar-5-bars-1-2-oz-34-g-per-bar/29620</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hlk/hlk37735/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/atk/atk07528/c/28.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$7.19</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Eucerin, Original Healing Cream, Extremely Dry, Compromised Skin, Fragrance Free, 16 oz (454 g)</t>
+          <t>Rimmel London, Stay Glossy Lip Gloss, 110 Dorchester Rose, 0.18 fl oz (5.5 ml)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/eucerin-original-healing-cream-extremely-dry-compromised-skin-fragrance-free-16-oz-454-g/45773</t>
+          <t>https://www.iherb.com/pr/rimmel-london-stay-glossy-lip-gloss-110-dorchester-rose-0-18-fl-oz-5-5-ml/92169</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/euc/euc00021/c/35.jpg</t>
+          <t>https://s3.images-iherb.com/rim/rim24348/c/10.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$16.53</t>
+          <t>$3.38</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, N-Acetyl-L- Cysteine , 600 mg, 120 Veggie Capsules</t>
+          <t>California Gold Nutrition, Curcumin UP, 90 Gelatin Softgels</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-n-acetyl-l-cysteine-600-mg-120-veggie-capsules/97436</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-up-90-gelatin-softgels/97376</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn01639/c/93.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01590/c/107.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>$13.50</t>
+          <t>$27.90</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Skin Glass Serum, 1.7 fl oz (50 ml)</t>
+          <t>Atkins, Endulge, Chocolate Peanut Candies, 5 Packs, 1.2 oz (34 g) Each</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-skin-glass-serum-1-7-fl-oz-50-ml/103267</t>
+          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-peanut-candies-5-packs-1-2-oz-34-g-each/54404</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01911/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/atk/atk07575/c/27.jpg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ACURE, Radically Rejuvenating, Dual Phase Bakuchiol Serum, 0.67 fl oz (20 ml)</t>
+          <t>Alba Botanica, Moisturizing Sunscreen Lip Balm, SPF 25, 0.15 oz (4.2 g)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-radically-rejuvenating-dual-phase-bakuchiol-serum-0-67-fl-oz-20-ml/100473</t>
+          <t>https://www.iherb.com/pr/alba-botanica-moisturizing-sunscreen-lip-balm-spf-25-0-15-oz-4-2-g/49397</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco02253/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/alb/alb00394/c/33.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>$13.11</t>
+          <t>$2.71</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Mild By Nature, Witch Hazel, Unscented, Alcohol-Free, 12 fl oz (355 ml)</t>
+          <t>California Gold Nutrition, Hyaluronic Acid Complex, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mild-by-nature-witch-hazel-unscented-alcohol-free-12-fl-oz-355-ml/89691</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hyaluronic-acid-complex-60-veggie-capsules/67458</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbn/mbn01360/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn00856/c/103.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$15.30</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mommy's Bliss, Kids Sleep Gummies, 3 Yrs+, Strawberry, 60 Gummies</t>
+          <t>Jumiso, Super Soothing Facial Serum, Cica &amp; Aloe, 1.01 fl oz (30 ml)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mommy-s-bliss-kids-sleep-gummies-3-yrs-strawberry-60-gummies/118780</t>
+          <t>https://www.iherb.com/pr/jumiso-super-soothing-facial-serum-cica-aloe-1-01-fl-oz-30-ml/114747</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bab/bab07182/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/jum/jum95013/c/9.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>$9.74</t>
+          <t>$10.38</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Trans-Resveratrol, 200 mg, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, CocoCardio, Certified Organic Instant Dark Cocoa Beverage with Beet Juice &amp; Hibiscus, 7.93 oz (225 g)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-trans-resveratrol-200-mg-60-veggie-capsules/77938</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-cococardio-certified-organic-instant-dark-cocoa-beverage-with-beet-juice-hibiscus-7-93-oz-225-g/96948</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01174/c/61.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01289/c/19.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>$18.00</t>
+          <t>$8.84</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Grape, 8 oz (227 g)</t>
+          <t>Mild By Nature, Purifying Citrus Cleanser, 4.7 fl oz (140 ml)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-grape-8-oz-227-g/98309</t>
+          <t>https://www.iherb.com/pr/mild-by-nature-purifying-citrus-cleanser-4-7-fl-oz-140-ml/106610</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01749/c/37.jpg</t>
+          <t>https://s3.images-iherb.com/mbn/mbn01981/c/18.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>$16.20</t>
+          <t>$5.00</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 120 Fish Gelatin Softgels</t>
+          <t>BLK &amp; Bold, Specialty Coffee, Brighter Days, Ground, Light Roast, 12 oz (340 g)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-120-fish-gelatin-softgels/71630</t>
+          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-brighter-days-ground-light-roast-12-oz-340-g/109503</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01101/c/93.jpg</t>
+          <t>https://s3.images-iherb.com/bkb/bkb90015/c/10.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$10.39</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GummiKing, Multi Vitamin + Mineral, Vegetables, Fruits + Fiber For Kids, 60 Gummies</t>
+          <t>Aura Cacia, Uplifting Kit, Pure Essential Oils, 4 Bottles, 0.25 fl oz (7.4 ml) Each</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-vegetables-fruits-fiber-for-kids-60-gummies/34008</t>
+          <t>https://www.iherb.com/pr/aura-cacia-uplifting-kit-pure-essential-oils-4-bottles-0-25-fl-oz-7-4-ml-each/109542</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00050/c/38.jpg</t>
+          <t>https://s3.images-iherb.com/aur/aur99109/c/0.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$16.38</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sierra Bees, Organic Lip Balm Variety Pack, 4 Pack, 0.15 oz (4.25 g) Each</t>
+          <t>Honeyskin, Hair &amp; Scalp Therapy, Advanced Formula Conditioner, 8 fl oz (236 ml)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sierra-bees-organic-lip-balm-variety-pack-4-pack-0-15-oz-4-25-g-each/73550</t>
+          <t>https://www.iherb.com/pr/honeyskin-hair-scalp-therapy-advanced-formula-conditioner-8-fl-oz-236-ml/111839</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbe/mbe01149/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/hsn/hsn30508/c/16.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>$3.60</t>
+          <t>$12.99</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Phyto Water Cream, 1.7 fl oz (50 ml)</t>
+          <t>Honeyskin, Tea Tree Conditioner, 8 fl oz (236 ml)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-phyto-water-cream-1-7-fl-oz-50-ml/103266</t>
+          <t>https://www.iherb.com/pr/honeyskin-tea-tree-conditioner-8-fl-oz-236-ml/111843</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01910/c/20.jpg</t>
+          <t>https://s3.images-iherb.com/hsn/hsn13246/c/3.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$12.06</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NOW Foods, Potassium Plus Iodine, 180 Tablets</t>
+          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 3.5 oz (99 g)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-potassium-plus-iodine-180-tablets/767</t>
+          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-3-5-oz-99-g/111958</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now01452/c/34.jpg</t>
+          <t>https://s3.images-iherb.com/wkc/wkc87104/c/2.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>$8.22</t>
+          <t>$15.85</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NutriBiotic, Nasal Spray, 1 fl oz (29.5 ml)</t>
+          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 8 oz (226 g)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nutribiotic-nasal-spray-1-fl-oz-29-5-ml/4219</t>
+          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-8-oz-226-g/111959</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nbc/nbc01050/c/57.jpg</t>
+          <t>https://s3.images-iherb.com/wkc/wkc87106/c/2.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>$7.76</t>
+          <t>$24.79</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>GummiKing, Echinacea Plus Vitamin C+ Zinc for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
+          <t>Lumin, Soothing Beard Oil, 0.5 oz (15 ml)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-echinacea-plus-vitamin-c-zinc-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34012</t>
+          <t>https://www.iherb.com/pr/lumin-soothing-beard-oil-0-5-oz-15-ml/110377</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00067/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/lmi/lmi83007/c/9.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>$8.04</t>
+          <t>$10.44</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nature's Bounty, Dual Spectrum, Melatonin, 5 mg, 60 Bi-Layer Tablets</t>
+          <t>artnaturals, Luxe, Rejuvenating Jojoba Oil Moisturizer with SPF 15, 2 fl oz (59 ml)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nature-s-bounty-dual-spectrum-melatonin-5-mg-60-bi-layer-tablets/67800</t>
+          <t>https://www.iherb.com/pr/artnaturals-luxe-rejuvenating-jojoba-oil-moisturizer-with-spf-15-2-fl-oz-59-ml/110422</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nrt/nrt53098/c/45.jpg</t>
+          <t>https://s3.images-iherb.com/rna/rna80005/c/3.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>$6.84</t>
+          <t>$12.90</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, NMN Flavonoid Complex, 60 Veggie Capsules</t>
+          <t>Yes To, Zit Zapping Dots, Tomatoes, 24 Zit Zapping Dots</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-nmn-flavonoid-complex-60-veggie-capsules/104105</t>
+          <t>https://www.iherb.com/pr/yes-to-zit-zapping-dots-tomatoes-24-zit-zapping-dots/109770</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01922/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/yes/yes02518/c/3.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>$54.00</t>
+          <t>$6.72</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Gerber, Organic for Baby, 2nd Foods, Pear, Blueberry, Apple, Avocado, 3.5 oz (99 g)</t>
+          <t>iWi, Men's Multivitamin + Omega-3, 120 Softgels</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerber-organic-for-baby-2nd-foods-pear-blueberry-apple-avocado-3-5-oz-99-g/82427</t>
+          <t>https://www.iherb.com/pr/iwi-men-s-multivitamin-omega-3-120-softgels/108385</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gbr/gbr07492/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/iwi/iwi02057/c/2.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$2.03</t>
+          <t>$44.00</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 30 Fish Gelatin Softgels</t>
+          <t>Gillette, Sensor2, Disposable Razors, Fixed, 12 Disposable Razors</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-30-fish-gelatin-softgels/71629</t>
+          <t>https://www.iherb.com/pr/gillette-sensor2-disposable-razors-fixed-12-disposable-razors/112556</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01100/c/144.jpg</t>
+          <t>https://s3.images-iherb.com/gil/gil66449/c/4.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$9.71</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>G9skin, White In Milk Sun Plus, 1.35 fl oz (40 ml)</t>
+          <t>KeaBabies, Comfy Nursing Pads, Pastel Touch, 14 Pack</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/g9skin-white-in-milk-sun-plus-1-35-fl-oz-40-ml/114754</t>
+          <t>https://www.iherb.com/pr/keababies-comfy-nursing-pads-pastel-touch-14-pack/107793</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gni/gni65695/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/kea/kea22083/c/11.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>$12.96</t>
+          <t>$12.90</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Night Power Serum, 1.7 fl oz (50 ml)</t>
+          <t>KeaBabies, Organic Burp Cloths, Pink Dreams,  5 Pack</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-night-power-serum-1-7-fl-oz-50-ml/103275</t>
+          <t>https://www.iherb.com/pr/keababies-organic-burp-cloths-pink-dreams-5-pack/107800</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01909/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/kea/kea22068/c/11.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$7.50</t>
+          <t>$17.65</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Spirulina AstaBlue Complex, 180 Tablets</t>
+          <t>Sports Research, Sweet Sweat Cable Jump Rope, Black, 10 ft, 1 Jump Rope</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-spirulina-astablue-complex-180-tablets/101719</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-cable-jump-rope-black-10-ft-1-jump-rope/107843</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01859/c/39.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre01066/c/8.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$13.98</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NaturesPlus, Animal Parade, Kid Zinc, Tangerine, 90 Animal-Shaped Lozenges</t>
+          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, XL/XXL, Blue, 3 Piece Set</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/naturesplus-animal-parade-kid-zinc-tangerine-90-animal-shaped-lozenges/16944</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-xl-xxl-blue-3-piece-set/107847</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nap/nap29964/c/52.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre09041/c/27.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$15.11</t>
+          <t>$48.74</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Menopause Support, 90 Veggie Capsules</t>
+          <t>Dr. Emil Nutrition, LiverAid, 60 Capsules</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-menopause-support-90-veggie-capsules/107239</t>
+          <t>https://www.iherb.com/pr/dr-emil-nutrition-liveraid-60-capsules/113762</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02060/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/dem/dem95659/c/8.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>$18.33</t>
+          <t>$11.79</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Krill Oil, Double Strength, 1,000 mg, 60 Softgels</t>
+          <t>Jool Baby Products, Safety Door Knob Covers, 4 Pack</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-krill-oil-double-strength-1-000-mg-60-softgels/71100</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-safety-door-knob-covers-4-pack/110510</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre00453/c/44.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo11901/c/3.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$28.77</t>
+          <t>$6.96</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, L-Tyrosine, AjiPure, 500 mg, 60 Veggie Capsules</t>
+          <t>Jool Baby Products, Clear Stove Knob Covers, 5 Pack</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-l-tyrosine-ajipure-500-mg-60-veggie-capsules/72322</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-clear-stove-knob-covers-5-pack/110513</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01135/c/99.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo05297/c/18.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>$7.50</t>
+          <t>$9.58</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sports Research, Evening Primrose, 120 Softgels</t>
+          <t>Jool Baby Products, Sliding Cabinet Lock, 4 Pack</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-evening-primrose-120-softgels/71103</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-sliding-cabinet-lock-4-pack/110515</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01007/c/49.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo11918/c/3.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>$20.67</t>
+          <t>$6.09</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Brain Health,  60 Veggie Capsules</t>
+          <t>Nature's Bounty, Elderberry Sambucus, 210 mg, 120 Rapid Release Softgels</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-brain-health-60-veggie-capsules/107581</t>
+          <t>https://www.iherb.com/pr/nature-s-bounty-elderberry-sambucus-210-mg-120-rapid-release-softgels/108357</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02071/c/29.jpg</t>
+          <t>https://s3.images-iherb.com/nrt/nrt00976/c/8.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>$19.80</t>
+          <t>$20.11</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Bone Boost, 120 Tablets</t>
+          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, M/L, Blue, 3 Piece Set</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-bone-boost-120-tablets/109120</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-m-l-blue-3-piece-set/107846</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02100/c/44.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre09040/c/30.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$48.09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Tropical, 8 oz (227 g)</t>
+          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Orange-Vanilla, 30 Packets, 0.2 oz (5.7 g) Each</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-tropical-8-oz-227-g/98307</t>
+          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-orange-vanilla-30-packets-0-2-oz-5-7-g-each/110910</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01748/c/17.jpg</t>
+          <t>https://s3.images-iherb.com/pur/pur03405/c/13.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>$10.80</t>
+          <t>$34.86</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, French Maritime Pine Bark Extract, Oligopin, 100 mg, 60 Veggie Capsules</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 14.2 oz (403.2 g)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-french-maritime-pine-bark-extract-oligopin-100-mg-60-veggie-capsules/81026</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-14-2-oz-403-2-g/114795</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01195/c/75.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83208/c/6.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$40.81</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Coppertone, Baby, Sunscreen Stick, SPF 50, 0.49 oz (13.9 g)</t>
+          <t>YumV's, Multi Zero, Berry, 60 Gummies</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/coppertone-baby-sunscreen-stick-spf-50-0-49-oz-13-9-g/115052</t>
+          <t>https://www.iherb.com/pr/yumv-s-multi-zero-berry-60-gummies/115132</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cpt/cpt02886/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/yuv/yuv61029/c/8.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>$5.15</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Cardio Complex, 60 Veggie Capsules</t>
+          <t>Olympian Labs, BioCell Collagen, 100 Capsules</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-cardio-complex-60-veggie-capsules/107580</t>
+          <t>https://www.iherb.com/pr/olympian-labs-biocell-collagen-100-capsules/15035</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02070/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/oly/oly00327/c/34.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>$10.50</t>
+          <t>$40.79</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS - Organic Cayenne, 2.75 oz (77 g)</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 28.4 oz (804.6 g)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-organic-cayenne-2-75-oz-77-g/106900</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-28-4-oz-804-6-g/114790</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02036/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83209/c/2.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>$4.50</t>
+          <t>$53.55</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mizon, All In One Snail Repair Cream,  2.53 fl oz (75 ml)</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Chocolate Bliss, 29.2 oz (828.8 g)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mizon-all-in-one-snail-repair-cream-2-53-fl-oz-75-ml/106481</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-chocolate-bliss-29-2-oz-828-8-g/114791</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/miz/miz75165/c/37.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83206/c/2.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>$14.88</t>
+          <t>$61.20</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ACURE, Brightening Day Cream, 1.7 fl oz (50 ml)</t>
+          <t>Dr. Emil Nutrition, Total Gut Complex, 60 Capsules</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-brightening-day-cream-1-7-fl-oz-50-ml/36335</t>
+          <t>https://www.iherb.com/pr/dr-emil-nutrition-total-gut-complex-60-capsules/112165</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco00208/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/dem/dem95658/c/8.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>$11.92</t>
+          <t>$27.51</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS, Mocha Nut Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
+          <t>The Spice Lab, Organic Ground AllSpice, 1.5 oz (42 g)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-mocha-nut-chewy-granola-bars-12-bars-1-4-oz-40-g-each/88969</t>
+          <t>https://www.iherb.com/pr/the-spice-lab-organic-ground-allspice-1-5-oz-42-g/112407</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01322/c/51.jpg</t>
+          <t>https://s3.images-iherb.com/sla/sla07168/c/8.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$5.39</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Andrographis Immune with AP-BIO, 100 mg, 30 Tablets</t>
+          <t>International Veterinary Sciences, Lipiderm, Healthy Skin &amp; Coat, Dogs, Natural Chicken, 90 Soft Chews, 360 g</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-andrographis-immune-with-ap-bio-100-mg-30-tablets/106144</t>
+          <t>https://www.iherb.com/pr/international-veterinary-sciences-lipiderm-healthy-skin-coat-dogs-natural-chicken-90-soft-chews-360-g/105188</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02030/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/ivs/ivs01012/c/24.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>$2.76</t>
+          <t>$23.39</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS, Cranberry &amp; Almond Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
+          <t>Megrhythm, Kao, Gentle Steam Eye Mask, Ripened Citrus, 12 Sheets</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-cranberry-almond-chewy-granola-bars-12-bars-1-4-oz-40-g-each/89093</t>
+          <t>https://www.iherb.com/pr/megrhythm-kao-gentle-steam-eye-mask-ripened-citrus-12-sheets/108473</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01321/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/mrt/mrt34803/c/8.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$11.55</t>
+          <t>$16.07</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Treatment Toner, 5 fl oz (150 ml)</t>
+          <t>Elizavecca, Milky Piggy, Hell-Pore, Perfect Wine Sparking Peeling Pad, 30 Sheets</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-treatment-toner-5-fl-oz-150-ml/103268</t>
+          <t>https://www.iherb.com/pr/elizavecca-milky-piggy-hell-pore-perfect-wine-sparking-peeling-pad-30-sheets/95692</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01912/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/ezv/ezv90975/c/12.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>$9.00</t>
+          <t>$17.37</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, Lutein, 20 mg, 360 Veggie Softgels</t>
+          <t>Om Mushrooms, Immune Multi Boost, Orange &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-lutein-20-mg-360-veggie-softgels/96295</t>
+          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-orange-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110597</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn01543/c/71.jpg</t>
+          <t>https://s3.images-iherb.com/omm/omm99603/c/12.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>$31.50</t>
+          <t>$20.24</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, MATCHA ROAD, Matcha + Collagen,  8 oz (227 g)</t>
+          <t>Stasher, Stand-Up Mega, Aqua, 104 fl oz (3.07 L)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-matcha-road-matcha-collagen-8-oz-227-g/111971</t>
+          <t>https://www.iherb.com/pr/stasher-stand-up-mega-aqua-104-fl-oz-3-07-l/111670</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02158/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/shr/shr01955/c/5.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$31.49</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Stabilized R-Lipoic Acid, 120 Veggie Capsules</t>
+          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Raspberry Lemonade, 30 Packets, 0.2 oz (5.7 g) Each</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-stabilized-r-lipoic-acid-120-veggie-capsules/105624</t>
+          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-raspberry-lemonade-30-packets-0-2-oz-5-7-g-each/110899</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02005/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/pur/pur03112/c/12.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>$27.00</t>
+          <t>$39.21</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Summer's Eve, 5 in 1 Cleansing Cloths, Island Splash, 16 Individually Wrapped Cloths</t>
+          <t>Gerard Cosmetics, Slay All Day, Setting Spray, Green Tea, 3.38 oz (100 ml)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/summer-s-eve-5-in-1-cleansing-cloths-island-splash-16-individually-wrapped-cloths/90842</t>
+          <t>https://www.iherb.com/pr/gerard-cosmetics-slay-all-day-setting-spray-green-tea-3-38-oz-100-ml/114377</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sue/sue00200/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/gco/gco13805/c/10.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>$2.88</t>
+          <t>$19.75</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cetaphil, Derma Control, Oil Removing Foam Wash, Oily, Sensitive Skin, 8 fl oz (237 ml)</t>
+          <t>Coromega, Pup Packets, Joint &amp; Muscle Mobility Support, 30 Squeeze Packets, 2.6 ml Each</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/cetaphil-derma-control-oil-removing-foam-wash-oily-sensitive-skin-8-fl-oz-237-ml/92049</t>
+          <t>https://www.iherb.com/pr/coromega-pup-packets-joint-muscle-mobility-support-30-squeeze-packets-2-6-ml-each/105320</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cet/cet93118/c/4.jpg</t>
+          <t>https://s3.images-iherb.com/erb/erb45570/c/2.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>$14.54</t>
+          <t>$20.80</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Fungiology, MushRex Plus, Full-Spectrum Mushroom Complex, Certified Organic, Immune Assist Micron, 120 Plantcaps</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Get It Girl, 38 Strips</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-fungiology-mushrex-plus-full-spectrum-mushroom-complex-certified-organic-immune-assist-micron-120-plantcaps/82850</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-get-it-girl-38-strips/87054</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01258/c/59.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47097/c/0.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>$18.00</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Chocolate Caramel Mousse Bar, 5 Bars, 1.2 oz (34 g) Per Bar</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Fashion Week, 38 Strips</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-caramel-mousse-bar-5-bars-1-2-oz-34-g-per-bar/29620</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-fashion-week-38-strips/87060</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07528/c/28.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47132/c/0.jpg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rimmel London, Stay Glossy Lip Gloss, 110 Dorchester Rose, 0.18 fl oz (5.5 ml)</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Glamor and Bloom, 38 Strips</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/rimmel-london-stay-glossy-lip-gloss-110-dorchester-rose-0-18-fl-oz-5-5-ml/92169</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-glamor-and-bloom-38-strips/87061</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rim/rim24348/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47137/c/0.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>$3.38</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Curcumin UP, 90 Gelatin Softgels</t>
+          <t>Vika Nailjam, Nail Gel Strips For Nails &amp; Toenails, Lady Mode, 38 Strips</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-up-90-gelatin-softgels/97376</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-nail-gel-strips-for-nails-toenails-lady-mode-38-strips/87064</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01590/c/107.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47167/c/3.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>$27.90</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Chocolate Peanut Candies, 5 Packs, 1.2 oz (34 g) Each</t>
+          <t>Mehaz, The Original Edge Cutter, Pink, 1 Cutter</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-peanut-candies-5-packs-1-2-oz-34-g-each/54404</t>
+          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-pink-1-cutter/92705</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07575/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/mhz/mhz11434/c/0.jpg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$14.47</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Alba Botanica, Moisturizing Sunscreen Lip Balm, SPF 25, 0.15 oz (4.2 g)</t>
+          <t>Mehaz, The Original Edge Cutter, Black, 1 Cutter</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/alba-botanica-moisturizing-sunscreen-lip-balm-spf-25-0-15-oz-4-2-g/49397</t>
+          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-black-1-cutter/92708</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/alb/alb00394/c/33.jpg</t>
+          <t>https://s3.images-iherb.com/mhz/mhz11414/c/0.jpg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>$2.71</t>
+          <t>$15.04</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Hyaluronic Acid Complex, 60 Veggie Capsules</t>
+          <t>Honey Belle, Black Obsidian Facial Roller, 1 Roller</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hyaluronic-acid-complex-60-veggie-capsules/67458</t>
+          <t>https://www.iherb.com/pr/honey-belle-black-obsidian-facial-roller-1-roller/90055</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00856/c/103.jpg</t>
+          <t>https://s3.images-iherb.com/hbe/hbe77074/c/38.jpg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>$15.30</t>
+          <t>$27.00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Jumiso, Super Soothing Facial Serum, Cica &amp; Aloe, 1.01 fl oz (30 ml)</t>
+          <t>Holistic Blend, My Healthy Pet, Food Booster, For Dogs &amp; Cats, 6.2 oz (175 g)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jumiso-super-soothing-facial-serum-cica-aloe-1-01-fl-oz-30-ml/114747</t>
+          <t>https://www.iherb.com/pr/holistic-blend-my-healthy-pet-food-booster-for-dogs-cats-6-2-oz-175-g/83876</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/jum/jum95013/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/hob/hob27700/c/10.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>$10.38</t>
+          <t>$15.00</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, CocoCardio, Certified Organic Instant Dark Cocoa Beverage with Beet Juice &amp; Hibiscus, 7.93 oz (225 g)</t>
+          <t>Luseta Beauty, Disposable Medical Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-cococardio-certified-organic-instant-dark-cocoa-beverage-with-beet-juice-hibiscus-7-93-oz-225-g/96948</t>
+          <t>https://www.iherb.com/pr/luseta-beauty-disposable-medical-face-mask-50-pack/100234</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01289/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/lby/lby44060/c/22.jpg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>$8.84</t>
+          <t>$16.80</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mild By Nature, Purifying Citrus Cleanser, 4.7 fl oz (140 ml)</t>
+          <t>Landsberg, 3 Ply Disposable Protective Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mild-by-nature-purifying-citrus-cleanser-4-7-fl-oz-140-ml/106610</t>
+          <t>https://www.iherb.com/pr/landsberg-3-ply-disposable-protective-face-mask-50-pack/101029</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbn/mbn01981/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/lbg/lbg57000/c/3.jpg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>$5.00</t>
+          <t>$9.90</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BLK &amp; Bold, Specialty Coffee, Brighter Days, Ground, Light Roast, 12 oz (340 g)</t>
+          <t>Reviva Labs, Calming Renewal Serum, 1 fl oz (29.5 ml)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-brighter-days-ground-light-roast-12-oz-340-g/109503</t>
+          <t>https://www.iherb.com/pr/reviva-labs-calming-renewal-serum-1-fl-oz-29-5-ml/111537</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bkb/bkb90015/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/rev/rev00261/c/20.jpg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>$10.39</t>
+          <t>$17.50</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Aura Cacia, Uplifting Kit, Pure Essential Oils, 4 Bottles, 0.25 fl oz (7.4 ml) Each</t>
+          <t>Bbluv, Trimo, Replacement Filing Discs, 1, 0-3 Months, 3 Pack</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/aura-cacia-uplifting-kit-pure-essential-oils-4-bottles-0-25-fl-oz-7-4-ml-each/109542</t>
+          <t>https://www.iherb.com/pr/bbluv-trimo-replacement-filing-discs-1-0-3-months-3-pack/111599</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aur/aur99109/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/blv/blv38765/c/5.jpg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>$16.38</t>
+          <t>$2.96</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Honeyskin, Hair &amp; Scalp Therapy, Advanced Formula Conditioner, 8 fl oz (236 ml)</t>
+          <t>Urban Accents, Chile Verde Fish Tacos Seasoning Mix, 0.75 oz (21 g)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honeyskin-hair-scalp-therapy-advanced-formula-conditioner-8-fl-oz-236-ml/111839</t>
+          <t>https://www.iherb.com/pr/urban-accents-chile-verde-fish-tacos-seasoning-mix-0-75-oz-21-g/111652</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hsn/hsn30508/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/uba/uba12100/c/2.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>$12.99</t>
+          <t>$4.45</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Honeyskin, Tea Tree Conditioner, 8 fl oz (236 ml)</t>
+          <t>SeaBond, Denture Adhesive Seals, Original, 15 Uppers</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honeyskin-tea-tree-conditioner-8-fl-oz-236-ml/111843</t>
+          <t>https://www.iherb.com/pr/seabond-denture-adhesive-seals-original-15-uppers/112283</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hsn/hsn13246/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/sbo/sbo00162/c/18.jpg</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>$12.06</t>
+          <t>$3.85</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 3.5 oz (99 g)</t>
+          <t>Mane Choice, The Alpha, Detangling Hydration Shampoo, For All Hair Types, 8 fl oz (237 ml)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-3-5-oz-99-g/111958</t>
+          <t>https://www.iherb.com/pr/mane-choice-the-alpha-detangling-hydration-shampoo-for-all-hair-types-8-fl-oz-237-ml/110441</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wkc/wkc87104/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/mae/mae00523/c/16.jpg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>$15.85</t>
+          <t>$9.54</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 8 oz (226 g)</t>
+          <t>Lake Avenue Nutrition, Immune Support, 16 fl oz (473 ml)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-8-oz-226-g/111959</t>
+          <t>https://www.iherb.com/pr/lake-avenue-nutrition-immune-support-16-fl-oz-473-ml/107248</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wkc/wkc87106/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/lkn/lkn02051/c/8.jpg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>$24.79</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lumin, Soothing Beard Oil, 0.5 oz (15 ml)</t>
+          <t>Dr. Talbot's, Infrared Thermometer, White, 1 Thermometer</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lumin-soothing-beard-oil-0-5-oz-15-ml/110377</t>
+          <t>https://www.iherb.com/pr/dr-talbot-s-infrared-thermometer-white-1-thermometer/106959</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lmi/lmi83007/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/tal/tal14902/c/12.jpg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>$10.44</t>
+          <t>$33.31</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>artnaturals, Luxe, Rejuvenating Jojoba Oil Moisturizer with SPF 15, 2 fl oz (59 ml)</t>
+          <t>Sky Organics, Blemish Control, Spot Treatment, 0.33 fl oz (10 ml)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/artnaturals-luxe-rejuvenating-jojoba-oil-moisturizer-with-spf-15-2-fl-oz-59-ml/110422</t>
+          <t>https://www.iherb.com/pr/sky-organics-blemish-control-spot-treatment-0-33-fl-oz-10-ml/106181</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rna/rna80005/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/syo/syo43063/c/5.jpg</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>$12.90</t>
+          <t>$9.20</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Yes To, Zit Zapping Dots, Tomatoes, 24 Zit Zapping Dots</t>
+          <t>Source Naturals, Wellness D-mmunity, Bio-Aligned Vitamin D Immune Formula, 75 mcg (3,000 IU), 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/yes-to-zit-zapping-dots-tomatoes-24-zit-zapping-dots/109770</t>
+          <t>https://www.iherb.com/pr/source-naturals-wellness-d-mmunity-bio-aligned-vitamin-d-immune-formula-75-mcg-3-000-iu-60-vegetarian-capsules/107616</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/yes/yes02518/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/sns/sns02872/c/8.jpg</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>$6.72</t>
+          <t>$11.05</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>iWi, Men's Multivitamin + Omega-3, 120 Softgels</t>
+          <t>Gaia Herbs, Floradix, Calcium, 200 mg, 8.5 fl oz (250 ml)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/iwi-men-s-multivitamin-omega-3-120-softgels/108385</t>
+          <t>https://www.iherb.com/pr/gaia-herbs-floradix-calcium-200-mg-8-5-fl-oz-250-ml/106338</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/iwi/iwi02057/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/gai/gai26019/c/8.jpg</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>$44.00</t>
+          <t>$19.99</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Gillette, Sensor2, Disposable Razors, Fixed, 12 Disposable Razors</t>
+          <t>Green Sprouts, Feeding Bowl, 6+ Months, Pink, 1 Bowl</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gillette-sensor2-disposable-razors-fixed-12-disposable-razors/112556</t>
+          <t>https://www.iherb.com/pr/green-sprouts-feeding-bowl-6-months-pink-1-bowl/106441</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gil/gil66449/c/4.jpg</t>
+          <t>https://s3.images-iherb.com/gsp/gsp13445/c/13.jpg</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>$9.71</t>
+          <t>$7.03</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KeaBabies, Comfy Nursing Pads, Pastel Touch, 14 Pack</t>
+          <t>Sunny Isle, Jamaican Black Castor Oil, Leave in Knot Free Forever, 8 fl oz</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/keababies-comfy-nursing-pads-pastel-touch-14-pack/107793</t>
+          <t>https://www.iherb.com/pr/sunny-isle-jamaican-black-castor-oil-leave-in-knot-free-forever-8-fl-oz/106521</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/kea/kea22083/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/sij/sij00541/c/6.jpg</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>$12.90</t>
+          <t>$8.75</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KeaBabies, Organic Burp Cloths, Pink Dreams,  5 Pack</t>
+          <t>Specialty Coffee, BLK &amp; Bold, Whole Bean, Dark Roast, 12 oz (340 g)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/keababies-organic-burp-cloths-pink-dreams-5-pack/107800</t>
+          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-blk-bold-whole-bean-dark-roast-12-oz-340-g/109492</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/kea/kea22068/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/bkb/bkb79130/c/10.jpg</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>$17.65</t>
+          <t>$10.39</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat Cable Jump Rope, Black, 10 ft, 1 Jump Rope</t>
+          <t>XP Sports, Zero-Lag, Focus &amp; Energy + Eye Health Support, 60 Capsules</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-cable-jump-rope-black-10-ft-1-jump-rope/107843</t>
+          <t>https://www.iherb.com/pr/xp-sports-zero-lag-focus-energy-eye-health-support-60-capsules/105129</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01066/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/xps/xps60989/c/10.jpg</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>$13.98</t>
+          <t>$16.74</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, XL/XXL, Blue, 3 Piece Set</t>
+          <t>310 Nutrition, Meal Replacement Shake, Salted Caramel, 14.7 oz (417.2 g)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-xl-xxl-blue-3-piece-set/107847</t>
+          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-salted-caramel-14-7-oz-417-2-g/114801</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09041/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83048/c/2.jpg</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>$48.74</t>
+          <t>$27.20</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Dr. Emil Nutrition, LiverAid, 60 Capsules</t>
+          <t>Bell Lifestyle, Supreme Immune Support , 90 Veggie Capsules</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-emil-nutrition-liveraid-60-capsules/113762</t>
+          <t>https://www.iherb.com/pr/bell-lifestyle-supreme-immune-support-90-veggie-capsules/41201</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dem/dem95659/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/bel/bel11012/c/41.jpg</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>$11.79</t>
+          <t>$19.78</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Safety Door Knob Covers, 4 Pack</t>
+          <t>Hanskin, Real Complexion, Hyaluron Pink Capsule Serum, 1.69 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-safety-door-knob-covers-4-pack/110510</t>
+          <t>https://www.iherb.com/pr/hanskin-real-complexion-hyaluron-pink-capsule-serum-1-69-fl-oz-50-ml/104846</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo11901/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/hki/hki23173/c/9.jpg</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>$6.96</t>
+          <t>$24.75</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Clear Stove Knob Covers, 5 Pack</t>
+          <t>21st Century, Protective Face Mask, ASTM F2100, Single Use Disposable Masks, 50 Masks, 5-10 ct Packs</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-clear-stove-knob-covers-5-pack/110513</t>
+          <t>https://www.iherb.com/pr/21st-century-protective-face-mask-astm-f2100-single-use-disposable-masks-50-masks-5-10-ct-packs/104887</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo05297/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/cen/cen25319/c/9.jpg</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>$9.58</t>
+          <t>$32.10</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Sliding Cabinet Lock, 4 Pack</t>
+          <t>Double Dare, OMG! Reversible Mega Hair Band, Hot Pink Plush &amp; Hot Pink Platinum, 1 Piece</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-sliding-cabinet-lock-4-pack/110515</t>
+          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-hot-pink-plush-hot-pink-platinum-1-piece/107689</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo11918/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/dbd/dbd53814/c/8.jpg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>$6.09</t>
+          <t>$11.34</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Nature's Bounty, Elderberry Sambucus, 210 mg, 120 Rapid Release Softgels</t>
+          <t>Double Dare, OMG! Reversible Mega Hair Band, White Plush &amp; Rainbow Platinum, 1 Piece</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nature-s-bounty-elderberry-sambucus-210-mg-120-rapid-release-softgels/108357</t>
+          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-white-plush-rainbow-platinum-1-piece/107690</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nrt/nrt00976/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/dbd/dbd53817/c/13.jpg</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>$20.11</t>
+          <t>$11.34</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, M/L, Blue, 3 Piece Set</t>
+          <t>New Nordic US Inc, Active Immune, Immune Support, 30 Tablets</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-m-l-blue-3-piece-set/107846</t>
+          <t>https://www.iherb.com/pr/new-nordic-active-immune-immune-support-30-tablets/104027</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09040/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/nno/nno00010/c/9.jpg</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>$48.09</t>
+          <t>$12.26</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Orange-Vanilla, 30 Packets, 0.2 oz (5.7 g) Each</t>
+          <t>Luseta Beauty, Disposable Protection Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-orange-vanilla-30-packets-0-2-oz-5-7-g-each/110910</t>
+          <t>https://www.iherb.com/pr/luseta-beauty-disposable-protection-face-mask-50-pack/100099</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/pur/pur03405/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/lby/lby44036/c/18.jpg</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>$34.86</t>
+          <t>$13.20</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 14.2 oz (403.2 g)</t>
+          <t>Source Naturals, Wellness, Larch Extract, 60 Tablets</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-14-2-oz-403-2-g/114795</t>
+          <t>https://www.iherb.com/pr/source-naturals-wellness-larch-extract-60-tablets/1480</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83208/c/6.jpg</t>
+          <t>https://s3.images-iherb.com/sns/sns01324/c/4.jpg</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>$40.81</t>
+          <t>$16.10</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>YumV's, Multi Zero, Berry, 60 Gummies</t>
+          <t>Wedderspoon, Raw Multifloral Manuka Honey, KFactor 12, 8.8 oz (250 g)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/yumv-s-multi-zero-berry-60-gummies/115132</t>
+          <t>https://www.iherb.com/pr/wedderspoon-raw-multifloral-manuka-honey-kfactor-12-8-8-oz-250-g/69037</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/yuv/yuv61029/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/wsp/wsp02004/c/31.jpg</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>$11.89</t>
+          <t>$18.59</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Olympian Labs, BioCell Collagen, 100 Capsules</t>
+          <t>Boiron, Single Remedies, Ruta Graveolens, 6C, Approx 80 Pellets</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/olympian-labs-biocell-collagen-100-capsules/15035</t>
+          <t>https://www.iherb.com/pr/boiron-single-remedies-ruta-graveolens-6c-approx-80-pellets/58040</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/oly/oly00327/c/34.jpg</t>
+          <t>https://s3.images-iherb.com/bos/bos64308/c/35.jpg</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>$40.79</t>
+          <t>$6.54</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 28.4 oz (804.6 g)</t>
+          <t>SteelFit, Steel Sweat, Thermogenic Pre-Workout, Lava Lemon Lime, 5.29 oz (150 g)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-28-4-oz-804-6-g/114790</t>
+          <t>https://www.iherb.com/pr/steelfit-steel-sweat-thermogenic-pre-workout-lava-lemon-lime-5-29-oz-150-g/121617</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83209/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/stf/stf05061/c/12.jpg</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>$53.55</t>
+          <t>$20.44</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Chocolate Bliss, 29.2 oz (828.8 g)</t>
+          <t>Gerard Cosmetics, Hydra Matte Liquid Lipstick, Boss Lady,  0.085 oz (2.5 ml)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-chocolate-bliss-29-2-oz-828-8-g/114791</t>
+          <t>https://www.iherb.com/pr/gerard-cosmetics-hydra-matte-liquid-lipstick-boss-lady-0-085-oz-2-5-ml/114376</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83206/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/gco/gco13830/c/18.jpg</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>$61.20</t>
+          <t>$13.96</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Dr. Emil Nutrition, Total Gut Complex, 60 Capsules</t>
+          <t>310 Nutrition, Meal Replacement Shake, Vanilla, 28.6 oz (812 g)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-emil-nutrition-total-gut-complex-60-capsules/112165</t>
+          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-vanilla-28-6-oz-812-g/114796</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dem/dem95658/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83045/c/2.jpg</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>$27.51</t>
+          <t>$41.66</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>The Spice Lab, Organic Ground AllSpice, 1.5 oz (42 g)</t>
+          <t>Youtheory, K2D3 On Th Go, Peach, 12 Packets, 1 fl oz (30 ml) Each</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/the-spice-lab-organic-ground-allspice-1-5-oz-42-g/112407</t>
+          <t>https://www.iherb.com/pr/youtheory-k2d3-on-th-go-peach-12-packets-1-fl-oz-30-ml-each/115846</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sla/sla07168/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/you/you92030/c/21.jpg</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>$5.39</t>
+          <t>$12.26</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>International Veterinary Sciences, Lipiderm, Healthy Skin &amp; Coat, Dogs, Natural Chicken, 90 Soft Chews, 360 g</t>
+          <t>Youtheory, B12B6 On The Go, Raspberry, 12 Packets, 1 fl oz (30 ml) Each</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/international-veterinary-sciences-lipiderm-healthy-skin-coat-dogs-natural-chicken-90-soft-chews-360-g/105188</t>
+          <t>https://www.iherb.com/pr/youtheory-b12b6-on-the-go-raspberry-12-packets-1-fl-oz-30-ml-each/115849</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ivs/ivs01012/c/24.jpg</t>
+          <t>https://s3.images-iherb.com/you/you92028/c/21.jpg</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>$23.39</t>
+          <t>$12.09</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Megrhythm, Kao, Gentle Steam Eye Mask, Ripened Citrus, 12 Sheets</t>
+          <t>Om Mushrooms, Immune Multi Boost, Lemon &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/megrhythm-kao-gentle-steam-eye-mask-ripened-citrus-12-sheets/108473</t>
+          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-lemon-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110709</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mrt/mrt34803/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/omm/omm99605/c/14.jpg</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>$16.07</t>
+          <t>$20.24</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Elizavecca, Milky Piggy, Hell-Pore, Perfect Wine Sparking Peeling Pad, 30 Sheets</t>
+          <t>Vitacost Melatonin -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/elizavecca-milky-piggy-hell-pore-perfect-wine-sparking-peeling-pad-30-sheets/95692</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-tablets</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ezv/ezv90975/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197017270.jpg</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>$17.37</t>
+          <t>$2.99</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Om Mushrooms, Immune Multi Boost, Orange &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
+          <t>Vitacost Melatonin Liquid -- 3 mg per serving - 2 fl oz</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-orange-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110597</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-liquid</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/omm/omm99603/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Liquid-835003008148.jpg</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>$20.24</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Stasher, Stand-Up Mega, Aqua, 104 fl oz (3.07 L)</t>
+          <t>NOW Boron -- 3 mg - 250 Veg Capsules</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/stasher-stand-up-mega-aqua-104-fl-oz-3-07-l/111670</t>
+          <t>https://www.vitacost.com/now-boron</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/shr/shr01955/c/5.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014122.jpg</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>$31.49</t>
+          <t>$11.49</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Raspberry Lemonade, 30 Packets, 0.2 oz (5.7 g) Each</t>
+          <t>NOW Astaxanthin -- 4 mg - 90 Softgels</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-raspberry-lemonade-30-packets-0-2-oz-5-7-g-each/110899</t>
+          <t>https://www.vitacost.com/now-astaxanthin</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/pur/pur03112/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW-Foods/NOW-Astaxanthin-733739023056.jpg</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>$39.21</t>
+          <t>$16.49</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gerard Cosmetics, Slay All Day, Setting Spray, Green Tea, 3.38 oz (100 ml)</t>
+          <t>Vitacost Zeaxanthin -- 4 mg - 60 Liquid Capsules</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerard-cosmetics-slay-all-day-setting-spray-green-tea-3-38-oz-100-ml/114377</t>
+          <t>https://www.vitacost.com/vitacost-zeaxanthin-4-mg-60-liquid-capsules-4</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gco/gco13805/c/10.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Zeaxanthin-844197017102.jpg</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>$19.75</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Coromega, Pup Packets, Joint &amp; Muscle Mobility Support, 30 Squeeze Packets, 2.6 ml Each</t>
+          <t>Nature's Way Boron Complex - Bone Support -- 3 mg Per Ser...</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/coromega-pup-packets-joint-muscle-mobility-support-30-squeeze-packets-2-6-ml-each/105320</t>
+          <t>https://www.vitacost.com/natures-way-boron-complex-bone-support</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/erb/erb45570/c/2.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Way/Natures-Way-Boron-Complex-Bone-Support-033674411018.jpg</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>$20.80</t>
+          <t>$6.29</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Get It Girl, 38 Strips</t>
+          <t>Life Extension Boron -- 3 mg - 100 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-get-it-girl-38-strips/87054</t>
+          <t>https://www.vitacost.com/life-extension-boron-3-mg-100-vegetarian-capsules-2</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47097/c/0.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Boron-737870166115.jpg</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$6.28</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Fashion Week, 38 Strips</t>
+          <t>Vitacost Melatonin -- 3 mg - 300 Capsules</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-fashion-week-38-strips/87060</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-300-capsules-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47132/c/0.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003002658.jpg</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$9.99</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Glamor and Bloom, 38 Strips</t>
+          <t>Natrol Melatonin Time Release -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-glamor-and-bloom-38-strips/87061</t>
+          <t>https://www.vitacost.com/natrol-melatonin-time-release-3-mg-100-tablets</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47137/c/0.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Time-Release-047469004583.jpg</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$8.63</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Nail Gel Strips For Nails &amp; Toenails, Lady Mode, 38 Strips</t>
+          <t>Solaray Copper -- 2 mg - 100 VegCaps</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-nail-gel-strips-for-nails-toenails-lady-mode-38-strips/87064</t>
+          <t>https://www.vitacost.com/solaray-copper</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47167/c/3.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Copper-076280459319.jpg</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$7.99</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Mehaz, The Original Edge Cutter, Pink, 1 Cutter</t>
+          <t>NOW Astaxanthin -- 4 mg - 60 Veggie Softgels</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-pink-1-cutter/92705</t>
+          <t>https://www.vitacost.com/now-astaxanthin-4-mg-60-veggie-softgels</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mhz/mhz11434/c/0.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Astaxanthin-733739032515.jpg</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>$14.47</t>
+          <t>$10.99</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Mehaz, The Original Edge Cutter, Black, 1 Cutter</t>
+          <t>Vitacost Melatonin -- 1 mg - 300 Capsules</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-black-1-cutter/92708</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-1-mg-300-capsules</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mhz/mhz11414/c/0.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003007264.jpg</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>$15.04</t>
+          <t>$7.99</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Honey Belle, Black Obsidian Facial Roller, 1 Roller</t>
+          <t>Vitacost Melatonin Natural Cherry -- 1 mg - 100 Chewable ...</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honey-belle-black-obsidian-facial-roller-1-roller/90055</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-natural-cherry</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hbe/hbe77074/c/38.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Natural-Cherry-844197019632.jpg</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>$27.00</t>
+          <t>$4.37</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Holistic Blend, My Healthy Pet, Food Booster, For Dogs &amp; Cats, 6.2 oz (175 g)</t>
+          <t>Nature's Bounty Melatonin -- 1 mg - 180 Tablets</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/holistic-blend-my-healthy-pet-food-booster-for-dogs-cats-6-2-oz-175-g/83876</t>
+          <t>https://www.vitacost.com/natures-bounty-melatonin-1-mg-180-tablets</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hob/hob27700/c/10.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312028328.jpg</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>$15.00</t>
+          <t>$4.99</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Luseta Beauty, Disposable Medical Face Mask, 50 Pack</t>
+          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin® Dietary Sup...</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/luseta-beauty-disposable-medical-face-mask-50-pack/100234</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-120-gel-caps</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lby/lby44060/c/22.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035133.jpg</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>$16.80</t>
+          <t>$29.99</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Landsberg, 3 Ply Disposable Protective Face Mask, 50 Pack</t>
+          <t>NOW Boron -- 3 mg - 100 Veg Capsules</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/landsberg-3-ply-disposable-protective-face-mask-50-pack/101029</t>
+          <t>https://www.vitacost.com/now-boron-3-mg-100-veg-capsules</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lbg/lbg57000/c/3.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014108.jpg</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>$9.90</t>
+          <t>$5.49</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Reviva Labs, Calming Renewal Serum, 1 fl oz (29.5 ml)</t>
+          <t>Source Naturals Triple Boron -- 3 mg - 200 Capsules</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/reviva-labs-calming-renewal-serum-1-fl-oz-29-5-ml/111537</t>
+          <t>https://www.vitacost.com/source-naturals-triple-boron</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rev/rev00261/c/20.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Triple-Boron-021078019145.jpg</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>$17.50</t>
+          <t>$10.49</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Bbluv, Trimo, Replacement Filing Discs, 1, 0-3 Months, 3 Pack</t>
+          <t>Source Naturals Melatonin NutraSpray™ Natural Orange -- 1...</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/bbluv-trimo-replacement-filing-discs-1-0-3-months-3-pack/111599</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-nutraspray</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/blv/blv38765/c/5.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-NutraSpray-Natural-Orange-021078003281.jpg</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>$2.96</t>
+          <t>$9.62</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Urban Accents, Chile Verde Fish Tacos Seasoning Mix, 0.75 oz (21 g)</t>
+          <t>Natrol Melatonin Strawberry -- 3 mg - 150 Fast-Dissolve T...</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/urban-accents-chile-verde-fish-tacos-seasoning-mix-0-75-oz-21-g/111652</t>
+          <t>https://www.vitacost.com/natrol-melatonin-strawberry-3-mg-150-fast-dissolve-tablets</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/uba/uba12100/c/2.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Strawberry-047469072810.jpg</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>$4.45</t>
+          <t>$9.71</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SeaBond, Denture Adhesive Seals, Original, 15 Uppers</t>
+          <t>Source Naturals MethylCobalamin Vitamin B12 Cherry -- 1 m...</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/seabond-denture-adhesive-seals-original-15-uppers/112283</t>
+          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sbo/sbo00162/c/18.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B12-Cherry-021078012931.jpg</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>$3.85</t>
+          <t>$14.68</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mane Choice, The Alpha, Detangling Hydration Shampoo, For All Hair Types, 8 fl oz (237 ml)</t>
+          <t>Vitafusion Melatonin Gummies Sugar Free White Tea and Pea...</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mane-choice-the-alpha-detangling-hydration-shampoo-for-all-hair-types-8-fl-oz-237-ml/110441</t>
+          <t>https://www.vitacost.com/vitafusion-melatonin-gummies-sugar-free</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mae/mae00523/c/16.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitafusion/Vitafusion-Melatonin-Gummies-Sugar-Free-White-Tea-and-Peach-027917026718.jpg</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>$9.54</t>
+          <t>$13.49</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, Immune Support, 16 fl oz (473 ml)</t>
+          <t>Deva Vegan Astaxanthin Super Carotenoid -- 4 mg - 30 Vega...</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-immune-support-16-fl-oz-473-ml/107248</t>
+          <t>https://www.vitacost.com/deva-vegan-astaxanthin-super-carotenoid</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn02051/c/8.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Deva/Deva-Vegan-Astaxanthin-Super-Carotenoid-895634000089.jpg</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Dr. Talbot's, Infrared Thermometer, White, 1 Thermometer</t>
+          <t>Life Extension Melatonin -- 1 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-talbot-s-infrared-thermometer-white-1-thermometer/106959</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-1-mg-60-capsules</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/tal/tal14902/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870329060.jpg</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>$33.31</t>
+          <t>$5.29</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Sky Organics, Blemish Control, Spot Treatment, 0.33 fl oz (10 ml)</t>
+          <t>Natrol Kids Melatonin Gummy Sleep Aid for Children Ages 4...</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sky-organics-blemish-control-spot-treatment-0-33-fl-oz-10-ml/106181</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-gummy-sleep-aid-for-children-ages-4-and-up</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/syo/syo43063/c/5.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Gummy-Sleep-Aid-for-Children-Ages-4-and-Up-Berry-Flavored-047469075309.jpg</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>$9.20</t>
+          <t>$10.89</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Source Naturals, Wellness D-mmunity, Bio-Aligned Vitamin D Immune Formula, 75 mcg (3,000 IU), 60 Vegetarian Capsules</t>
+          <t>Superior Source Melatonin -- 1 mg - 100 MicroLingual Tablets</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/source-naturals-wellness-d-mmunity-bio-aligned-vitamin-d-immune-formula-75-mcg-3-000-iu-60-vegetarian-capsules/107616</t>
+          <t>https://www.vitacost.com/superior-source-melatonin-1-mg-100-microlingual-tablets</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sns/sns02872/c/8.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635907304.jpg</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>$11.05</t>
+          <t>$4.98</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Gaia Herbs, Floradix, Calcium, 200 mg, 8.5 fl oz (250 ml)</t>
+          <t>Life Extension Astaxanthin with Phospholipids -- 4 mg - 3...</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gaia-herbs-floradix-calcium-200-mg-8-5-fl-oz-250-ml/106338</t>
+          <t>https://www.vitacost.com/life-extension-astaxanthin-with-phospholipids-4-mg-30-softgels-3</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gai/gai26019/c/8.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Astaxanthin-with-Phospholipids-737870192336.jpg</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>$19.99</t>
+          <t>$12.01</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Green Sprouts, Feeding Bowl, 6+ Months, Pink, 1 Bowl</t>
+          <t>Vitacost Melatonin -- 2.5 mg - 60 Chewable Tablets</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/green-sprouts-feeding-bowl-6-months-pink-1-bowl/106441</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-2-5-mg-60-chewable-tablets</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gsp/gsp13445/c/13.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197029495.jpg</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>$7.03</t>
+          <t>$3.99</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Sunny Isle, Jamaican Black Castor Oil, Leave in Knot Free Forever, 8 fl oz</t>
+          <t>NOW Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sunny-isle-jamaican-black-castor-oil-leave-in-knot-free-forever-8-fl-oz/106521</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-60-vegetarian-capsules</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sij/sij00541/c/6.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032553.jpg</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>$8.75</t>
+          <t>$3.99</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Specialty Coffee, BLK &amp; Bold, Whole Bean, Dark Roast, 12 oz (340 g)</t>
+          <t>Life Extension Melatonin -- 3 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-blk-bold-whole-bean-dark-roast-12-oz-340-g/109492</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bkb/bkb79130/c/10.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870332060.jpg</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>$10.39</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>XP Sports, Zero-Lag, Focus &amp; Energy + Eye Health Support, 60 Capsules</t>
+          <t>Vitacost Melatonin -- 3 mg - 100 Capsules</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/xp-sports-zero-lag-focus-energy-eye-health-support-60-capsules/105129</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-capsules</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/xps/xps60989/c/10.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003000593.jpg</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>$16.74</t>
+          <t>$4.19</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>310 Nutrition, Meal Replacement Shake, Salted Caramel, 14.7 oz (417.2 g)</t>
+          <t>Healthy Origins Astaxanthin -- 4 mg - 150 Softgels</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-salted-caramel-14-7-oz-417-2-g/114801</t>
+          <t>https://www.vitacost.com/healthy-origins-astaxanthin-4-mg-150-softgels</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83048/c/2.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Healthy-Origins/Healthy-Origins-Astaxanthin-603573849160.jpg</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>$27.20</t>
+          <t>$26.99</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Bell Lifestyle, Supreme Immune Support , 90 Veggie Capsules</t>
+          <t>Life Extension Melatonin -- 3 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/bell-lifestyle-supreme-immune-support-90-veggie-capsules/41201</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-capsules</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bel/bel11012/c/41.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870330066.jpg</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>$19.78</t>
+          <t>$7.49</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Hanskin, Real Complexion, Hyaluron Pink Capsule Serum, 1.69 fl oz (50 ml)</t>
+          <t>Vibrant Health Super Natural Boron -- 3 mg - 60 Vegetable...</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/hanskin-real-complexion-hyaluron-pink-capsule-serum-1-69-fl-oz-50-ml/104846</t>
+          <t>https://www.vitacost.com/vibrant-health-super-natural-boron</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hki/hki23173/c/9.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vibrant-Health/Vibrant-Health-Super-Natural-Boron-074306800367.jpg</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>$24.75</t>
+          <t>$13.49</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>21st Century, Protective Face Mask, ASTM F2100, Single Use Disposable Masks, 50 Masks, 5-10 ct Packs</t>
+          <t>Source Naturals Melatonin Sublingual Peppermint -- 1 mg -...</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/21st-century-protective-face-mask-astm-f2100-single-use-disposable-masks-50-masks-5-10-ct-packs/104887</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-peppermint-1-mg-100-lozenges</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cen/cen25319/c/9.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Peppermint-021078007098.jpg</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>$32.10</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Double Dare, OMG! Reversible Mega Hair Band, Hot Pink Plush &amp; Hot Pink Platinum, 1 Piece</t>
+          <t>Source Naturals Melatonin Lozenges Orange -- 1 mg - 100 L...</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-hot-pink-plush-hot-pink-platinum-1-piece/107689</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dbd/dbd53814/c/8.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078007067.jpg</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>$11.34</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Double Dare, OMG! Reversible Mega Hair Band, White Plush &amp; Rainbow Platinum, 1 Piece</t>
+          <t>Source Naturals Melatonin Orange -- 2.5 mg - 120 Lozenges</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-white-plush-rainbow-platinum-1-piece/107690</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-120-lozenges</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dbd/dbd53817/c/13.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002727.jpg</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>$11.34</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>New Nordic US Inc, Active Immune, Immune Support, 30 Tablets</t>
+          <t>Pure Encapsulations Melatonin -- 3 mg - 180 Capsules</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/new-nordic-active-immune-immune-support-30-tablets/104027</t>
+          <t>https://www.vitacost.com/pure-encapsulations-melatonin-3-mg-180-capsules</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nno/nno00010/c/9.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Pure-Encapsulations/Pure-Encapsulations-Melatonin-766298001814.jpg</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>$12.26</t>
+          <t>$35.80</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Luseta Beauty, Disposable Protection Face Mask, 50 Pack</t>
+          <t>Thorne Research 5-MTHF Methylfolate -- 1 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/luseta-beauty-disposable-protection-face-mask-50-pack/100099</t>
+          <t>https://www.vitacost.com/thorne-research-5-mthf-methylfolate</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lby/lby44036/c/18.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Thorne-Research/Thorne-Research-5-MTHF-Methylfolate-693749129011.jpg</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>$13.20</t>
+          <t>$22.00</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Source Naturals, Wellness, Larch Extract, 60 Tablets</t>
+          <t>Superior Source Melatonin -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/source-naturals-wellness-larch-extract-60-tablets/1480</t>
+          <t>https://www.vitacost.com/superior-source-melatonin-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sns/sns01324/c/4.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635900008.jpg</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>$16.10</t>
+          <t>$5.69</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Wedderspoon, Raw Multifloral Manuka Honey, KFactor 12, 8.8 oz (250 g)</t>
+          <t>Source Naturals Melatonin Peppermint -- 2.5 mg - 240 Loze...</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/wedderspoon-raw-multifloral-manuka-honey-kfactor-12-8-8-oz-250-g/69037</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-2-5-mg-240-lozenges</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wsp/wsp02004/c/31.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078002048.jpg</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>$18.59</t>
+          <t>$22.75</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Boiron, Single Remedies, Ruta Graveolens, 6C, Approx 80 Pellets</t>
+          <t>Solgar Melatonin -- 3 mg - 120 Nuggets</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/boiron-single-remedies-ruta-graveolens-6c-approx-80-pellets/58040</t>
+          <t>https://www.vitacost.com/solgar-melatonin-3-mg-120-nuggets</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bos/bos64308/c/35.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solgar/Solgar-Melatonin-033984019355.jpg</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>$6.54</t>
+          <t>$8.24</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SteelFit, Steel Sweat, Thermogenic Pre-Workout, Lava Lemon Lime, 5.29 oz (150 g)</t>
+          <t>Nature's Bounty Melatonin -- 3 mg - 120 Quick Dissolve Ta...</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/steelfit-steel-sweat-thermogenic-pre-workout-lava-lemon-lime-5-29-oz-150-g/121617</t>
+          <t>https://www.vitacost.com/natures-bounty-melatonin-3-mg-120-quick-dissolve-tablets</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/stf/stf05061/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312079016.jpg</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>$20.44</t>
+          <t>$6.79</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gerard Cosmetics, Hydra Matte Liquid Lipstick, Boss Lady,  0.085 oz (2.5 ml)</t>
+          <t>Source Naturals Melatonin Peppermint -- 1 mg - 300 Lozenges</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerard-cosmetics-hydra-matte-liquid-lipstick-boss-lady-0-085-oz-2-5-ml/114376</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-300-lozenges</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gco/gco13830/c/18.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007111.jpg</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>$13.96</t>
+          <t>$17.85</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>310 Nutrition, Meal Replacement Shake, Vanilla, 28.6 oz (812 g)</t>
+          <t>Natrol Liquid Melatonin Sleep Berry -- 2.5 mg - 8 fl oz</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-vanilla-28-6-oz-812-g/114796</t>
+          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry-2-5-mg-8-fl-oz</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83045/c/2.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074050.jpg</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>$41.66</t>
+          <t>$10.99</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Youtheory, K2D3 On Th Go, Peach, 12 Packets, 1 fl oz (30 ml) Each</t>
+          <t>NOW Melatonin -- 1 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/youtheory-k2d3-on-th-go-peach-12-packets-1-fl-oz-30-ml-each/115846</t>
+          <t>https://www.vitacost.com/now-melatonin-1-mg-100-tablets</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/you/you92030/c/21.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032621.jpg</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>$12.26</t>
+          <t>$5.49</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Youtheory, B12B6 On The Go, Raspberry, 12 Packets, 1 fl oz (30 ml) Each</t>
+          <t>NOW Melatonin -- 3 mg - 180 Lozenges</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/youtheory-b12b6-on-the-go-raspberry-12-packets-1-fl-oz-30-ml-each/115849</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-180-lozenges</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/you/you92028/c/21.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032591.jpg</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>$12.09</t>
+          <t>$7.49</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Om Mushrooms, Immune Multi Boost, Lemon &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
+          <t>Nutrex Hawaii BioAstin Hawaiian Astaxanthin Dietary Suppl...</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-lemon-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110709</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-60-softgels</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/omm/omm99605/c/14.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035089.jpg</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>$20.24</t>
+          <t>$17.49</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 100 Tablets</t>
+          <t>Life Extension Vitamin B12 -- 1 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-tablets</t>
+          <t>https://www.vitacost.com/life-extension-vitamin-b12-1-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197017270.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Vitamin-B12-737870153665.jpg</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>$2.99</t>
+          <t>$7.51</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin Liquid -- 3 mg per serving - 2 fl oz</t>
+          <t>Source Naturals Melatonin Orange -- 1 mg - 300 Lozenges</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-liquid</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-1-mg-300-lozenges</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Liquid-835003008148.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078007081.jpg</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$17.85</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NOW Boron -- 3 mg - 250 Veg Capsules</t>
+          <t>Natrol Melatonin Fast Dissolve Strawberry -- 1 mg - 90 Ta...</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-boron</t>
+          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve-strawberry-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014122.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469063245.jpg</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>$11.49</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>NOW Astaxanthin -- 4 mg - 90 Softgels</t>
+          <t>MRM Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-astaxanthin</t>
+          <t>https://www.vitacost.com/mrm-melatonin-3-mg-60-vegetarian-capsules-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW-Foods/NOW-Astaxanthin-733739023056.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/MRM/MRM-Melatonin-609492570017.jpg</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>$16.49</t>
+          <t>$5.04</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Vitacost Zeaxanthin -- 4 mg - 60 Liquid Capsules</t>
+          <t>Natrol Kids Melatonin Sleep Aid Gummy for Children Ages 4...</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-zeaxanthin-4-mg-60-liquid-capsules-4</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-sleep-aid-gummy-for-children-ages-4-and-up</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Zeaxanthin-844197017102.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Sleep-Aid-Gummy-for-Children-Ages-4-and-Up-Berry-Flavored-047469076924.jpg</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$8.71</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Nature's Way Boron Complex - Bone Support -- 3 mg Per Ser...</t>
+          <t>Solaray Tetra-Boron™ -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-way-boron-complex-bone-support</t>
+          <t>https://www.vitacost.com/solaray-tetra-boron</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Way/Natures-Way-Boron-Complex-Bone-Support-033674411018.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Tetra-Boron-076280045789.jpg</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>$6.29</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Life Extension Boron -- 3 mg - 100 Vegetarian Capsules</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 120 Tab...</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-boron-3-mg-100-vegetarian-capsules-2</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-120-tablets</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Boron-737870166115.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000662.jpg</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>$6.28</t>
+          <t>$13.65</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 300 Capsules</t>
+          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin Vegan Formul...</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-300-capsules-1</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-vegan-formula-dietary-supplement</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003002658.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Vegan-Formula-Dietary-Supplement-732894500136.jpg</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$33.99</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Time Release -- 3 mg - 100 Tablets</t>
+          <t>Source Naturals Melatonin Lozenges Orange -- 2.5 mg - 240...</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-time-release-3-mg-100-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges-orange</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Time-Release-047469004583.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078002833.jpg</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>$8.63</t>
+          <t>$22.75</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Solaray Copper -- 2 mg - 100 VegCaps</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 240 Tab...</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solaray-copper</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Copper-076280459319.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000679.jpg</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>$7.99</t>
+          <t>$26.08</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>NOW Astaxanthin -- 4 mg - 60 Veggie Softgels</t>
+          <t>Country Life Melatonin -- 3 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-astaxanthin-4-mg-60-veggie-softgels</t>
+          <t>https://www.vitacost.com/country-life-melatonin-3-mg-90-tablets</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Astaxanthin-733739032515.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016892.jpg</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>$10.99</t>
+          <t>$11.39</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 1 mg - 300 Capsules</t>
+          <t>Dr. Mercola Iodine -- 1.5 mg - 30 Capsules</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-1-mg-300-capsules</t>
+          <t>https://www.vitacost.com/dr-mercola-iodine-1-5-mg-30-capsules-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003007264.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Iodine-813006016148.jpg</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>$7.99</t>
+          <t>$8.97</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin Natural Cherry -- 1 mg - 100 Chewable ...</t>
+          <t>Natrol Melatonin Sleep -- 1 mg - 180 Tablets</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-natural-cherry</t>
+          <t>https://www.vitacost.com/natrol-melatonin-sleep</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Natural-Cherry-844197019632.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004668.jpg</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>$4.37</t>
+          <t>$8.60</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Nature's Bounty Melatonin -- 1 mg - 180 Tablets</t>
+          <t>NOW Copper Glycinate -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-bounty-melatonin-1-mg-180-tablets</t>
+          <t>https://www.vitacost.com/now-copper-glycinate</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312028328.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Copper-Glycinate-733739014337.jpg</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>$4.99</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin® Dietary Sup...</t>
+          <t>Terry Naturally Tri-Iodine™ -- 3 mg - 90 Capsules</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-120-gel-caps</t>
+          <t>https://www.vitacost.com/terry-naturally-tri-iodine-3-mg-90-capsules-1</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035133.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Terry-Naturally/Terry-Naturally-Tri-Iodine-367703420093.jpg</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>$29.99</t>
+          <t>$20.76</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NOW Boron -- 3 mg - 100 Veg Capsules</t>
+          <t>NOW Melatonin -- 3 mg - 90 Lozenges</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-boron-3-mg-100-veg-capsules</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-90-lozenges</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014108.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032584.jpg</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>$5.49</t>
+          <t>$4.09</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Source Naturals Triple Boron -- 3 mg - 200 Capsules</t>
+          <t>NaturesPlus Copper -- 3 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-triple-boron</t>
+          <t>https://www.vitacost.com/naturesplus-copper</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Triple-Boron-021078019145.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Copper-097467034303.jpg</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>$10.49</t>
+          <t>$9.31</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin NutraSpray™ Natural Orange -- 1...</t>
+          <t>KAL Melatonin Drop Ins™ Dietary Supplement Natural Raspbe...</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-nutraspray</t>
+          <t>https://www.vitacost.com/kal-melatonin-drop-ins-dietary-supplement</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-NutraSpray-Natural-Orange-021078003281.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Drop-Ins-Dietary-Supplement-Natural-Raspberry-021245970354.jpg</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>$9.62</t>
+          <t>$12.49</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Strawberry -- 3 mg - 150 Fast-Dissolve T...</t>
+          <t>Trace Minerals Research Ionic Copper Dietary Supplement -...</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-strawberry-3-mg-150-fast-dissolve-tablets</t>
+          <t>https://www.vitacost.com/trace-minerals-research-ionic-copper-dietary-supplement</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Strawberry-047469072810.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Trace-Minerals-Research/Trace-Minerals-Research-Ionic-Copper-Dietary-Supplement-878941003417.jpg</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>$9.71</t>
+          <t>$15.99</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Source Naturals MethylCobalamin Vitamin B12 Cherry -- 1 m...</t>
+          <t>Natrol Kids Melatonin Fast Dissolve Tablets with Lemon Ba...</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b12</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-fast-dissolve-tablets-with-lemon-balm-for-children-ages-4-and-up-drug-free</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B12-Cherry-021078012931.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Fast-Dissolve-Tablets-with-Lemon-Balm-for-Children-Ages-4-and-Up-Drug-Free-Strawberry-Flavored-047469075293.jpg</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>$14.68</t>
+          <t>$8.09</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Vitafusion Melatonin Gummies Sugar Free White Tea and Pea...</t>
+          <t>MegaFood Melatonin Berry Good Sleep® Gummies Berry -- 3 m...</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitafusion-melatonin-gummies-sugar-free</t>
+          <t>https://www.vitacost.com/megafood-melatonin-berry-good-sleep-gummies</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitafusion/Vitafusion-Melatonin-Gummies-Sugar-Free-White-Tea-and-Peach-027917026718.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/MegaFood/MegaFood-Melatonin-Berry-Good-Sleep-Gummies-Berry-051494104156.jpg</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>$13.49</t>
+          <t>$13.99</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Deva Vegan Astaxanthin Super Carotenoid -- 4 mg - 30 Vega...</t>
+          <t>Natrol Melatonin Fast Dissolve Strawberry -- 3 mg - 90 Ta...</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/deva-vegan-astaxanthin-super-carotenoid</t>
+          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Deva/Deva-Vegan-Astaxanthin-Super-Carotenoid-895634000089.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469060763.jpg</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6534,1978 +6534,900 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 1 mg - 60 Capsules</t>
+          <t>Dr. Mercola Organic Astaxanthin -- 4 mg - 90 Capsules</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-1-mg-60-capsules</t>
+          <t>https://www.vitacost.com/dr-mercola-organic-astaxanthin</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870329060.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Organic-Astaxanthin-810487036245.jpg</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>$5.29</t>
+          <t>$39.97</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Natrol Kids Melatonin Gummy Sleep Aid for Children Ages 4...</t>
+          <t>Nordic Naturals Zero Sugar Melatonin Gummies Raspberry --...</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-gummy-sleep-aid-for-children-ages-4-and-up</t>
+          <t>https://www.vitacost.com/nordic-naturals-zero-sugar-melatonin-gummies-raspberry</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Gummy-Sleep-Aid-for-Children-Ages-4-and-Up-Berry-Flavored-047469075309.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nordic-Naturals/Nordic-Naturals-Zero-Sugar-Melatonin-Gummies-Raspberry-768990301896.jpg</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>$10.89</t>
+          <t>$30.20</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Superior Source Melatonin -- 1 mg - 100 MicroLingual Tablets</t>
+          <t>Natrol Melatonin -- 3 mg - 240 Tablets</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/superior-source-melatonin-1-mg-100-microlingual-tablets</t>
+          <t>https://www.vitacost.com/natrol-melatonin-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635907304.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469160685.jpg</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>$4.98</t>
+          <t>$18.35</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Life Extension Astaxanthin with Phospholipids -- 4 mg - 3...</t>
+          <t>KAL Melatonin Sustained Release -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-astaxanthin-with-phospholipids-4-mg-30-softgels-3</t>
+          <t>https://www.vitacost.com/kal-melatonin-sustained-release</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Astaxanthin-with-Phospholipids-737870192336.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Sustained-Release-021245750123.jpg</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>$12.01</t>
+          <t>$14.99</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 2.5 mg - 60 Chewable Tablets</t>
+          <t>Source Naturals Sleep Science Melatonin Peppermint -- 2.5...</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-2-5-mg-60-chewable-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin-peppermint</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197029495.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Peppermint-021078000853.jpg</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
+          <t>Source Naturals Timed Release Melatonin -- 2 mg - 120 Tab...</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-60-vegetarian-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-timed-release-melatonin-2-mg-120-tablets</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032553.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Timed-Release-Melatonin-021078000631.jpg</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$11.55</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 3 mg - 60 Lozenges</t>
+          <t>Country Life Melatonin -- 1 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-lozenges</t>
+          <t>https://www.vitacost.com/country-life-melatonin-1-mg-120-tablets</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870332060.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016915.jpg</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$9.07</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 100 Capsules</t>
+          <t>Source Naturals Vegan True™ Melatonin Orange -- 2.5 mg - ...</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-orange</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003000593.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-Orange-021078025801.jpg</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>$4.19</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Healthy Origins Astaxanthin -- 4 mg - 150 Softgels</t>
+          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 180 Che...</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/healthy-origins-astaxanthin-4-mg-150-softgels</t>
+          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin-3-mg-180-chewable-tablets-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Healthy-Origins/Healthy-Origins-Astaxanthin-603573849160.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027166.jpg</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>$26.99</t>
+          <t>$9.77</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 3 mg - 60 Capsules</t>
+          <t>Source Naturals MethylCobalamin Vitamin B-12 Cherry -- 1 ...</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b-12-cherry</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870330066.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B-12-Cherry-021078012924.jpg</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>$7.49</t>
+          <t>$8.05</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Vibrant Health Super Natural Boron -- 3 mg - 60 Vegetable...</t>
+          <t>Carlson Melatonin Gummies Natural Strawberry -- 2.5 mg - ...</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vibrant-health-super-natural-boron</t>
+          <t>https://www.vitacost.com/carlson-melatonin-gummies-natural-strawberry</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vibrant-Health/Vibrant-Health-Super-Natural-Boron-074306800367.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Carlson/Carlson-Melatonin-Gummies-Natural-Strawberry-088395492006.jpg</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>$13.49</t>
+          <t>$12.73</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Sublingual Peppermint -- 1 mg -...</t>
+          <t>Natrol Melatonin Sleep -- 1 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-peppermint-1-mg-100-lozenges</t>
+          <t>https://www.vitacost.com/natrol-melatonin-sleep-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Peppermint-021078007098.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004675.jpg</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Lozenges Orange -- 1 mg - 100 L...</t>
+          <t>Natrol Liquid Melatonin Sleep Berry -- 1 mg - 2 fl oz</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges</t>
+          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078007067.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074029.jpg</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$5.37</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Orange -- 2.5 mg - 120 Lozenges</t>
+          <t>Source Naturals Melatonin -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-120-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002727.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005506.jpg</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>$11.89</t>
+          <t>$5.95</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Pure Encapsulations Melatonin -- 3 mg - 180 Capsules</t>
+          <t>Source Naturals Melatonin -- 1 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/pure-encapsulations-melatonin-3-mg-180-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-100-tablets</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Pure-Encapsulations/Pure-Encapsulations-Melatonin-766298001814.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078007197.jpg</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>$35.80</t>
+          <t>$6.13</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Thorne Research 5-MTHF Methylfolate -- 1 mg - 60 Capsules</t>
+          <t>Source Naturals Melatonin Sublingual Liquid Orange -- 1 m...</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/thorne-research-5-mthf-methylfolate</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-liquid</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Thorne-Research/Thorne-Research-5-MTHF-Methylfolate-693749129011.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Liquid-Orange-021078000860.jpg</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>$22.00</t>
+          <t>$8.58</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Superior Source Melatonin -- 3 mg - 60 Tablets</t>
+          <t>Source Naturals Melatonin Timed Release -- 2 mg - 240 Tab...</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/superior-source-melatonin-3-mg-60-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-2-mg-240-tablets-1</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635900008.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000648.jpg</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>$5.69</t>
+          <t>$22.05</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Peppermint -- 2.5 mg - 240 Loze...</t>
+          <t>Source Naturals Melatonin Peppermint -- 1 mg - 200 Lozenges</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-2-5-mg-240-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-200-lozenges</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078002048.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007104.jpg</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>$22.75</t>
+          <t>$12.25</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Solgar Melatonin -- 3 mg - 120 Nuggets</t>
+          <t>Source Naturals Sleep Science® Melatonin Orange -- 1 mg -...</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solgar-melatonin-3-mg-120-nuggets</t>
+          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solgar/Solgar-Melatonin-033984019355.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Orange-021078007074.jpg</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>$8.24</t>
+          <t>$12.25</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Nature's Bounty Melatonin -- 3 mg - 120 Quick Dissolve Ta...</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 120 Softgels</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-bounty-melatonin-3-mg-120-quick-dissolve-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312079016.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019565.jpg</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>$6.79</t>
+          <t>$31.49</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Peppermint -- 1 mg - 300 Lozenges</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-300-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-60-tablets-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007111.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000655.jpg</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>$17.85</t>
+          <t>$7.18</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Natrol Liquid Melatonin Sleep Berry -- 2.5 mg - 8 fl oz</t>
+          <t>Mt Angel Vitamins Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry-2-5-mg-8-fl-oz</t>
+          <t>https://www.vitacost.com/mt-angel-vitamins-melatonin</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074050.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Mt-Angel-Vitamins/Mt-Angel-Vitamins-Melatonin-768305070080.jpg</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>$10.99</t>
+          <t>$9.42</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 1 mg - 100 Tablets</t>
+          <t>Douglas Laboratories Melatonin -- 3 mg - 60 Vegetarian Ca...</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-1-mg-100-tablets</t>
+          <t>https://www.vitacost.com/douglas-laboratories-melatonin-3-mg-60-vegetarian-capsules</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032621.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Douglas-Laboratories/Douglas-Laboratories-Melatonin-310539977859.jpg</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>$5.49</t>
+          <t>$14.43</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 180 Lozenges</t>
+          <t>Source Naturals Melatonin Complex™ Orange -- 3 mg - 100 S...</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-180-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-complex-orange-3-mg-100-sublingual-tablets-1</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032591.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Complex-Orange-021078005865.jpg</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>$7.49</t>
+          <t>$16.49</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin Hawaiian Astaxanthin Dietary Suppl...</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 60 Softgels</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-60-softgels</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-60-softgels</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035089.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019558.jpg</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>$17.49</t>
+          <t>$16.28</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Life Extension Vitamin B12 -- 1 mg - 60 Lozenges</t>
+          <t>Source Naturals Melatonin Orange -- 2.5 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-vitamin-b12-1-mg-60-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Vitamin-B12-737870153665.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002710.jpg</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>$7.51</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Orange -- 1 mg - 300 Lozenges</t>
+          <t>Natrol Melatonin -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-1-mg-300-lozenges</t>
+          <t>https://www.vitacost.com/natrol-melatonin</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078007081.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005115.jpg</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>$17.85</t>
+          <t>$12.95</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Fast Dissolve Strawberry -- 1 mg - 90 Ta...</t>
+          <t>Source Naturals Melatonin -- 3 mg - 240 Tablets</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve-strawberry-1-mg-90-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469063245.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005520.jpg</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>$7.55</t>
+          <t>$21.35</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MRM Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
+          <t>Thompson Melatonin -- 3 mg - 30 Tablets</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/mrm-melatonin-3-mg-60-vegetarian-capsules-1</t>
+          <t>https://www.vitacost.com/thompson-melatonin</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/MRM/MRM-Melatonin-609492570017.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Thompson/Thompson-Melatonin-031315192500.jpg</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>$5.04</t>
+          <t>$3.49</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Natrol Kids Melatonin Sleep Aid Gummy for Children Ages 4...</t>
+          <t>Country Life Melatonin -- 1 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-sleep-aid-gummy-for-children-ages-4-and-up</t>
+          <t>https://www.vitacost.com/country-life-melatonin-1-mg-60-tablets</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Sleep-Aid-Gummy-for-Children-Ages-4-and-Up-Berry-Flavored-047469076924.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016908.jpg</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>$8.71</t>
+          <t>$6.44</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Solaray Tetra-Boron™ -- 3 mg - 100 Tablets</t>
+          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 90 Chew...</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solaray-tetra-boron</t>
+          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Tetra-Boron-076280045789.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027159.jpg</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>$8.99</t>
+          <t>$5.57</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 120 Tab...</t>
+          <t>Natrol Melatonin -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-120-tablets</t>
+          <t>https://www.vitacost.com/natrol-melatonin-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000662.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005108.jpg</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>$13.65</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin Vegan Formul...</t>
+          <t>Natrol Melatonin -- 1 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-vegan-formula-dietary-supplement</t>
+          <t>https://www.vitacost.com/natrol-melatonin-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Vegan-Formula-Dietary-Supplement-732894500136.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469004651.jpg</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>$33.99</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Lozenges Orange -- 2.5 mg - 240...</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges-orange</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-120-tablets</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078002833.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078015024.jpg</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>$22.75</t>
+          <t>$27.83</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 240 Tab...</t>
+          <t>Source Naturals Vegan True™ Melatonin -- 3 mg - 60 Vegeta...</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-240-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-3-mg-60-vegetarian-capsules-1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000679.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-021078025818.jpg</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>$26.08</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Country Life Melatonin -- 3 mg - 90 Tablets</t>
+          <t>KAL Melatonin Dietary Supplement -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/country-life-melatonin-3-mg-90-tablets</t>
+          <t>https://www.vitacost.com/kal-melatonin-dietary-supplement-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016892.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Dietary-Supplement-021245750062.jpg</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>$11.39</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Dr. Mercola Iodine -- 1.5 mg - 30 Capsules</t>
+          <t>Protocol For Life Balance Melatonin -- 3 mg - 120 Lozenges</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/dr-mercola-iodine-1-5-mg-30-capsules-1</t>
+          <t>https://www.vitacost.com/protocol-for-life-balance-melatonin</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Iodine-813006016148.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Protocol-For-Life-Balance/Protocol-For-Life-Balance-Melatonin-707359132580.jpg</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>$8.97</t>
+          <t>$11.04</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Sleep -- 1 mg - 180 Tablets</t>
+          <t>Country Life Melatonin -- 3 mg - 30 Tablets</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-sleep</t>
+          <t>https://www.vitacost.com/country-life-melatonin-3-mg-30-tablets-1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004668.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016885.jpg</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>$8.60</t>
+          <t>$6.44</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>NOW Copper Glycinate -- 3 mg - 120 Tablets</t>
+          <t>Good Day Chocolate Adults Sleep Supplement Milk Chocolate...</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-copper-glycinate</t>
+          <t>https://www.vitacost.com/good-day-chocolate-adults-sleep-supplement-milk-chocolate-1-mg-80-candy-coated-pieces</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Copper-Glycinate-733739014337.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adults-Sleep-Supplement-Milk-Chocolate-858982004437.jpg</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$15.99</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Terry Naturally Tri-Iodine™ -- 3 mg - 90 Capsules</t>
+          <t>Dr. Mercola Melatonin Sleep Support Natural Raspberry -- ...</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/terry-naturally-tri-iodine-3-mg-90-capsules-1</t>
+          <t>https://www.vitacost.com/dr-mercola-melatonin-sleep-support</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Terry-Naturally/Terry-Naturally-Tri-Iodine-367703420093.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Melatonin-Sleep-Support-Natural-Raspberry-813006011976.jpg</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>$20.76</t>
+          <t>$14.97</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 90 Lozenges</t>
+          <t>NutriGold Astaxanthin Gold™ -- 4 mg - 120 Softgels</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-90-lozenges</t>
+          <t>https://www.vitacost.com/nutrigold-astaxanthin-gold</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032584.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NutriGold/NutriGold-Astaxanthin-Gold-859447002524.jpg</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
-        <is>
-          <t>$4.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>NaturesPlus Copper -- 3 mg - 90 Tablets</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/naturesplus-copper</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Copper-097467034303.jpg</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>$9.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>KAL Melatonin Drop Ins™ Dietary Supplement Natural Raspbe...</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/kal-melatonin-drop-ins-dietary-supplement</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Drop-Ins-Dietary-Supplement-Natural-Raspberry-021245970354.jpg</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>$12.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Trace Minerals Research Ionic Copper Dietary Supplement -...</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/trace-minerals-research-ionic-copper-dietary-supplement</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Trace-Minerals-Research/Trace-Minerals-Research-Ionic-Copper-Dietary-Supplement-878941003417.jpg</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>$15.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Natrol Kids Melatonin Fast Dissolve Tablets with Lemon Ba...</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-fast-dissolve-tablets-with-lemon-balm-for-children-ages-4-and-up-drug-free</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Fast-Dissolve-Tablets-with-Lemon-Balm-for-Children-Ages-4-and-Up-Drug-Free-Strawberry-Flavored-047469075293.jpg</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>$8.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>MegaFood Melatonin Berry Good Sleep® Gummies Berry -- 3 m...</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/megafood-melatonin-berry-good-sleep-gummies</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/MegaFood/MegaFood-Melatonin-Berry-Good-Sleep-Gummies-Berry-051494104156.jpg</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>$13.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin Fast Dissolve Strawberry -- 3 mg - 90 Ta...</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469060763.jpg</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>$6.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Dr. Mercola Organic Astaxanthin -- 4 mg - 90 Capsules</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/dr-mercola-organic-astaxanthin</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Organic-Astaxanthin-810487036245.jpg</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>$39.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Nordic Naturals Zero Sugar Melatonin Gummies Raspberry --...</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/nordic-naturals-zero-sugar-melatonin-gummies-raspberry</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nordic-Naturals/Nordic-Naturals-Zero-Sugar-Melatonin-Gummies-Raspberry-768990301896.jpg</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>$30.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin -- 3 mg - 240 Tablets</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin-3-mg-240-tablets</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469160685.jpg</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>$18.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Nordic Naturals Zero Sugar Melatonin Gummies Raspberry --...</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/nordic-naturals-zero-sugar-melatonin-gummies</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nordic-Naturals/Nordic-Naturals-Zero-Sugar-Melatonin-Gummies-Raspberry-768990301889.jpg</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>$30.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>KAL Melatonin Sustained Release -- 3 mg - 120 Tablets</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/kal-melatonin-sustained-release</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Sustained-Release-021245750123.jpg</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>$14.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Source Naturals Sleep Science Melatonin Peppermint -- 2.5...</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin-peppermint</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Peppermint-021078000853.jpg</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>$11.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Source Naturals Timed Release Melatonin -- 2 mg - 120 Tab...</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-timed-release-melatonin-2-mg-120-tablets</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Timed-Release-Melatonin-021078000631.jpg</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>$11.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Country Life Melatonin -- 1 mg - 120 Tablets</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/country-life-melatonin-1-mg-120-tablets</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016915.jpg</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>$9.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Source Naturals Vegan True™ Melatonin Orange -- 2.5 mg - ...</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-orange</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-Orange-021078025801.jpg</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>$6.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 180 Che...</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin-3-mg-180-chewable-tablets-1</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027166.jpg</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>$9.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Source Naturals MethylCobalamin Vitamin B-12 Cherry -- 1 ...</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b-12-cherry</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B-12-Cherry-021078012924.jpg</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>$8.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Carlson Melatonin Gummies Natural Strawberry -- 2.5 mg - ...</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/carlson-melatonin-gummies-natural-strawberry</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Carlson/Carlson-Melatonin-Gummies-Natural-Strawberry-088395492006.jpg</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>$12.73</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin Sleep -- 1 mg - 90 Tablets</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin-sleep-1-mg-90-tablets</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004675.jpg</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>$7.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Natrol Liquid Melatonin Sleep Berry -- 1 mg - 2 fl oz</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074029.jpg</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>$5.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin -- 3 mg - 60 Tablets</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-60-tablets</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005506.jpg</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>$5.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin -- 1 mg - 100 Tablets</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-100-tablets</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078007197.jpg</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>$6.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Sublingual Liquid Orange -- 1 m...</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-liquid</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Liquid-Orange-021078000860.jpg</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>$8.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Timed Release -- 2 mg - 240 Tab...</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-2-mg-240-tablets-1</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000648.jpg</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>$22.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Peppermint -- 1 mg - 200 Lozenges</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-200-lozenges</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007104.jpg</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>$12.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Source Naturals Sleep Science® Melatonin Orange -- 1 mg -...</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Orange-021078007074.jpg</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>$12.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 120 Softgels</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019565.jpg</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>$31.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 60 Tablets</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-60-tablets-1</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000655.jpg</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>$7.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Mt Angel Vitamins Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/mt-angel-vitamins-melatonin</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Mt-Angel-Vitamins/Mt-Angel-Vitamins-Melatonin-768305070080.jpg</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>$9.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Douglas Laboratories Melatonin -- 3 mg - 60 Vegetarian Ca...</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/douglas-laboratories-melatonin-3-mg-60-vegetarian-capsules</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Douglas-Laboratories/Douglas-Laboratories-Melatonin-310539977859.jpg</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>$14.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Complex™ Orange -- 3 mg - 100 S...</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-complex-orange-3-mg-100-sublingual-tablets-1</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Complex-Orange-021078005865.jpg</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>$16.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 60 Softgels</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-60-softgels</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019558.jpg</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>$16.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin Orange -- 2.5 mg - 60 Lozenges</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-60-lozenges</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002710.jpg</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>$6.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin -- 3 mg - 120 Tablets</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005115.jpg</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>$12.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Source Naturals Melatonin -- 3 mg - 240 Tablets</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-240-tablets</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005520.jpg</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>$21.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Thompson Melatonin -- 3 mg - 30 Tablets</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/thompson-melatonin</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Thompson/Thompson-Melatonin-031315192500.jpg</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>$3.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Country Life Melatonin -- 1 mg - 60 Tablets</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/country-life-melatonin-1-mg-60-tablets</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016908.jpg</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>$6.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 90 Chew...</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027159.jpg</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>$5.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin -- 3 mg - 60 Tablets</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin-3-mg-60-tablets</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005108.jpg</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>$7.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Natrol Melatonin -- 1 mg - 90 Tablets</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/natrol-melatonin-1-mg-90-tablets</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469004651.jpg</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>$7.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 120 Tablets</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-120-tablets</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078015024.jpg</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>$27.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Source Naturals Vegan True™ Melatonin -- 3 mg - 60 Vegeta...</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-3-mg-60-vegetarian-capsules-1</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-021078025818.jpg</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>$6.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>KAL Melatonin Dietary Supplement -- 3 mg - 60 Tablets</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/kal-melatonin-dietary-supplement-3-mg-60-tablets</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Dietary-Supplement-021245750062.jpg</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>$8.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Protocol For Life Balance Melatonin -- 3 mg - 120 Lozenges</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/protocol-for-life-balance-melatonin</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Protocol-For-Life-Balance/Protocol-For-Life-Balance-Melatonin-707359132580.jpg</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>$11.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Country Life Melatonin -- 3 mg - 30 Tablets</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/country-life-melatonin-3-mg-30-tablets-1</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016885.jpg</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>$6.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Good Day Chocolate Adults Sleep Supplement Milk Chocolate...</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/good-day-chocolate-adults-sleep-supplement-milk-chocolate-1-mg-80-candy-coated-pieces</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adults-Sleep-Supplement-Milk-Chocolate-858982004437.jpg</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>$15.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Good Day Chocolate Adults Sleep Supplement Milk Chocolate...</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/good-day-chocolate-adults-sleep-supplement-milk-chocolate</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adults-Sleep-Supplement-Milk-Chocolate-858982004741.jpg</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>$21.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Dr. Mercola Melatonin Sleep Support Natural Raspberry -- ...</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/dr-mercola-melatonin-sleep-support</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Melatonin-Sleep-Support-Natural-Raspberry-813006011976.jpg</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>$14.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>NutriGold Astaxanthin Gold™ -- 4 mg - 120 Softgels</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/nutrigold-astaxanthin-gold</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>https://www.vitacost.com/Images/Products/150/NutriGold/NutriGold-Astaxanthin-Gold-859447002524.jpg</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
         <is>
           <t>$29.99</t>
         </is>

--- a/output/results_2023-08-01.xlsx
+++ b/output/results_2023-08-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6758 +458,6838 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nature's Way Black Cohosh Standardized Extract 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Synergistic Eye Health - Lutein &amp; Zeaxanthin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-synergistic-eye-formula-lutein-zeaxanthin-60-sgels-SWU986</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/2046-1-large_174x174.jpg?v=1681388017</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$10.49</t>
-        </is>
+          <t>https://media.swansonvitamins.com/images/items/250/SWU986.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nature's Way Thymuplex 50 Tablet</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Full Spectrum Milk Thistle</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-full-spectrum-milk-thistle-500-mg-100-caps</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/files/13247-1-large_174x174.jpg?v=1689896126</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$20.99</t>
-        </is>
+          <t>https://media.swansonvitamins.com/images/items/250/SW966.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nature's Way Garlinase 5000 30 Tablet</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>E-400 Mixed Tocopherols</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-vitamin-e-mixed-tocopherols-400-iu-250-sgels</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/13101-1-large_174x174.jpg?v=1681340639</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$11.62</t>
-        </is>
+          <t>https://media.swansonvitamins.com/images/items/250/SW152.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nature's Way BP Manager 90 Tablet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Lutein</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-lutein-40-mg-60-sgels-SWU981</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/45478-1-large_174x174.jpg?v=1681439321</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$28.12</t>
-        </is>
+          <t>https://media.swansonvitamins.com/images/items/250/SWU981.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nature's Way Mega-Zyme 200 Tablet</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Ultimate Ashwagandha - KSM-66</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-ultimate-ashwagandha-ksm-66-250-mg-60-veg-caps-SWU1003</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/13170-1-large_174x174.jpg?v=1681340328</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$34.87</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nature's Way Ginkgold MAX 120mg 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Milk Thistle Dandelion &amp; Yellow Dock</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-milk-thistle-dandelion-yellow-dock-120-caps-SW1707</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/41234-1-large_174x174.jpg?v=1681445298</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$33.74</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nature's Way Boswellia 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-msm-1000-mg-240-caps</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/33002-1-large_174x174.jpg?v=1681326825</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$14.99</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nature's Way Women's Choice AM/PM Menopause Formula 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Lycopene</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-lycopene-20-mg-60-sgels</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/31256-1-large_174x174.jpg?v=1681328943</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$22.87</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nature's Way Perika (St. John's Wort) 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Lutein &amp; Bilberry</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-standardized-lutein-bilberry-120-sgels</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/2329-1-large_174x174.jpg?v=1681348743</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$14.99</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nature's Way Biotin Forte Extra Strength-5 mg 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>L-Lysine - Free Form</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-free-form-l-lysine-500-mg-300-caps</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/52164-1-large_174x174.jpg?v=1681324912</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$14.62</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nature's Way Alpha Betic Multivitamin 30 Tablet</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Natural E-400</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-natural-vitamin-e-400-iu-250-sgels</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/24230-1-large_174x174.jpg?v=1681426050</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$14.99</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nature's Way Alive Mens 50+ Ultra Potency Multivitamin 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Activated B-Complex - High Potency and Bioavailability</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-activated-b-complex-high-potency-bioavailability-60-veg-caps</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/61080-1-large_174x174.jpg?v=1681335832</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$22.49</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>15.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nature's Way Alive! Men's Energy 50 Tablet</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Pygeum - Standardized Extract</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-pygeum-500-mg-100-caps</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/93833-1-large_174x174.jpg?v=1681436000</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$9.37</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nature's Way Alive! Max Potency 90 Tablet</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Essential Amino Acid Complex - Pharmaceutical Grade</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-ajipure-9-essential-aminos-formula-pharmaceutical-grade-60-veg-caps</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/33174-1-large_174x174.jpg?v=1681326925</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$25.49</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nature's Way Alive! Max Potency (no iron added) 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>GABA - High Potency</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-gaba-500-mg-100-caps</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/33176-1-large_174x174.jpg?v=1681326957</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$18.37</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nature's Way Alive! Calcium Bone Formula 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>Astaxanthin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-astaxanthin-4-mg-60-sgels</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/66418-1-large_174x174.jpg?v=1681377322</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$20.24</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nature's Way Garlicin 90 Tablet</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Tri-Fiber Complex</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-tri-fiber-complex-100-caps</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/2318-1-large_174x174.jpg?v=1681387700</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$17.99</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nature's Way Umcka ColdCare Kids Chewable Cherry 10 Tablet</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Olive Leaf Extract - Extra Strength</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-superior-herbs-olive-leaf-extract-super-strength-750-mg-60-caps</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/87167-1-large_174x174.jpg?v=1681383394</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$6.74</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nature's Way Completia Diabetic (iron free) 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Probiotic for Daily Wellness</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-probiotics-probiotic-daily-wellness-2-billion-cfu-120-caps</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/40052-1-large_174x174.jpg?v=1681429835</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$20.62</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nature's Way GS-500 and Chondroitin Sulfate 60 Tablet</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Full Spectrum Ginger Root</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-ginger-root-540-mg-100-caps</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cdn.shopify.com/s/files/1/0291/0463/6003/products/40331-1-large_174x174.jpg?v=1681445325</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$30.37</t>
-        </is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Synergistic Eye Health - Lutein &amp; Zeaxanthin</t>
+          <t>5-HTP - Maximum Strength</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-synergistic-eye-formula-lutein-zeaxanthin-60-sgels-SWU986</t>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-maximum-strength-5-htp-200-mg-60-veg-caps</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://media.swansonvitamins.com/images/items/250/SWU986.jpg</t>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.5</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Full Spectrum Milk Thistle</t>
+          <t>Super DHA 500 from Food-Grade Calamari</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-full-spectrum-milk-thistle-500-mg-100-caps</t>
+          <t>https://www.swansonvitamins.com/p/swanson-efas-super-dha-500-from-calamari-30-sgels</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://media.swansonvitamins.com/images/items/250/SW966.jpg</t>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.85</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E-400 Mixed Tocopherols</t>
+          <t>DHEA - Higher Potency</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-vitamin-e-mixed-tocopherols-400-iu-250-sgels</t>
+          <t>https://www.swansonvitamins.com/p/swanson-ultra-dhea-50-mg-120-caps</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://media.swansonvitamins.com/images/items/250/SW152.jpg</t>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15.89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lutein</t>
+          <t>C-500 - Vitamin C with Rose Hips</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-lutein-40-mg-60-sgels-SWU981</t>
+          <t>https://www.swansonvitamins.com/p/swanson-premium-vitamin-c-rose-hips-500-mg-400-caps?otherSize=SW102</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://media.swansonvitamins.com/images/items/250/SWU981.jpg</t>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8.24</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ultimate Ashwagandha - KSM-66</t>
+          <t>California Gold Nutrition, Gold C, USP Grade Vitamin C, 1,000 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-ultimate-ashwagandha-ksm-66-250-mg-60-veg-caps-SWU1003</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-gold-c-usp-grade-vitamin-c-1-000-mg-60-veggie-capsules/61864</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>4.88</v>
+          <t>https://s3.images-iherb.com/cgn/cgn00931/c/164.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$3.50</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Milk Thistle Dandelion &amp; Yellow Dock</t>
+          <t>NOW Foods, Vitamin D-3, 125 mcg (5,000 IU), 120 Softgels</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-milk-thistle-dandelion-yellow-dock-120-caps-SW1707</t>
+          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-125-mcg-5-000-iu-120-softgels/10421</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>5</v>
+          <t>https://s3.images-iherb.com/now/now00372/c/35.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$5.69</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MSM</t>
+          <t>California Gold Nutrition, Vitamin D3, 125 mcg (5,000 IU), 90 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-msm-1000-mg-240-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-125-mcg-5-000-iu-90-fish-gelatin-softgels/70316</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10.79</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01065/c/174.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$5.40</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lycopene</t>
+          <t>California Gold Nutrition, Baby Vitamin D3 Liquid, 10 mcg (400 IU), 0.34 fl oz (10 ml)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-lycopene-20-mg-60-sgels</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-baby-vitamin-d3-liquid-10-mcg-400-iu-0-34-fl-oz-10-ml/65958</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5.49</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01034/c/96.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$7.20</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lutein &amp; Bilberry</t>
+          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 90 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-standardized-lutein-bilberry-120-sgels</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-90-fish-gelatin-softgels/77548</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>7.69</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01179/c/151.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$3.60</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L-Lysine - Free Form</t>
+          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 360 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-free-form-l-lysine-500-mg-300-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-360-fish-gelatin-softgels/77549</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>7.69</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01180/c/158.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$10.80</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Natural E-400</t>
+          <t>Sports Research, Omega-3 Fish Oil, Triple Strength, 180 Softgels</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-natural-vitamin-e-400-iu-250-sgels</t>
+          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-180-softgels/113871</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>15.95</v>
+          <t>https://s3.images-iherb.com/sre/sre09153/c/40.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$43.98</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Activated B-Complex - High Potency and Bioavailability</t>
+          <t>Eucerin, Intensive Repair Lotion, Fragrance Free, 16.9 fl oz (500 ml)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-activated-b-complex-high-potency-bioavailability-60-veg-caps</t>
+          <t>https://www.iherb.com/pr/eucerin-intensive-repair-lotion-fragrance-free-16-9-fl-oz-500-ml/45779</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>15.83</v>
+          <t>https://s3.images-iherb.com/euc/euc11016/c/25.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$13.36</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pygeum - Standardized Extract</t>
+          <t>California Gold Nutrition, Immune 4, Immune System Support, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-pygeum-500-mg-100-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-immune-4-immune-system-support-60-veggie-capsules/101714</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>3.84</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01842/c/63.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$5.40</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Essential Amino Acid Complex - Pharmaceutical Grade</t>
+          <t>Sports Research, Omega-3 Fish Oil, Triple Strength , 30 Softgels</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-ajipure-9-essential-aminos-formula-pharmaceutical-grade-60-veg-caps</t>
+          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-30-softgels/113870</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8.24</v>
+          <t>https://s3.images-iherb.com/sre/sre09152/c/24.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$12.58</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GABA - High Potency</t>
+          <t>Sports Research, Plant Based D3 + K2, 60 Veggie Softgels</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-gaba-500-mg-100-caps</t>
+          <t>https://www.iherb.com/pr/sports-research-plant-based-d3-k2-60-veggie-softgels/79975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
+          <t>https://s3.images-iherb.com/sre/sre01134/c/70.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$23.37</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Astaxanthin</t>
+          <t>NOW Foods, NAC, 600 mg, 250 Veg Capsules</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-astaxanthin-4-mg-60-sgels</t>
+          <t>https://www.iherb.com/pr/now-foods-nac-600-mg-250-veg-capsules/694</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8.5</v>
+          <t>https://s3.images-iherb.com/now/now00086/c/45.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$26.29</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tri-Fiber Complex</t>
+          <t>Ultamins, Men's Multi-Vitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-tri-fiber-complex-100-caps</t>
+          <t>https://www.iherb.com/pr/ultamins-ultamins-men-s-multi-vitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96380</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>4.67</v>
+          <t>https://s3.images-iherb.com/ulm/ulm01270/c/29.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$8.10</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Olive Leaf Extract - Extra Strength</t>
+          <t>California Gold Nutrition, SPORT - Whey Protein Isolate, 1 lb, 16 oz (454 g)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-superior-herbs-olive-leaf-extract-super-strength-750-mg-60-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-whey-protein-isolate-1-lb-16-oz-454-g/71031</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>4.52</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01064/c/88.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$20.70</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Probiotic for Daily Wellness</t>
+          <t>California Gold Nutrition, Premium Krill Oil with SUPERBABoost, 1,000 mg, 60  Fish Softgels</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-probiotics-probiotic-daily-wellness-2-billion-cfu-120-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superbaboost-1-000-mg-60-fish-softgels/100010</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>3.4</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01807/c/19.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$14.06</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Full Spectrum Ginger Root</t>
+          <t>California Gold Nutrition, Curcumin C3 Complex with BioPerine, 500 mg, 120 Veggie Capsules</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-ginger-root-540-mg-100-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-c3-complex-with-bioperine-500-mg-120-veggie-capsules/60047</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2.99</v>
+          <t>https://s3.images-iherb.com/cgn/cgn00940/c/121.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$28.80</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5-HTP - Maximum Strength</t>
+          <t>GummiKing, Multi-Vitamin + Mineral for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-maximum-strength-5-htp-200-mg-60-veg-caps</t>
+          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34007</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>6.04</v>
+          <t>https://s3.images-iherb.com/gum/gum00068/c/38.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$6.80</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Super DHA 500 from Food-Grade Calamari</t>
+          <t>NOW Foods, Glutathione, 250 mg, 60 Veg Capsules</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-efas-super-dha-500-from-calamari-30-sgels</t>
+          <t>https://www.iherb.com/pr/now-foods-glutathione-250-mg-60-veg-capsules/771</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>5.33</v>
+          <t>https://s3.images-iherb.com/now/now00096/c/57.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$14.23</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DHEA - Higher Potency</t>
+          <t>California Gold Nutrition, LactoBif 65 Probiotics, 65 Billion CFU, 30 Veggie Capsules</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-ultra-dhea-50-mg-120-caps</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-lactobif-65-probiotics-65-billion-cfu-30-veggie-capsules/103277</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>6</v>
+          <t>https://s3.images-iherb.com/cgn/cgn01904/c/36.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$22.50</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C-500 - Vitamin C with Rose Hips</t>
+          <t>Ultamins, Men's 50+ Multivitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.swansonvitamins.com/p/swanson-premium-vitamin-c-rose-hips-500-mg-400-caps?otherSize=SW102</t>
+          <t>https://www.iherb.com/pr/ultamins-men-s-50-multivitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96381</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkqAcAAIUAgUW0RjgAAAAASUVORK5CYII=</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>5.49</v>
+          <t>https://s3.images-iherb.com/ulm/ulm01271/c/26.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$8.10</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Gold C, USP Grade Vitamin C, 1,000 mg, 60 Veggie Capsules</t>
+          <t>Sports Research, Collagen Beauty Complex, Marine Collagen, Unflavored, 5.75 oz (163 g)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-gold-c-usp-grade-vitamin-c-1-000-mg-60-veggie-capsules/61864</t>
+          <t>https://www.iherb.com/pr/sports-research-collagen-beauty-complex-marine-collagen-unflavored-5-75-oz-163-g/101533</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00931/c/164.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre01347/c/27.jpg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>$3.50</t>
+          <t>$16.78</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOW Foods, Vitamin D-3, 125 mcg (5,000 IU), 120 Softgels</t>
+          <t>Doctor's Best, Multi-Vitamin with Vitashine D3 and Quatrefolic, Iron Free, 90 Veggie Capsules</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-125-mcg-5-000-iu-120-softgels/10421</t>
+          <t>https://www.iherb.com/pr/doctor-s-best-multi-vitamin-with-vitashine-d3-and-quatrefolic-iron-free-90-veggie-capsules/50548</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00372/c/35.jpg</t>
+          <t>https://s3.images-iherb.com/drb/drb00300/c/79.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>$5.69</t>
+          <t>$18.36</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 125 mcg (5,000 IU), 90 Fish Gelatin Softgels</t>
+          <t>NOW Foods, Astaxanthin, 4 mg, 60 Veggie Softgels</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-125-mcg-5-000-iu-90-fish-gelatin-softgels/70316</t>
+          <t>https://www.iherb.com/pr/now-foods-astaxanthin-4-mg-60-veggie-softgels/414</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01065/c/174.jpg</t>
+          <t>https://s3.images-iherb.com/now/now03251/c/30.jpg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>$5.40</t>
+          <t>$10.94</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Baby Vitamin D3 Liquid, 10 mcg (400 IU), 0.34 fl oz (10 ml)</t>
+          <t>ACURE, The Essentials, Moroccan Argan Oil, 1 fl oz (30 ml)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-baby-vitamin-d3-liquid-10-mcg-400-iu-0-34-fl-oz-10-ml/65958</t>
+          <t>https://www.iherb.com/pr/acure-the-essentials-moroccan-argan-oil-1-fl-oz-30-ml/36391</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01034/c/96.jpg</t>
+          <t>https://s3.images-iherb.com/aco/aco00220/c/48.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$7.45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 90 Fish Gelatin Softgels</t>
+          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 1,000 mg, 120 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-90-fish-gelatin-softgels/77548</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-1-000-mg-120-fish-gelatin-softgels/71631</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01179/c/151.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01102/c/126.jpg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>$3.60</t>
+          <t>$36.00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Vitamin D3, 50 mcg (2,000 IU), 360 Fish Gelatin Softgels</t>
+          <t>Beauty of Joseon, Green Plum Refreshing Cleanser, 3.38 fl oz (100 ml)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-vitamin-d3-50-mcg-2-000-iu-360-fish-gelatin-softgels/77549</t>
+          <t>https://www.iherb.com/pr/beauty-of-joseon-green-plum-refreshing-cleanser-3-38-fl-oz-100-ml/114781</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01180/c/158.jpg</t>
+          <t>https://s3.images-iherb.com/boj/boj31467/c/5.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>$10.80</t>
+          <t>$6.97</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Fish Oil, Triple Strength, 180 Softgels</t>
+          <t>Mizon, Snail Repair Eye Cream, 0.84 oz (25 ml)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-180-softgels/113871</t>
+          <t>https://www.iherb.com/pr/mizon-snail-repair-eye-cream-0-84-oz-25-ml/106020</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09153/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/miz/miz75173/c/11.jpg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$43.98</t>
+          <t>$12.32</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Eucerin, Intensive Repair Lotion, Fragrance Free, 16.9 fl oz (500 ml)</t>
+          <t>California Gold Nutrition, Premium Krill Oil with Superba2, 1,000 mg, 60 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/eucerin-intensive-repair-lotion-fragrance-free-16-9-fl-oz-500-ml/45779</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superba2-1-000-mg-60-fish-gelatin-softgels/100011</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/euc/euc11016/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01808/c/17.jpg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$13.36</t>
+          <t>$13.16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Immune 4, Immune System Support, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, SPORT - Dark Chocolate Whey Protein Isolate, 2 lbs (907 g)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-immune-4-immune-system-support-60-veggie-capsules/101714</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-dark-chocolate-whey-protein-isolate-2-lbs-907-g/82696</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01842/c/63.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01202/c/16.jpg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$5.40</t>
+          <t>$34.20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Fish Oil, Triple Strength , 30 Softgels</t>
+          <t>NOW Foods, Kid's DHA Chewables, Tasty Fruit, 60 Softgels</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-fish-oil-triple-strength-30-softgels/113870</t>
+          <t>https://www.iherb.com/pr/now-foods-kid-s-dha-chewables-tasty-fruit-60-softgels/16274</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09152/c/24.jpg</t>
+          <t>https://s3.images-iherb.com/now/now01607/c/40.jpg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>$12.58</t>
+          <t>$9.85</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sports Research, Plant Based D3 + K2, 60 Veggie Softgels</t>
+          <t>Atkins, Endulge, Caramel Nut Chew Bar, 5 Bars, 1.2 oz (34 g) Each</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-plant-based-d3-k2-60-veggie-softgels/79975</t>
+          <t>https://www.iherb.com/pr/atkins-endulge-caramel-nut-chew-bar-5-bars-1-2-oz-34-g-each/21256</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01134/c/70.jpg</t>
+          <t>https://s3.images-iherb.com/atk/atk07502/c/26.jpg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>$23.37</t>
+          <t>$5.92</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NOW Foods, NAC, 600 mg, 250 Veg Capsules</t>
+          <t>NOW Foods, Vitamin D-3, High Potency, 25 mcg (1,000 IU), 360 Softgels</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-nac-600-mg-250-veg-capsules/694</t>
+          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-high-potency-25-mcg-1-000-iu-360-softgels/16273</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00086/c/45.jpg</t>
+          <t>https://s3.images-iherb.com/now/now00375/c/25.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>$26.29</t>
+          <t>$9.31</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ultamins, Men's Multi-Vitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, Liposomal Vitamin C, 1,000 mg, 30 Packets, 0.2 fl oz (6 ml) Each</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/ultamins-ultamins-men-s-multi-vitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96380</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-liposomal-vitamin-c-1-000-mg-30-packets-0-2-fl-oz-6-ml-each/75532</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ulm/ulm01270/c/29.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01072/c/47.jpg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$36.90</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, SPORT - Whey Protein Isolate, 1 lb, 16 oz (454 g)</t>
+          <t>Super Nutrition, Omega-3 Fish Oils,  1,000 mg, 90 Fish Softgels</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-whey-protein-isolate-1-lb-16-oz-454-g/71031</t>
+          <t>https://www.iherb.com/pr/super-nutrition-omega-3-fish-oils-1-000-mg-90-fish-softgels/111467</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01064/c/88.jpg</t>
+          <t>https://s3.images-iherb.com/spn/spn02140/c/19.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>$20.70</t>
+          <t>$14.40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Premium Krill Oil with SUPERBABoost, 1,000 mg, 60  Fish Softgels</t>
+          <t>Amish Origins, Deep Penetrating, Pain Relief Greaseless Cream, 3.5 fl oz (99.22 g)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superbaboost-1-000-mg-60-fish-softgels/100010</t>
+          <t>https://www.iherb.com/pr/amish-origins-deep-penetrating-pain-relief-greaseless-cream-3-5-fl-oz-99-22-g/72772</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01807/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/ami/ami00030/c/20.jpg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>$14.06</t>
+          <t>$7.02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Curcumin C3 Complex with BioPerine, 500 mg, 120 Veggie Capsules</t>
+          <t>Eucerin, Original Healing Cream, Extremely Dry, Compromised Skin, Fragrance Free, 16 oz (454 g)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-c3-complex-with-bioperine-500-mg-120-veggie-capsules/60047</t>
+          <t>https://www.iherb.com/pr/eucerin-original-healing-cream-extremely-dry-compromised-skin-fragrance-free-16-oz-454-g/45773</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00940/c/121.jpg</t>
+          <t>https://s3.images-iherb.com/euc/euc00021/c/35.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>$28.80</t>
+          <t>$16.53</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GummiKing, Multi-Vitamin + Mineral for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
+          <t>Palmers, Skin Success With Vitamin E, Anti-Dark Spot Face Cream, 2.7 oz (75 g)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34007</t>
+          <t>https://www.iherb.com/pr/palmer-s-skin-success-with-vitamin-e-anti-dark-spot-face-cream-2-7-oz-75-g/106651</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00068/c/38.jpg</t>
+          <t>https://s3.images-iherb.com/pal/pal07550/c/7.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>$6.80</t>
+          <t>$6.95</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NOW Foods, Glutathione, 250 mg, 60 Veg Capsules</t>
+          <t>Lake Avenue Nutrition, N-Acetyl-L- Cysteine , 600 mg, 120 Veggie Capsules</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-glutathione-250-mg-60-veg-capsules/771</t>
+          <t>https://www.iherb.com/pr/lake-avenue-nutrition-n-acetyl-l-cysteine-600-mg-120-veggie-capsules/97436</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00096/c/57.jpg</t>
+          <t>https://s3.images-iherb.com/lkn/lkn01639/c/93.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>$14.23</t>
+          <t>$13.50</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, LactoBif 65 Probiotics, 65 Billion CFU, 30 Veggie Capsules</t>
+          <t>GummiKing, Multi Vitamin + Mineral, Vegetables, Fruits + Fiber For Kids, 60 Gummies</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-lactobif-65-probiotics-65-billion-cfu-30-veggie-capsules/103277</t>
+          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-vegetables-fruits-fiber-for-kids-60-gummies/34008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01904/c/36.jpg</t>
+          <t>https://s3.images-iherb.com/gum/gum00050/c/38.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$8.10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ultamins, Men's 50+ Multivitamin with CoQ10, Mushrooms, Enzymes, Veggies &amp; Berries, 60 Veggie Capsules</t>
+          <t>Mild By Nature, Witch Hazel, Unscented, Alcohol-Free, 12 fl oz (355 ml)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/ultamins-men-s-50-multivitamin-with-coq10-mushrooms-enzymes-veggies-berries-60-veggie-capsules/96381</t>
+          <t>https://www.iherb.com/pr/mild-by-nature-witch-hazel-unscented-alcohol-free-12-fl-oz-355-ml/89691</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ulm/ulm01271/c/26.jpg</t>
+          <t>https://s3.images-iherb.com/mbn/mbn01360/c/18.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$7.20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sports Research, Collagen Beauty Complex, Marine Collagen, Unflavored, 5.75 oz (163 g)</t>
+          <t>California Gold Nutrition, Trans-Resveratrol, 200 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-collagen-beauty-complex-marine-collagen-unflavored-5-75-oz-163-g/101533</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-trans-resveratrol-200-mg-60-veggie-capsules/77938</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01347/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01174/c/61.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>$16.78</t>
+          <t>$18.00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Doctor's Best, Multi-Vitamin with Vitashine D3 and Quatrefolic, Iron Free, 90 Veggie Capsules</t>
+          <t>Holika Holika, Fresh Moisturizing Soothing Gel, Aloe 99%, 8.45 fl oz (250 ml)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/doctor-s-best-multi-vitamin-with-vitashine-d3-and-quatrefolic-iron-free-90-veggie-capsules/50548</t>
+          <t>https://www.iherb.com/pr/holika-holika-fresh-moisturizing-soothing-gel-aloe-99-8-45-fl-oz-250-ml/86870</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/drb/drb00300/c/79.jpg</t>
+          <t>https://s3.images-iherb.com/hlk/hlk37735/c/12.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>$18.36</t>
+          <t>$7.19</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NOW Foods, Astaxanthin, 4 mg, 60 Veggie Softgels</t>
+          <t>ACURE, Radically Rejuvenating, Dual Phase Bakuchiol Serum, 0.67 fl oz (20 ml)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-astaxanthin-4-mg-60-veggie-softgels/414</t>
+          <t>https://www.iherb.com/pr/acure-radically-rejuvenating-dual-phase-bakuchiol-serum-0-67-fl-oz-20-ml/100473</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now03251/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/aco/aco02253/c/12.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>$10.94</t>
+          <t>$13.11</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ACURE, The Essentials, Moroccan Argan Oil, 1 fl oz (30 ml)</t>
+          <t>NutriBiotic, Nasal Spray, 1 fl oz (29.5 ml)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-the-essentials-moroccan-argan-oil-1-fl-oz-30-ml/36391</t>
+          <t>https://www.iherb.com/pr/nutribiotic-nasal-spray-1-fl-oz-29-5-ml/4219</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco00220/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/nbc/nbc01050/c/57.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>$7.45</t>
+          <t>$7.76</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 1,000 mg, 120 Fish Gelatin Softgels</t>
+          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 120 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-1-000-mg-120-fish-gelatin-softgels/71631</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-120-fish-gelatin-softgels/71630</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01102/c/126.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01101/c/93.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>$36.00</t>
+          <t>$22.50</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Beauty of Joseon, Green Plum Refreshing Cleanser, 3.38 fl oz (100 ml)</t>
+          <t>GummiKing, Echinacea Plus Vitamin C+ Zinc for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/beauty-of-joseon-green-plum-refreshing-cleanser-3-38-fl-oz-100-ml/114781</t>
+          <t>https://www.iherb.com/pr/gummiking-echinacea-plus-vitamin-c-zinc-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34012</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/boj/boj31467/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/gum/gum00067/c/48.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>$6.97</t>
+          <t>$8.04</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mizon, Snail Repair Eye Cream, 0.84 oz (25 ml)</t>
+          <t>California Gold Nutrition, NMN Flavonoid Complex, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mizon-snail-repair-eye-cream-0-84-oz-25-ml/106020</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-nmn-flavonoid-complex-60-veggie-capsules/104105</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/miz/miz75173/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01922/c/40.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>$12.32</t>
+          <t>$54.00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Premium Krill Oil with Superba2, 1,000 mg, 60 Fish Gelatin Softgels</t>
+          <t>Radiant Seoul, Bright Potion, Skin Glass Serum, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-premium-krill-oil-with-superba2-1-000-mg-60-fish-gelatin-softgels/100011</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-skin-glass-serum-1-7-fl-oz-50-ml/103267</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01808/c/17.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01911/c/16.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>$13.16</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, SPORT - Dark Chocolate Whey Protein Isolate, 2 lbs (907 g)</t>
+          <t>Mommy's Bliss, Kids Sleep Gummies, 3 Yrs+, Strawberry, 60 Gummies</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-sport-dark-chocolate-whey-protein-isolate-2-lbs-907-g/82696</t>
+          <t>https://www.iherb.com/pr/mommy-s-bliss-kids-sleep-gummies-3-yrs-strawberry-60-gummies/118780</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01202/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/bab/bab07182/c/8.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>$34.20</t>
+          <t>$9.74</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NOW Foods, Kid's DHA Chewables, Tasty Fruit, 60 Softgels</t>
+          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Grape, 8 oz (227 g)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-kid-s-dha-chewables-tasty-fruit-60-softgels/16274</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-grape-8-oz-227-g/98309</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now01607/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01749/c/37.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>$9.85</t>
+          <t>$16.20</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Caramel Nut Chew Bar, 5 Bars, 1.2 oz (34 g) Each</t>
+          <t>Sierra Bees, Organic Lip Balm Variety Pack, 4 Pack, 0.15 oz (4.25 g) Each</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-caramel-nut-chew-bar-5-bars-1-2-oz-34-g-each/21256</t>
+          <t>https://www.iherb.com/pr/sierra-bees-organic-lip-balm-variety-pack-4-pack-0-15-oz-4-25-g-each/73550</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07502/c/26.jpg</t>
+          <t>https://s3.images-iherb.com/mbe/mbe01149/c/19.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>$5.92</t>
+          <t>$3.60</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NOW Foods, Vitamin D-3, High Potency, 25 mcg (1,000 IU), 360 Softgels</t>
+          <t>Radiant Seoul, Bright Potion, Phyto Water Cream, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-vitamin-d-3-high-potency-25-mcg-1-000-iu-360-softgels/16273</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-phyto-water-cream-1-7-fl-oz-50-ml/103266</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now00375/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01910/c/20.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>$9.31</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Liposomal Vitamin C, 1,000 mg, 30 Packets, 0.2 fl oz (6 ml) Each</t>
+          <t>NOW Foods, Potassium Plus Iodine, 180 Tablets</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-liposomal-vitamin-c-1-000-mg-30-packets-0-2-fl-oz-6-ml-each/75532</t>
+          <t>https://www.iherb.com/pr/now-foods-potassium-plus-iodine-180-tablets/767</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01072/c/47.jpg</t>
+          <t>https://s3.images-iherb.com/now/now01452/c/34.jpg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$36.90</t>
+          <t>$8.22</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Super Nutrition, Omega-3 Fish Oils,  1,000 mg, 90 Fish Softgels</t>
+          <t>Nature's Bounty, Dual Spectrum, Melatonin, 5 mg, 60 Bi-Layer Tablets</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/super-nutrition-omega-3-fish-oils-1-000-mg-90-fish-softgels/111467</t>
+          <t>https://www.iherb.com/pr/nature-s-bounty-dual-spectrum-melatonin-5-mg-60-bi-layer-tablets/67800</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/spn/spn02140/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/nrt/nrt53098/c/45.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>$14.40</t>
+          <t>$6.84</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Amish Origins, Deep Penetrating, Pain Relief Greaseless Cream, 3.5 fl oz (99.22 g)</t>
+          <t>Gerber, Organic for Baby, 2nd Foods, Pear, Blueberry, Apple, Avocado, 3.5 oz (99 g)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/amish-origins-deep-penetrating-pain-relief-greaseless-cream-3-5-fl-oz-99-22-g/72772</t>
+          <t>https://www.iherb.com/pr/gerber-organic-for-baby-2nd-foods-pear-blueberry-apple-avocado-3-5-oz-99-g/82427</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ami/ami00030/c/20.jpg</t>
+          <t>https://s3.images-iherb.com/gbr/gbr07492/c/13.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$7.02</t>
+          <t>$2.03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Eucerin, Original Healing Cream, Extremely Dry, Compromised Skin, Fragrance Free, 16 oz (454 g)</t>
+          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 30 Fish Gelatin Softgels</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/eucerin-original-healing-cream-extremely-dry-compromised-skin-fragrance-free-16-oz-454-g/45773</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-30-fish-gelatin-softgels/71629</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/euc/euc00021/c/35.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01100/c/144.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$16.53</t>
+          <t>$7.20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, N-Acetyl-L- Cysteine , 600 mg, 120 Veggie Capsules</t>
+          <t>G9skin, White In Milk Sun Plus, 1.35 fl oz (40 ml)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-n-acetyl-l-cysteine-600-mg-120-veggie-capsules/97436</t>
+          <t>https://www.iherb.com/pr/g9skin-white-in-milk-sun-plus-1-35-fl-oz-40-ml/114754</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn01639/c/93.jpg</t>
+          <t>https://s3.images-iherb.com/gni/gni65695/c/9.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$13.50</t>
+          <t>$12.96</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GummiKing, Multi Vitamin + Mineral, Vegetables, Fruits + Fiber For Kids, 60 Gummies</t>
+          <t>Radiant Seoul, Bright Potion, Night Power Serum, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-multi-vitamin-mineral-vegetables-fruits-fiber-for-kids-60-gummies/34008</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-night-power-serum-1-7-fl-oz-50-ml/103275</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00050/c/38.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01909/c/16.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>$8.10</t>
+          <t>$7.50</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mild By Nature, Witch Hazel, Unscented, Alcohol-Free, 12 fl oz (355 ml)</t>
+          <t>California Gold Nutrition, Spirulina AstaBlue Complex, 180 Tablets</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mild-by-nature-witch-hazel-unscented-alcohol-free-12-fl-oz-355-ml/89691</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-spirulina-astablue-complex-180-tablets/101719</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbn/mbn01360/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01859/c/39.jpg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Trans-Resveratrol, 200 mg, 60 Veggie Capsules</t>
+          <t>NaturesPlus, Animal Parade, Kid Zinc, Tangerine, 90 Animal-Shaped Lozenges</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-trans-resveratrol-200-mg-60-veggie-capsules/77938</t>
+          <t>https://www.iherb.com/pr/naturesplus-animal-parade-kid-zinc-tangerine-90-animal-shaped-lozenges/16944</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01174/c/61.jpg</t>
+          <t>https://s3.images-iherb.com/nap/nap29964/c/52.jpg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>$18.00</t>
+          <t>$15.11</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Holika Holika, Fresh Moisturizing Soothing Gel, Aloe 99%, 8.45 fl oz (250 ml)</t>
+          <t>California Gold Nutrition, Menopause Support, 90 Veggie Capsules</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/holika-holika-fresh-moisturizing-soothing-gel-aloe-99-8-45-fl-oz-250-ml/86870</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-menopause-support-90-veggie-capsules/107239</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hlk/hlk37735/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02060/c/10.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>$7.19</t>
+          <t>$18.33</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ACURE, Radically Rejuvenating, Dual Phase Bakuchiol Serum, 0.67 fl oz (20 ml)</t>
+          <t>Sports Research, Omega-3 Krill Oil, Double Strength, 1,000 mg, 60 Softgels</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-radically-rejuvenating-dual-phase-bakuchiol-serum-0-67-fl-oz-20-ml/100473</t>
+          <t>https://www.iherb.com/pr/sports-research-omega-3-krill-oil-double-strength-1-000-mg-60-softgels/71100</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco02253/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre00453/c/44.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>$13.11</t>
+          <t>$28.77</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NutriBiotic, Nasal Spray, 1 fl oz (29.5 ml)</t>
+          <t>California Gold Nutrition, L-Tyrosine, AjiPure, 500 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nutribiotic-nasal-spray-1-fl-oz-29-5-ml/4219</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-l-tyrosine-ajipure-500-mg-60-veggie-capsules/72322</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nbc/nbc01050/c/57.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01135/c/99.jpg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>$7.76</t>
+          <t>$7.50</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 120 Fish Gelatin Softgels</t>
+          <t>Sports Research, Evening Primrose, 120 Softgels</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-120-fish-gelatin-softgels/71630</t>
+          <t>https://www.iherb.com/pr/sports-research-evening-primrose-120-softgels/71103</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01101/c/93.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre01007/c/49.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$20.67</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GummiKing, Echinacea Plus Vitamin C+ Zinc for Kids, Strawberry, Orange, Lemon, Grape, Cherry and Grapefruit, 60 Gummies</t>
+          <t>California Gold Nutrition, Brain Health,  60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gummiking-echinacea-plus-vitamin-c-zinc-for-kids-strawberry-orange-lemon-grape-cherry-and-grapefruit-60-gummies/34012</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-brain-health-60-veggie-capsules/107581</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gum/gum00067/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02071/c/29.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>$8.04</t>
+          <t>$19.80</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, NMN Flavonoid Complex, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, Bone Boost, 120 Tablets</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-nmn-flavonoid-complex-60-veggie-capsules/104105</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-bone-boost-120-tablets/109120</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01922/c/40.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02100/c/44.jpg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>$54.00</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Skin Glass Serum, 1.7 fl oz (50 ml)</t>
+          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Tropical, 8 oz (227 g)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-skin-glass-serum-1-7-fl-oz-50-ml/103267</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-tropical-8-oz-227-g/98307</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01911/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01748/c/17.jpg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$10.80</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mommy's Bliss, Kids Sleep Gummies, 3 Yrs+, Strawberry, 60 Gummies</t>
+          <t>California Gold Nutrition, French Maritime Pine Bark Extract, Oligopin, 100 mg, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mommy-s-bliss-kids-sleep-gummies-3-yrs-strawberry-60-gummies/118780</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-french-maritime-pine-bark-extract-oligopin-100-mg-60-veggie-capsules/81026</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bab/bab07182/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01195/c/75.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>$9.74</t>
+          <t>$22.50</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Grape, 8 oz (227 g)</t>
+          <t>Coppertone, Baby, Sunscreen Stick, SPF 50, 0.49 oz (13.9 g)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-grape-8-oz-227-g/98309</t>
+          <t>https://www.iherb.com/pr/coppertone-baby-sunscreen-stick-spf-50-0-49-oz-13-9-g/115052</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01749/c/37.jpg</t>
+          <t>https://s3.images-iherb.com/cpt/cpt02886/c/5.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>$16.20</t>
+          <t>$5.15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sierra Bees, Organic Lip Balm Variety Pack, 4 Pack, 0.15 oz (4.25 g) Each</t>
+          <t>California Gold Nutrition, Cardio Complex, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sierra-bees-organic-lip-balm-variety-pack-4-pack-0-15-oz-4-25-g-each/73550</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-cardio-complex-60-veggie-capsules/107580</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbe/mbe01149/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02070/c/10.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>$3.60</t>
+          <t>$10.50</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Phyto Water Cream, 1.7 fl oz (50 ml)</t>
+          <t>California Gold Nutrition, FOODS - Organic Cayenne, 2.75 oz (77 g)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-phyto-water-cream-1-7-fl-oz-50-ml/103266</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-organic-cayenne-2-75-oz-77-g/106900</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01910/c/20.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02036/c/16.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$4.50</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NOW Foods, Potassium Plus Iodine, 180 Tablets</t>
+          <t>Mizon, All In One Snail Repair Cream,  2.53 fl oz (75 ml)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/now-foods-potassium-plus-iodine-180-tablets/767</t>
+          <t>https://www.iherb.com/pr/mizon-all-in-one-snail-repair-cream-2-53-fl-oz-75-ml/106481</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/now/now01452/c/34.jpg</t>
+          <t>https://s3.images-iherb.com/miz/miz75165/c/37.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$8.22</t>
+          <t>$14.88</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nature's Bounty, Dual Spectrum, Melatonin, 5 mg, 60 Bi-Layer Tablets</t>
+          <t>ACURE, Brightening Day Cream, 1.7 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nature-s-bounty-dual-spectrum-melatonin-5-mg-60-bi-layer-tablets/67800</t>
+          <t>https://www.iherb.com/pr/acure-brightening-day-cream-1-7-fl-oz-50-ml/36335</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nrt/nrt53098/c/45.jpg</t>
+          <t>https://s3.images-iherb.com/aco/aco00208/c/48.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>$6.84</t>
+          <t>$11.92</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gerber, Organic for Baby, 2nd Foods, Pear, Blueberry, Apple, Avocado, 3.5 oz (99 g)</t>
+          <t>California Gold Nutrition, FOODS, Mocha Nut Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerber-organic-for-baby-2nd-foods-pear-blueberry-apple-avocado-3-5-oz-99-g/82427</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-mocha-nut-chewy-granola-bars-12-bars-1-4-oz-40-g-each/88969</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gbr/gbr07492/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01322/c/51.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>$2.03</t>
+          <t>$11.25</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Antarctic Krill Oil, Omega-3 Phospholipids Complex with Astaxanthin, Natural Strawberry and Lemon Flavor, 500 mg, 30 Fish Gelatin Softgels</t>
+          <t>California Gold Nutrition, Andrographis Immune with AP-BIO, 100 mg, 30 Tablets</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-antarctic-krill-oil-omega-3-phospholipids-complex-with-astaxanthin-natural-strawberry-and-lemon-flavor-500-mg-30-fish-gelatin-softgels/71629</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-andrographis-immune-with-ap-bio-100-mg-30-tablets/106144</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01100/c/144.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02030/c/10.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>$7.20</t>
+          <t>$2.76</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>G9skin, White In Milk Sun Plus, 1.35 fl oz (40 ml)</t>
+          <t>California Gold Nutrition, FOODS, Cranberry &amp; Almond Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/g9skin-white-in-milk-sun-plus-1-35-fl-oz-40-ml/114754</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-cranberry-almond-chewy-granola-bars-12-bars-1-4-oz-40-g-each/89093</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gni/gni65695/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01321/c/48.jpg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$12.96</t>
+          <t>$11.55</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Night Power Serum, 1.7 fl oz (50 ml)</t>
+          <t>YumEarth, Ultimate, Organic Elderberry Lollipops, 15 Lollipops, 3.3 oz (93 g)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-night-power-serum-1-7-fl-oz-50-ml/103275</t>
+          <t>https://www.iherb.com/pr/yumearth-ultimate-organic-elderberry-lollipops-15-lollipops-3-3-oz-93-g/115333</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01909/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/yue/yue01461/c/2.jpg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>$7.50</t>
+          <t>$4.90</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Spirulina AstaBlue Complex, 180 Tablets</t>
+          <t>YumEarth, Organic Pops, Favorites, 68 oz (1,928 g)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-spirulina-astablue-complex-180-tablets/101719</t>
+          <t>https://www.iherb.com/pr/yumearth-organic-pops-favorites-68-oz-1-928-g/36907</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01859/c/39.jpg</t>
+          <t>https://s3.images-iherb.com/yue/yue00112/c/24.jpg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$46.22</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NaturesPlus, Animal Parade, Kid Zinc, Tangerine, 90 Animal-Shaped Lozenges</t>
+          <t>Radiant Seoul, Bright Potion, Treatment Toner, 5 fl oz (150 ml)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/naturesplus-animal-parade-kid-zinc-tangerine-90-animal-shaped-lozenges/16944</t>
+          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-treatment-toner-5-fl-oz-150-ml/103268</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nap/nap29964/c/52.jpg</t>
+          <t>https://s3.images-iherb.com/rse/rse01912/c/16.jpg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>$15.11</t>
+          <t>$9.00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Menopause Support, 90 Veggie Capsules</t>
+          <t>Lake Avenue Nutrition, Lutein, 20 mg, 360 Veggie Softgels</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-menopause-support-90-veggie-capsules/107239</t>
+          <t>https://www.iherb.com/pr/lake-avenue-nutrition-lutein-20-mg-360-veggie-softgels/96295</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02060/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/lkn/lkn01543/c/71.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>$18.33</t>
+          <t>$31.50</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sports Research, Omega-3 Krill Oil, Double Strength, 1,000 mg, 60 Softgels</t>
+          <t>California Gold Nutrition, MATCHA ROAD, Matcha + Collagen,  8 oz (227 g)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-omega-3-krill-oil-double-strength-1-000-mg-60-softgels/71100</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-matcha-road-matcha-collagen-8-oz-227-g/111971</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre00453/c/44.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02158/c/25.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>$28.77</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, L-Tyrosine, AjiPure, 500 mg, 60 Veggie Capsules</t>
+          <t>NaturesPlus, Animal Parade, Multivitamin Liquid, Tropical Berry, 8 fl oz (236.56 ml)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-l-tyrosine-ajipure-500-mg-60-veggie-capsules/72322</t>
+          <t>https://www.iherb.com/pr/naturesplus-animal-parade-multivitamin-liquid-tropical-berry-8-fl-oz-236-56-ml/51441</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01135/c/99.jpg</t>
+          <t>https://s3.images-iherb.com/nap/nap29954/c/55.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>$7.50</t>
+          <t>$8.46</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sports Research, Evening Primrose, 120 Softgels</t>
+          <t>California Gold Nutrition, Stabilized R-Lipoic Acid, 120 Veggie Capsules</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-evening-primrose-120-softgels/71103</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-stabilized-r-lipoic-acid-120-veggie-capsules/105624</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01007/c/49.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn02005/c/30.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$20.67</t>
+          <t>$27.00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Brain Health,  60 Veggie Capsules</t>
+          <t>Summer's Eve, 5 in 1 Cleansing Cloths, Island Splash, 16 Individually Wrapped Cloths</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-brain-health-60-veggie-capsules/107581</t>
+          <t>https://www.iherb.com/pr/summer-s-eve-5-in-1-cleansing-cloths-island-splash-16-individually-wrapped-cloths/90842</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02071/c/29.jpg</t>
+          <t>https://s3.images-iherb.com/sue/sue00200/c/13.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$19.80</t>
+          <t>$2.88</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Bone Boost, 120 Tablets</t>
+          <t>Cetaphil, Derma Control, Oil Removing Foam Wash, Oily, Sensitive Skin, 8 fl oz (237 ml)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-bone-boost-120-tablets/109120</t>
+          <t>https://www.iherb.com/pr/cetaphil-derma-control-oil-removing-foam-wash-oily-sensitive-skin-8-fl-oz-237-ml/92049</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02100/c/44.jpg</t>
+          <t>https://s3.images-iherb.com/cet/cet93118/c/4.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$14.54</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, HydrationUP, Electrolyte Drink Mix, Tropical, 8 oz (227 g)</t>
+          <t>California Gold Nutrition, Fungiology, MushRex Plus, Full-Spectrum Mushroom Complex, Certified Organic, Immune Assist Micron, 120 Plantcaps</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hydrationup-electrolyte-drink-mix-tropical-8-oz-227-g/98307</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-fungiology-mushrex-plus-full-spectrum-mushroom-complex-certified-organic-immune-assist-micron-120-plantcaps/82850</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01748/c/17.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01258/c/59.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$10.80</t>
+          <t>$18.00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, French Maritime Pine Bark Extract, Oligopin, 100 mg, 60 Veggie Capsules</t>
+          <t>Atkins, Endulge, Chocolate Caramel Mousse Bar, 5 Bars, 1.2 oz (34 g) Per Bar</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-french-maritime-pine-bark-extract-oligopin-100-mg-60-veggie-capsules/81026</t>
+          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-caramel-mousse-bar-5-bars-1-2-oz-34-g-per-bar/29620</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01195/c/75.jpg</t>
+          <t>https://s3.images-iherb.com/atk/atk07528/c/28.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$22.50</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Coppertone, Baby, Sunscreen Stick, SPF 50, 0.49 oz (13.9 g)</t>
+          <t>Rimmel London, Stay Glossy Lip Gloss, 110 Dorchester Rose, 0.18 fl oz (5.5 ml)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/coppertone-baby-sunscreen-stick-spf-50-0-49-oz-13-9-g/115052</t>
+          <t>https://www.iherb.com/pr/rimmel-london-stay-glossy-lip-gloss-110-dorchester-rose-0-18-fl-oz-5-5-ml/92169</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cpt/cpt02886/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/rim/rim24348/c/10.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$5.15</t>
+          <t>$3.38</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Cardio Complex, 60 Veggie Capsules</t>
+          <t>California Gold Nutrition, Curcumin UP, 90 Gelatin Softgels</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-cardio-complex-60-veggie-capsules/107580</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-up-90-gelatin-softgels/97376</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02070/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01590/c/107.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$10.50</t>
+          <t>$27.90</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS - Organic Cayenne, 2.75 oz (77 g)</t>
+          <t>Atkins, Endulge, Chocolate Peanut Candies, 5 Packs, 1.2 oz (34 g) Each</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-organic-cayenne-2-75-oz-77-g/106900</t>
+          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-peanut-candies-5-packs-1-2-oz-34-g-each/54404</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02036/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/atk/atk07575/c/27.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>$4.50</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mizon, All In One Snail Repair Cream,  2.53 fl oz (75 ml)</t>
+          <t>Alba Botanica, Moisturizing Sunscreen Lip Balm, SPF 25, 0.15 oz (4.2 g)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mizon-all-in-one-snail-repair-cream-2-53-fl-oz-75-ml/106481</t>
+          <t>https://www.iherb.com/pr/alba-botanica-moisturizing-sunscreen-lip-balm-spf-25-0-15-oz-4-2-g/49397</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/miz/miz75165/c/37.jpg</t>
+          <t>https://s3.images-iherb.com/alb/alb00394/c/33.jpg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>$14.88</t>
+          <t>$2.71</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ACURE, Brightening Day Cream, 1.7 fl oz (50 ml)</t>
+          <t>California Gold Nutrition, Hyaluronic Acid Complex, 60 Veggie Capsules</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/acure-brightening-day-cream-1-7-fl-oz-50-ml/36335</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-hyaluronic-acid-complex-60-veggie-capsules/67458</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aco/aco00208/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn00856/c/103.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$11.92</t>
+          <t>$15.30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS, Mocha Nut Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
+          <t>NaturesPlus, Animal Parade, Children's Chewable Multivitamin Supplement, Cherry, 90 Animal-Shaped Tablets</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-mocha-nut-chewy-granola-bars-12-bars-1-4-oz-40-g-each/88969</t>
+          <t>https://www.iherb.com/pr/naturesplus-animal-parade-children-s-chewable-multivitamin-supplement-cherry-90-animal-shaped-tablets/106304</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01322/c/51.jpg</t>
+          <t>https://s3.images-iherb.com/nap/nap29970/c/53.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>$11.25</t>
+          <t>$14.83</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Andrographis Immune with AP-BIO, 100 mg, 30 Tablets</t>
+          <t>Jumiso, Super Soothing Facial Serum, Cica &amp; Aloe, 1.01 fl oz (30 ml)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-andrographis-immune-with-ap-bio-100-mg-30-tablets/106144</t>
+          <t>https://www.iherb.com/pr/jumiso-super-soothing-facial-serum-cica-aloe-1-01-fl-oz-30-ml/114747</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02030/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/jum/jum95013/c/9.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>$2.76</t>
+          <t>$10.38</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, FOODS, Cranberry &amp; Almond Chewy Granola Bars, 12 Bars, 1.4 oz (40 g) Each</t>
+          <t>California Gold Nutrition, CocoCardio, Certified Organic Instant Dark Cocoa Beverage with Beet Juice &amp; Hibiscus, 7.93 oz (225 g)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-foods-cranberry-almond-chewy-granola-bars-12-bars-1-4-oz-40-g-each/89093</t>
+          <t>https://www.iherb.com/pr/california-gold-nutrition-cococardio-certified-organic-instant-dark-cocoa-beverage-with-beet-juice-hibiscus-7-93-oz-225-g/96948</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01321/c/48.jpg</t>
+          <t>https://s3.images-iherb.com/cgn/cgn01289/c/19.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>$11.55</t>
+          <t>$8.84</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Radiant Seoul, Bright Potion, Treatment Toner, 5 fl oz (150 ml)</t>
+          <t>Mild By Nature, Purifying Citrus Cleanser, 4.7 fl oz (140 ml)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/radiant-seoul-bright-potion-treatment-toner-5-fl-oz-150-ml/103268</t>
+          <t>https://www.iherb.com/pr/mild-by-nature-purifying-citrus-cleanser-4-7-fl-oz-140-ml/106610</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rse/rse01912/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/mbn/mbn01981/c/18.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>$9.00</t>
+          <t>$5.00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, Lutein, 20 mg, 360 Veggie Softgels</t>
+          <t>BLK &amp; Bold, Specialty Coffee, Brighter Days, Ground, Light Roast, 12 oz (340 g)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-lutein-20-mg-360-veggie-softgels/96295</t>
+          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-brighter-days-ground-light-roast-12-oz-340-g/109503</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn01543/c/71.jpg</t>
+          <t>https://s3.images-iherb.com/bkb/bkb90015/c/10.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$31.50</t>
+          <t>$10.39</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, MATCHA ROAD, Matcha + Collagen,  8 oz (227 g)</t>
+          <t>Aura Cacia, Uplifting Kit, Pure Essential Oils, 4 Bottles, 0.25 fl oz (7.4 ml) Each</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-matcha-road-matcha-collagen-8-oz-227-g/111971</t>
+          <t>https://www.iherb.com/pr/aura-cacia-uplifting-kit-pure-essential-oils-4-bottles-0-25-fl-oz-7-4-ml-each/109542</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02158/c/25.jpg</t>
+          <t>https://s3.images-iherb.com/aur/aur99109/c/0.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$16.38</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Stabilized R-Lipoic Acid, 120 Veggie Capsules</t>
+          <t>Honeyskin, Hair &amp; Scalp Therapy, Advanced Formula Conditioner, 8 fl oz (236 ml)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-stabilized-r-lipoic-acid-120-veggie-capsules/105624</t>
+          <t>https://www.iherb.com/pr/honeyskin-hair-scalp-therapy-advanced-formula-conditioner-8-fl-oz-236-ml/111839</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn02005/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/hsn/hsn30508/c/16.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>$27.00</t>
+          <t>$12.99</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Summer's Eve, 5 in 1 Cleansing Cloths, Island Splash, 16 Individually Wrapped Cloths</t>
+          <t>Honeyskin, Tea Tree Conditioner, 8 fl oz (236 ml)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/summer-s-eve-5-in-1-cleansing-cloths-island-splash-16-individually-wrapped-cloths/90842</t>
+          <t>https://www.iherb.com/pr/honeyskin-tea-tree-conditioner-8-fl-oz-236-ml/111843</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sue/sue00200/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/hsn/hsn13246/c/3.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>$2.88</t>
+          <t>$12.06</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cetaphil, Derma Control, Oil Removing Foam Wash, Oily, Sensitive Skin, 8 fl oz (237 ml)</t>
+          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 3.5 oz (99 g)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/cetaphil-derma-control-oil-removing-foam-wash-oily-sensitive-skin-8-fl-oz-237-ml/92049</t>
+          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-3-5-oz-99-g/111958</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cet/cet93118/c/4.jpg</t>
+          <t>https://s3.images-iherb.com/wkc/wkc87104/c/2.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>$14.54</t>
+          <t>$15.85</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Fungiology, MushRex Plus, Full-Spectrum Mushroom Complex, Certified Organic, Immune Assist Micron, 120 Plantcaps</t>
+          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 8 oz (226 g)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-fungiology-mushrex-plus-full-spectrum-mushroom-complex-certified-organic-immune-assist-micron-120-plantcaps/82850</t>
+          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-8-oz-226-g/111959</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01258/c/59.jpg</t>
+          <t>https://s3.images-iherb.com/wkc/wkc87106/c/2.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>$18.00</t>
+          <t>$24.79</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Chocolate Caramel Mousse Bar, 5 Bars, 1.2 oz (34 g) Per Bar</t>
+          <t>Lumin, Soothing Beard Oil, 0.5 oz (15 ml)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-caramel-mousse-bar-5-bars-1-2-oz-34-g-per-bar/29620</t>
+          <t>https://www.iherb.com/pr/lumin-soothing-beard-oil-0-5-oz-15-ml/110377</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07528/c/28.jpg</t>
+          <t>https://s3.images-iherb.com/lmi/lmi83007/c/9.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$10.44</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Rimmel London, Stay Glossy Lip Gloss, 110 Dorchester Rose, 0.18 fl oz (5.5 ml)</t>
+          <t>artnaturals, Luxe, Rejuvenating Jojoba Oil Moisturizer with SPF 15, 2 fl oz (59 ml)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/rimmel-london-stay-glossy-lip-gloss-110-dorchester-rose-0-18-fl-oz-5-5-ml/92169</t>
+          <t>https://www.iherb.com/pr/artnaturals-luxe-rejuvenating-jojoba-oil-moisturizer-with-spf-15-2-fl-oz-59-ml/110422</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rim/rim24348/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/rna/rna80005/c/3.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$3.38</t>
+          <t>$12.90</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Curcumin UP, 90 Gelatin Softgels</t>
+          <t>Yes To, Zit Zapping Dots, Tomatoes, 24 Zit Zapping Dots</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-curcumin-up-90-gelatin-softgels/97376</t>
+          <t>https://www.iherb.com/pr/yes-to-zit-zapping-dots-tomatoes-24-zit-zapping-dots/109770</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01590/c/107.jpg</t>
+          <t>https://s3.images-iherb.com/yes/yes02518/c/3.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>$27.90</t>
+          <t>$6.72</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Atkins, Endulge, Chocolate Peanut Candies, 5 Packs, 1.2 oz (34 g) Each</t>
+          <t>iWi, Men's Multivitamin + Omega-3, 120 Softgels</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/atkins-endulge-chocolate-peanut-candies-5-packs-1-2-oz-34-g-each/54404</t>
+          <t>https://www.iherb.com/pr/iwi-men-s-multivitamin-omega-3-120-softgels/108385</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/atk/atk07575/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/iwi/iwi02057/c/2.jpg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$44.00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Alba Botanica, Moisturizing Sunscreen Lip Balm, SPF 25, 0.15 oz (4.2 g)</t>
+          <t>Action Labs, Alpha Energy, Ginseng Powermax 4x, Men's Support, 50 VegCaps</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/alba-botanica-moisturizing-sunscreen-lip-balm-spf-25-0-15-oz-4-2-g/49397</t>
+          <t>https://www.iherb.com/pr/action-labs-alpha-energy-ginseng-powermax-4x-men-s-support-50-vegcaps/119204</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/alb/alb00394/c/33.jpg</t>
+          <t>https://s3.images-iherb.com/act/act15216/c/12.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>$2.71</t>
+          <t>$28.99</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Hyaluronic Acid Complex, 60 Veggie Capsules</t>
+          <t>Gillette, Sensor2, Disposable Razors, Fixed, 12 Disposable Razors</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-hyaluronic-acid-complex-60-veggie-capsules/67458</t>
+          <t>https://www.iherb.com/pr/gillette-sensor2-disposable-razors-fixed-12-disposable-razors/112556</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn00856/c/103.jpg</t>
+          <t>https://s3.images-iherb.com/gil/gil66449/c/4.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>$15.30</t>
+          <t>$9.71</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Jumiso, Super Soothing Facial Serum, Cica &amp; Aloe, 1.01 fl oz (30 ml)</t>
+          <t>KeaBabies, Comfy Nursing Pads, Pastel Touch, 14 Pack</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jumiso-super-soothing-facial-serum-cica-aloe-1-01-fl-oz-30-ml/114747</t>
+          <t>https://www.iherb.com/pr/keababies-comfy-nursing-pads-pastel-touch-14-pack/107793</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/jum/jum95013/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/kea/kea22083/c/11.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>$10.38</t>
+          <t>$12.90</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, CocoCardio, Certified Organic Instant Dark Cocoa Beverage with Beet Juice &amp; Hibiscus, 7.93 oz (225 g)</t>
+          <t>KeaBabies, Organic Burp Cloths, Pink Dreams,  5 Pack</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/california-gold-nutrition-cococardio-certified-organic-instant-dark-cocoa-beverage-with-beet-juice-hibiscus-7-93-oz-225-g/96948</t>
+          <t>https://www.iherb.com/pr/keababies-organic-burp-cloths-pink-dreams-5-pack/107800</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cgn/cgn01289/c/19.jpg</t>
+          <t>https://s3.images-iherb.com/kea/kea22068/c/11.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>$8.84</t>
+          <t>$17.65</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mild By Nature, Purifying Citrus Cleanser, 4.7 fl oz (140 ml)</t>
+          <t>Sports Research, Sweet Sweat Cable Jump Rope, Black, 10 ft, 1 Jump Rope</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mild-by-nature-purifying-citrus-cleanser-4-7-fl-oz-140-ml/106610</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-cable-jump-rope-black-10-ft-1-jump-rope/107843</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mbn/mbn01981/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre01066/c/8.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>$5.00</t>
+          <t>$13.98</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BLK &amp; Bold, Specialty Coffee, Brighter Days, Ground, Light Roast, 12 oz (340 g)</t>
+          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, XL/XXL, Blue, 3 Piece Set</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-brighter-days-ground-light-roast-12-oz-340-g/109503</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-xl-xxl-blue-3-piece-set/107847</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bkb/bkb90015/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre09041/c/27.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>$10.39</t>
+          <t>$48.74</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Aura Cacia, Uplifting Kit, Pure Essential Oils, 4 Bottles, 0.25 fl oz (7.4 ml) Each</t>
+          <t>Dr. Emil Nutrition, LiverAid, 60 Capsules</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/aura-cacia-uplifting-kit-pure-essential-oils-4-bottles-0-25-fl-oz-7-4-ml-each/109542</t>
+          <t>https://www.iherb.com/pr/dr-emil-nutrition-liveraid-60-capsules/113762</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/aur/aur99109/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/dem/dem95659/c/8.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>$16.38</t>
+          <t>$11.79</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Honeyskin, Hair &amp; Scalp Therapy, Advanced Formula Conditioner, 8 fl oz (236 ml)</t>
+          <t>Jool Baby Products, Safety Door Knob Covers, 4 Pack</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honeyskin-hair-scalp-therapy-advanced-formula-conditioner-8-fl-oz-236-ml/111839</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-safety-door-knob-covers-4-pack/110510</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hsn/hsn30508/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo11901/c/3.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>$12.99</t>
+          <t>$6.96</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Honeyskin, Tea Tree Conditioner, 8 fl oz (236 ml)</t>
+          <t>Jool Baby Products, Clear Stove Knob Covers, 5 Pack</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honeyskin-tea-tree-conditioner-8-fl-oz-236-ml/111843</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-clear-stove-knob-covers-5-pack/110513</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hsn/hsn13246/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo05297/c/18.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>$12.06</t>
+          <t>$9.58</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 3.5 oz (99 g)</t>
+          <t>Jool Baby Products, Sliding Cabinet Lock, 4 Pack</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-3-5-oz-99-g/111958</t>
+          <t>https://www.iherb.com/pr/jool-baby-products-sliding-cabinet-lock-4-pack/110515</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wkc/wkc87104/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/joo/joo11918/c/3.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>$15.85</t>
+          <t>$6.09</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Waka Coffee, 100% Arabica Instant Coffee, Colombian, Medium Roast, Decaffeinated, 8 oz (226 g)</t>
+          <t>Nature's Bounty, Elderberry Sambucus, 210 mg, 120 Rapid Release Softgels</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/waka-coffee-100-arabica-instant-coffee-colombian-medium-roast-decaffeinated-8-oz-226-g/111959</t>
+          <t>https://www.iherb.com/pr/nature-s-bounty-elderberry-sambucus-210-mg-120-rapid-release-softgels/108357</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wkc/wkc87106/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/nrt/nrt00976/c/8.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>$24.79</t>
+          <t>$20.11</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Lumin, Soothing Beard Oil, 0.5 oz (15 ml)</t>
+          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, M/L, Blue, 3 Piece Set</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lumin-soothing-beard-oil-0-5-oz-15-ml/110377</t>
+          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-m-l-blue-3-piece-set/107846</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lmi/lmi83007/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/sre/sre09040/c/30.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>$10.44</t>
+          <t>$48.09</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>artnaturals, Luxe, Rejuvenating Jojoba Oil Moisturizer with SPF 15, 2 fl oz (59 ml)</t>
+          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Orange-Vanilla, 30 Packets, 0.2 oz (5.7 g) Each</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/artnaturals-luxe-rejuvenating-jojoba-oil-moisturizer-with-spf-15-2-fl-oz-59-ml/110422</t>
+          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-orange-vanilla-30-packets-0-2-oz-5-7-g-each/110910</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rna/rna80005/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/pur/pur03405/c/13.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>$12.90</t>
+          <t>$34.86</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Yes To, Zit Zapping Dots, Tomatoes, 24 Zit Zapping Dots</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 14.2 oz (403.2 g)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/yes-to-zit-zapping-dots-tomatoes-24-zit-zapping-dots/109770</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-14-2-oz-403-2-g/114795</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/yes/yes02518/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83208/c/6.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>$6.72</t>
+          <t>$40.81</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>iWi, Men's Multivitamin + Omega-3, 120 Softgels</t>
+          <t>YumV's, Multi Zero, Berry, 60 Gummies</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/iwi-men-s-multivitamin-omega-3-120-softgels/108385</t>
+          <t>https://www.iherb.com/pr/yumv-s-multi-zero-berry-60-gummies/115132</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/iwi/iwi02057/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/yuv/yuv61029/c/8.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$44.00</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gillette, Sensor2, Disposable Razors, Fixed, 12 Disposable Razors</t>
+          <t>Olympian Labs, BioCell Collagen, 100 Capsules</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gillette-sensor2-disposable-razors-fixed-12-disposable-razors/112556</t>
+          <t>https://www.iherb.com/pr/olympian-labs-biocell-collagen-100-capsules/15035</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gil/gil66449/c/4.jpg</t>
+          <t>https://s3.images-iherb.com/oly/oly00327/c/34.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>$9.71</t>
+          <t>$40.79</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>KeaBabies, Comfy Nursing Pads, Pastel Touch, 14 Pack</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 28.4 oz (804.6 g)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/keababies-comfy-nursing-pads-pastel-touch-14-pack/107793</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-28-4-oz-804-6-g/114790</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/kea/kea22083/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83209/c/2.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>$12.90</t>
+          <t>$53.55</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>KeaBabies, Organic Burp Cloths, Pink Dreams,  5 Pack</t>
+          <t>310 Nutrition, All-In-One Meal Shake, Chocolate Bliss, 29.2 oz (828.8 g)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/keababies-organic-burp-cloths-pink-dreams-5-pack/107800</t>
+          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-chocolate-bliss-29-2-oz-828-8-g/114791</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/kea/kea22068/c/11.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83206/c/2.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$17.65</t>
+          <t>$61.20</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat Cable Jump Rope, Black, 10 ft, 1 Jump Rope</t>
+          <t>Dr. Emil Nutrition, Total Gut Complex, 60 Capsules</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-cable-jump-rope-black-10-ft-1-jump-rope/107843</t>
+          <t>https://www.iherb.com/pr/dr-emil-nutrition-total-gut-complex-60-capsules/112165</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre01066/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/dem/dem95658/c/8.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>$13.98</t>
+          <t>$27.51</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, XL/XXL, Blue, 3 Piece Set</t>
+          <t>The Spice Lab, Organic Ground AllSpice, 1.5 oz (42 g)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-xl-xxl-blue-3-piece-set/107847</t>
+          <t>https://www.iherb.com/pr/the-spice-lab-organic-ground-allspice-1-5-oz-42-g/112407</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09041/c/27.jpg</t>
+          <t>https://s3.images-iherb.com/sla/sla07168/c/8.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$48.74</t>
+          <t>$5.39</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Dr. Emil Nutrition, LiverAid, 60 Capsules</t>
+          <t>International Veterinary Sciences, Lipiderm, Healthy Skin &amp; Coat, Dogs, Natural Chicken, 90 Soft Chews, 360 g</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-emil-nutrition-liveraid-60-capsules/113762</t>
+          <t>https://www.iherb.com/pr/international-veterinary-sciences-lipiderm-healthy-skin-coat-dogs-natural-chicken-90-soft-chews-360-g/105188</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dem/dem95659/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/ivs/ivs01012/c/24.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>$11.79</t>
+          <t>$23.39</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Safety Door Knob Covers, 4 Pack</t>
+          <t>Megrhythm, Kao, Gentle Steam Eye Mask, Ripened Citrus, 12 Sheets</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-safety-door-knob-covers-4-pack/110510</t>
+          <t>https://www.iherb.com/pr/megrhythm-kao-gentle-steam-eye-mask-ripened-citrus-12-sheets/108473</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo11901/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/mrt/mrt34803/c/8.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$6.96</t>
+          <t>$16.07</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Clear Stove Knob Covers, 5 Pack</t>
+          <t>Elizavecca, Milky Piggy, Hell-Pore, Perfect Wine Sparking Peeling Pad, 30 Sheets</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-clear-stove-knob-covers-5-pack/110513</t>
+          <t>https://www.iherb.com/pr/elizavecca-milky-piggy-hell-pore-perfect-wine-sparking-peeling-pad-30-sheets/95692</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo05297/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/ezv/ezv90975/c/12.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>$9.58</t>
+          <t>$17.37</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Jool Baby Products, Sliding Cabinet Lock, 4 Pack</t>
+          <t>Om Mushrooms, Immune Multi Boost, Orange &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/jool-baby-products-sliding-cabinet-lock-4-pack/110515</t>
+          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-orange-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110597</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/joo/joo11918/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/omm/omm99603/c/12.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>$6.09</t>
+          <t>$20.24</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nature's Bounty, Elderberry Sambucus, 210 mg, 120 Rapid Release Softgels</t>
+          <t>Stasher, Stand-Up Mega, Aqua, 104 fl oz (3.07 L)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/nature-s-bounty-elderberry-sambucus-210-mg-120-rapid-release-softgels/108357</t>
+          <t>https://www.iherb.com/pr/stasher-stand-up-mega-aqua-104-fl-oz-3-07-l/111670</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nrt/nrt00976/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/shr/shr01955/c/5.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>$20.11</t>
+          <t>$31.49</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sports Research, Sweet Sweat, Paige Hathaway Waist Trimmer, M/L, Blue, 3 Piece Set</t>
+          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Raspberry Lemonade, 30 Packets, 0.2 oz (5.7 g) Each</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sports-research-sweet-sweat-paige-hathaway-waist-trimmer-m-l-blue-3-piece-set/107846</t>
+          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-raspberry-lemonade-30-packets-0-2-oz-5-7-g-each/110899</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sre/sre09040/c/30.jpg</t>
+          <t>https://s3.images-iherb.com/pur/pur03112/c/12.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>$48.09</t>
+          <t>$39.21</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Orange-Vanilla, 30 Packets, 0.2 oz (5.7 g) Each</t>
+          <t>Gerard Cosmetics, Slay All Day, Setting Spray, Green Tea, 3.38 oz (100 ml)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-orange-vanilla-30-packets-0-2-oz-5-7-g-each/110910</t>
+          <t>https://www.iherb.com/pr/gerard-cosmetics-slay-all-day-setting-spray-green-tea-3-38-oz-100-ml/114377</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/pur/pur03405/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/gco/gco13805/c/10.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>$34.86</t>
+          <t>$19.75</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 14.2 oz (403.2 g)</t>
+          <t>Coromega, Pup Packets, Joint &amp; Muscle Mobility Support, 30 Squeeze Packets, 2.6 ml Each</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-14-2-oz-403-2-g/114795</t>
+          <t>https://www.iherb.com/pr/coromega-pup-packets-joint-muscle-mobility-support-30-squeeze-packets-2-6-ml-each/105320</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83208/c/6.jpg</t>
+          <t>https://s3.images-iherb.com/erb/erb45570/c/2.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>$40.81</t>
+          <t>$20.80</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>YumV's, Multi Zero, Berry, 60 Gummies</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Get It Girl, 38 Strips</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/yumv-s-multi-zero-berry-60-gummies/115132</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-get-it-girl-38-strips/87054</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/yuv/yuv61029/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47097/c/0.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>$11.89</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Olympian Labs, BioCell Collagen, 100 Capsules</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Fashion Week, 38 Strips</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/olympian-labs-biocell-collagen-100-capsules/15035</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-fashion-week-38-strips/87060</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/oly/oly00327/c/34.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47132/c/0.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>$40.79</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Vanilla Creme, 28.4 oz (804.6 g)</t>
+          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Glamor and Bloom, 38 Strips</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-vanilla-creme-28-4-oz-804-6-g/114790</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-glamor-and-bloom-38-strips/87061</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83209/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47137/c/0.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>$53.55</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>310 Nutrition, All-In-One Meal Shake, Chocolate Bliss, 29.2 oz (828.8 g)</t>
+          <t>Vika Nailjam, Nail Gel Strips For Nails &amp; Toenails, Lady Mode, 38 Strips</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-all-in-one-meal-shake-chocolate-bliss-29-2-oz-828-8-g/114791</t>
+          <t>https://www.iherb.com/pr/vika-nailjam-nail-gel-strips-for-nails-toenails-lady-mode-38-strips/87064</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83206/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/vik/vik47167/c/3.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>$61.20</t>
+          <t>$5.10</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Dr. Emil Nutrition, Total Gut Complex, 60 Capsules</t>
+          <t>Mehaz, The Original Edge Cutter, Pink, 1 Cutter</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-emil-nutrition-total-gut-complex-60-capsules/112165</t>
+          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-pink-1-cutter/92705</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dem/dem95658/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/mhz/mhz11434/c/0.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>$27.51</t>
+          <t>$14.47</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Spice Lab, Organic Ground AllSpice, 1.5 oz (42 g)</t>
+          <t>Mehaz, The Original Edge Cutter, Black, 1 Cutter</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/the-spice-lab-organic-ground-allspice-1-5-oz-42-g/112407</t>
+          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-black-1-cutter/92708</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sla/sla07168/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/mhz/mhz11414/c/0.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>$5.39</t>
+          <t>$15.04</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>International Veterinary Sciences, Lipiderm, Healthy Skin &amp; Coat, Dogs, Natural Chicken, 90 Soft Chews, 360 g</t>
+          <t>Honey Belle, Black Obsidian Facial Roller, 1 Roller</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/international-veterinary-sciences-lipiderm-healthy-skin-coat-dogs-natural-chicken-90-soft-chews-360-g/105188</t>
+          <t>https://www.iherb.com/pr/honey-belle-black-obsidian-facial-roller-1-roller/90055</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ivs/ivs01012/c/24.jpg</t>
+          <t>https://s3.images-iherb.com/hbe/hbe77074/c/38.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>$23.39</t>
+          <t>$27.00</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Megrhythm, Kao, Gentle Steam Eye Mask, Ripened Citrus, 12 Sheets</t>
+          <t>Holistic Blend, My Healthy Pet, Food Booster, For Dogs &amp; Cats, 6.2 oz (175 g)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/megrhythm-kao-gentle-steam-eye-mask-ripened-citrus-12-sheets/108473</t>
+          <t>https://www.iherb.com/pr/holistic-blend-my-healthy-pet-food-booster-for-dogs-cats-6-2-oz-175-g/83876</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mrt/mrt34803/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/hob/hob27700/c/10.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$16.07</t>
+          <t>$15.00</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Elizavecca, Milky Piggy, Hell-Pore, Perfect Wine Sparking Peeling Pad, 30 Sheets</t>
+          <t>Luseta Beauty, Disposable Medical Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/elizavecca-milky-piggy-hell-pore-perfect-wine-sparking-peeling-pad-30-sheets/95692</t>
+          <t>https://www.iherb.com/pr/luseta-beauty-disposable-medical-face-mask-50-pack/100234</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ezv/ezv90975/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/lby/lby44060/c/22.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>$17.37</t>
+          <t>$16.80</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Om Mushrooms, Immune Multi Boost, Orange &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
+          <t>Landsberg, 3 Ply Disposable Protective Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-orange-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110597</t>
+          <t>https://www.iherb.com/pr/landsberg-3-ply-disposable-protective-face-mask-50-pack/101029</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/omm/omm99603/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/lbg/lbg57000/c/3.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>$20.24</t>
+          <t>$9.90</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Stasher, Stand-Up Mega, Aqua, 104 fl oz (3.07 L)</t>
+          <t>Reviva Labs, Calming Renewal Serum, 1 fl oz (29.5 ml)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/stasher-stand-up-mega-aqua-104-fl-oz-3-07-l/111670</t>
+          <t>https://www.iherb.com/pr/reviva-labs-calming-renewal-serum-1-fl-oz-29-5-ml/111537</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/shr/shr01955/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/rev/rev00261/c/20.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>$31.49</t>
+          <t>$17.50</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Pure Essence, Ionic-Fizz, Magnesium Plus, Raspberry Lemonade, 30 Packets, 0.2 oz (5.7 g) Each</t>
+          <t>Bbluv, Trimo, Replacement Filing Discs, 1, 0-3 Months, 3 Pack</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/pure-essence-ionic-fizz-magnesium-plus-raspberry-lemonade-30-packets-0-2-oz-5-7-g-each/110899</t>
+          <t>https://www.iherb.com/pr/bbluv-trimo-replacement-filing-discs-1-0-3-months-3-pack/111599</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/pur/pur03112/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/blv/blv38765/c/5.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>$39.21</t>
+          <t>$2.96</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Gerard Cosmetics, Slay All Day, Setting Spray, Green Tea, 3.38 oz (100 ml)</t>
+          <t>Urban Accents, Chile Verde Fish Tacos Seasoning Mix, 0.75 oz (21 g)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerard-cosmetics-slay-all-day-setting-spray-green-tea-3-38-oz-100-ml/114377</t>
+          <t>https://www.iherb.com/pr/urban-accents-chile-verde-fish-tacos-seasoning-mix-0-75-oz-21-g/111652</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gco/gco13805/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/uba/uba12100/c/2.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>$19.75</t>
+          <t>$4.45</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Coromega, Pup Packets, Joint &amp; Muscle Mobility Support, 30 Squeeze Packets, 2.6 ml Each</t>
+          <t>SeaBond, Denture Adhesive Seals, Original, 15 Uppers</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/coromega-pup-packets-joint-muscle-mobility-support-30-squeeze-packets-2-6-ml-each/105320</t>
+          <t>https://www.iherb.com/pr/seabond-denture-adhesive-seals-original-15-uppers/112283</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/erb/erb45570/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/sbo/sbo00162/c/18.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>$20.80</t>
+          <t>$3.85</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Get It Girl, 38 Strips</t>
+          <t>Mane Choice, The Alpha, Detangling Hydration Shampoo, For All Hair Types, 8 fl oz (237 ml)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-get-it-girl-38-strips/87054</t>
+          <t>https://www.iherb.com/pr/mane-choice-the-alpha-detangling-hydration-shampoo-for-all-hair-types-8-fl-oz-237-ml/110441</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47097/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/mae/mae00523/c/16.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$9.54</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Fashion Week, 38 Strips</t>
+          <t>Lake Avenue Nutrition, Immune Support, 16 fl oz (473 ml)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-fashion-week-38-strips/87060</t>
+          <t>https://www.iherb.com/pr/lake-avenue-nutrition-immune-support-16-fl-oz-473-ml/107248</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47132/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/lkn/lkn02051/c/8.jpg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$21.60</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Gel Nail Strips For Nails &amp; Toenails, Glamor and Bloom, 38 Strips</t>
+          <t>Dr. Talbot's, Infrared Thermometer, White, 1 Thermometer</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-gel-nail-strips-for-nails-toenails-glamor-and-bloom-38-strips/87061</t>
+          <t>https://www.iherb.com/pr/dr-talbot-s-infrared-thermometer-white-1-thermometer/106959</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47137/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/tal/tal14902/c/12.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$33.31</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Vika Nailjam, Nail Gel Strips For Nails &amp; Toenails, Lady Mode, 38 Strips</t>
+          <t>Sky Organics, Blemish Control, Spot Treatment, 0.33 fl oz (10 ml)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/vika-nailjam-nail-gel-strips-for-nails-toenails-lady-mode-38-strips/87064</t>
+          <t>https://www.iherb.com/pr/sky-organics-blemish-control-spot-treatment-0-33-fl-oz-10-ml/106181</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/vik/vik47167/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/syo/syo43063/c/5.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$9.20</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mehaz, The Original Edge Cutter, Pink, 1 Cutter</t>
+          <t>Source Naturals, Wellness D-mmunity, Bio-Aligned Vitamin D Immune Formula, 75 mcg (3,000 IU), 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-pink-1-cutter/92705</t>
+          <t>https://www.iherb.com/pr/source-naturals-wellness-d-mmunity-bio-aligned-vitamin-d-immune-formula-75-mcg-3-000-iu-60-vegetarian-capsules/107616</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mhz/mhz11434/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/sns/sns02872/c/8.jpg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>$14.47</t>
+          <t>$11.05</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mehaz, The Original Edge Cutter, Black, 1 Cutter</t>
+          <t>Gaia Herbs, Floradix, Calcium, 200 mg, 8.5 fl oz (250 ml)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mehaz-the-original-edge-cutter-black-1-cutter/92708</t>
+          <t>https://www.iherb.com/pr/gaia-herbs-floradix-calcium-200-mg-8-5-fl-oz-250-ml/106338</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mhz/mhz11414/c/0.jpg</t>
+          <t>https://s3.images-iherb.com/gai/gai26019/c/8.jpg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>$15.04</t>
+          <t>$19.99</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Honey Belle, Black Obsidian Facial Roller, 1 Roller</t>
+          <t>Green Sprouts, Feeding Bowl, 6+ Months, Pink, 1 Bowl</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/honey-belle-black-obsidian-facial-roller-1-roller/90055</t>
+          <t>https://www.iherb.com/pr/green-sprouts-feeding-bowl-6-months-pink-1-bowl/106441</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hbe/hbe77074/c/38.jpg</t>
+          <t>https://s3.images-iherb.com/gsp/gsp13445/c/13.jpg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>$27.00</t>
+          <t>$7.03</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Holistic Blend, My Healthy Pet, Food Booster, For Dogs &amp; Cats, 6.2 oz (175 g)</t>
+          <t>Sunny Isle, Jamaican Black Castor Oil, Leave in Knot Free Forever, 8 fl oz</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/holistic-blend-my-healthy-pet-food-booster-for-dogs-cats-6-2-oz-175-g/83876</t>
+          <t>https://www.iherb.com/pr/sunny-isle-jamaican-black-castor-oil-leave-in-knot-free-forever-8-fl-oz/106521</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hob/hob27700/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/sij/sij00541/c/6.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>$15.00</t>
+          <t>$8.75</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Luseta Beauty, Disposable Medical Face Mask, 50 Pack</t>
+          <t>Specialty Coffee, BLK &amp; Bold, Whole Bean, Dark Roast, 12 oz (340 g)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/luseta-beauty-disposable-medical-face-mask-50-pack/100234</t>
+          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-blk-bold-whole-bean-dark-roast-12-oz-340-g/109492</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lby/lby44060/c/22.jpg</t>
+          <t>https://s3.images-iherb.com/bkb/bkb79130/c/10.jpg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>$16.80</t>
+          <t>$10.39</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Landsberg, 3 Ply Disposable Protective Face Mask, 50 Pack</t>
+          <t>XP Sports, Zero-Lag, Focus &amp; Energy + Eye Health Support, 60 Capsules</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/landsberg-3-ply-disposable-protective-face-mask-50-pack/101029</t>
+          <t>https://www.iherb.com/pr/xp-sports-zero-lag-focus-energy-eye-health-support-60-capsules/105129</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lbg/lbg57000/c/3.jpg</t>
+          <t>https://s3.images-iherb.com/xps/xps60989/c/10.jpg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>$9.90</t>
+          <t>$16.74</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Reviva Labs, Calming Renewal Serum, 1 fl oz (29.5 ml)</t>
+          <t>310 Nutrition, Meal Replacement Shake, Salted Caramel, 14.7 oz (417.2 g)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/reviva-labs-calming-renewal-serum-1-fl-oz-29-5-ml/111537</t>
+          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-salted-caramel-14-7-oz-417-2-g/114801</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/rev/rev00261/c/20.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83048/c/2.jpg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>$17.50</t>
+          <t>$27.20</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Bbluv, Trimo, Replacement Filing Discs, 1, 0-3 Months, 3 Pack</t>
+          <t>Bell Lifestyle, Supreme Immune Support , 90 Veggie Capsules</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/bbluv-trimo-replacement-filing-discs-1-0-3-months-3-pack/111599</t>
+          <t>https://www.iherb.com/pr/bell-lifestyle-supreme-immune-support-90-veggie-capsules/41201</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/blv/blv38765/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/bel/bel11012/c/41.jpg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>$2.96</t>
+          <t>$19.78</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Urban Accents, Chile Verde Fish Tacos Seasoning Mix, 0.75 oz (21 g)</t>
+          <t>Hanskin, Real Complexion, Hyaluron Pink Capsule Serum, 1.69 fl oz (50 ml)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/urban-accents-chile-verde-fish-tacos-seasoning-mix-0-75-oz-21-g/111652</t>
+          <t>https://www.iherb.com/pr/hanskin-real-complexion-hyaluron-pink-capsule-serum-1-69-fl-oz-50-ml/104846</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/uba/uba12100/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/hki/hki23173/c/9.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>$4.45</t>
+          <t>$24.75</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SeaBond, Denture Adhesive Seals, Original, 15 Uppers</t>
+          <t>21st Century, Protective Face Mask, ASTM F2100, Single Use Disposable Masks, 50 Masks, 5-10 ct Packs</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/seabond-denture-adhesive-seals-original-15-uppers/112283</t>
+          <t>https://www.iherb.com/pr/21st-century-protective-face-mask-astm-f2100-single-use-disposable-masks-50-masks-5-10-ct-packs/104887</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sbo/sbo00162/c/18.jpg</t>
+          <t>https://s3.images-iherb.com/cen/cen25319/c/9.jpg</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>$3.85</t>
+          <t>$32.10</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mane Choice, The Alpha, Detangling Hydration Shampoo, For All Hair Types, 8 fl oz (237 ml)</t>
+          <t>Double Dare, OMG! Reversible Mega Hair Band, Hot Pink Plush &amp; Hot Pink Platinum, 1 Piece</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/mane-choice-the-alpha-detangling-hydration-shampoo-for-all-hair-types-8-fl-oz-237-ml/110441</t>
+          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-hot-pink-plush-hot-pink-platinum-1-piece/107689</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/mae/mae00523/c/16.jpg</t>
+          <t>https://s3.images-iherb.com/dbd/dbd53814/c/8.jpg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>$9.54</t>
+          <t>$11.34</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lake Avenue Nutrition, Immune Support, 16 fl oz (473 ml)</t>
+          <t>Double Dare, OMG! Reversible Mega Hair Band, White Plush &amp; Rainbow Platinum, 1 Piece</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/lake-avenue-nutrition-immune-support-16-fl-oz-473-ml/107248</t>
+          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-white-plush-rainbow-platinum-1-piece/107690</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lkn/lkn02051/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/dbd/dbd53817/c/13.jpg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$11.34</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Dr. Talbot's, Infrared Thermometer, White, 1 Thermometer</t>
+          <t>New Nordic US Inc, Active Immune, Immune Support, 30 Tablets</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/dr-talbot-s-infrared-thermometer-white-1-thermometer/106959</t>
+          <t>https://www.iherb.com/pr/new-nordic-active-immune-immune-support-30-tablets/104027</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/tal/tal14902/c/12.jpg</t>
+          <t>https://s3.images-iherb.com/nno/nno00010/c/9.jpg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>$33.31</t>
+          <t>$12.26</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sky Organics, Blemish Control, Spot Treatment, 0.33 fl oz (10 ml)</t>
+          <t>Luseta Beauty, Disposable Protection Face Mask, 50 Pack</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sky-organics-blemish-control-spot-treatment-0-33-fl-oz-10-ml/106181</t>
+          <t>https://www.iherb.com/pr/luseta-beauty-disposable-protection-face-mask-50-pack/100099</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/syo/syo43063/c/5.jpg</t>
+          <t>https://s3.images-iherb.com/lby/lby44036/c/18.jpg</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>$9.20</t>
+          <t>$13.20</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Source Naturals, Wellness D-mmunity, Bio-Aligned Vitamin D Immune Formula, 75 mcg (3,000 IU), 60 Vegetarian Capsules</t>
+          <t>Source Naturals, Wellness, Larch Extract, 60 Tablets</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/source-naturals-wellness-d-mmunity-bio-aligned-vitamin-d-immune-formula-75-mcg-3-000-iu-60-vegetarian-capsules/107616</t>
+          <t>https://www.iherb.com/pr/source-naturals-wellness-larch-extract-60-tablets/1480</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sns/sns02872/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/sns/sns01324/c/4.jpg</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>$11.05</t>
+          <t>$16.10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Gaia Herbs, Floradix, Calcium, 200 mg, 8.5 fl oz (250 ml)</t>
+          <t>Wedderspoon, Raw Multifloral Manuka Honey, KFactor 12, 8.8 oz (250 g)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gaia-herbs-floradix-calcium-200-mg-8-5-fl-oz-250-ml/106338</t>
+          <t>https://www.iherb.com/pr/wedderspoon-raw-multifloral-manuka-honey-kfactor-12-8-8-oz-250-g/69037</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gai/gai26019/c/8.jpg</t>
+          <t>https://s3.images-iherb.com/wsp/wsp02004/c/31.jpg</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>$19.99</t>
+          <t>$18.59</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Green Sprouts, Feeding Bowl, 6+ Months, Pink, 1 Bowl</t>
+          <t>Boiron, Single Remedies, Ruta Graveolens, 6C, Approx 80 Pellets</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/green-sprouts-feeding-bowl-6-months-pink-1-bowl/106441</t>
+          <t>https://www.iherb.com/pr/boiron-single-remedies-ruta-graveolens-6c-approx-80-pellets/58040</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gsp/gsp13445/c/13.jpg</t>
+          <t>https://s3.images-iherb.com/bos/bos64308/c/35.jpg</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>$7.03</t>
+          <t>$6.54</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sunny Isle, Jamaican Black Castor Oil, Leave in Knot Free Forever, 8 fl oz</t>
+          <t>SteelFit, Steel Sweat, Thermogenic Pre-Workout, Lava Lemon Lime, 5.29 oz (150 g)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/sunny-isle-jamaican-black-castor-oil-leave-in-knot-free-forever-8-fl-oz/106521</t>
+          <t>https://www.iherb.com/pr/steelfit-steel-sweat-thermogenic-pre-workout-lava-lemon-lime-5-29-oz-150-g/121617</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sij/sij00541/c/6.jpg</t>
+          <t>https://s3.images-iherb.com/stf/stf05061/c/12.jpg</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>$8.75</t>
+          <t>$20.44</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Specialty Coffee, BLK &amp; Bold, Whole Bean, Dark Roast, 12 oz (340 g)</t>
+          <t>Gerard Cosmetics, Hydra Matte Liquid Lipstick, Boss Lady,  0.085 oz (2.5 ml)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/blk-bold-specialty-coffee-blk-bold-whole-bean-dark-roast-12-oz-340-g/109492</t>
+          <t>https://www.iherb.com/pr/gerard-cosmetics-hydra-matte-liquid-lipstick-boss-lady-0-085-oz-2-5-ml/114376</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bkb/bkb79130/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/gco/gco13830/c/18.jpg</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>$10.39</t>
+          <t>$13.96</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>XP Sports, Zero-Lag, Focus &amp; Energy + Eye Health Support, 60 Capsules</t>
+          <t>310 Nutrition, Meal Replacement Shake, Vanilla, 28.6 oz (812 g)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/xp-sports-zero-lag-focus-energy-eye-health-support-60-capsules/105129</t>
+          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-vanilla-28-6-oz-812-g/114796</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/xps/xps60989/c/10.jpg</t>
+          <t>https://s3.images-iherb.com/ttn/ttn83045/c/2.jpg</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>$16.74</t>
+          <t>$41.66</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>310 Nutrition, Meal Replacement Shake, Salted Caramel, 14.7 oz (417.2 g)</t>
+          <t>Youtheory, K2D3 On Th Go, Peach, 12 Packets, 1 fl oz (30 ml) Each</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-salted-caramel-14-7-oz-417-2-g/114801</t>
+          <t>https://www.iherb.com/pr/youtheory-k2d3-on-th-go-peach-12-packets-1-fl-oz-30-ml-each/115846</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83048/c/2.jpg</t>
+          <t>https://s3.images-iherb.com/you/you92030/c/21.jpg</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>$27.20</t>
+          <t>$12.26</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Bell Lifestyle, Supreme Immune Support , 90 Veggie Capsules</t>
+          <t>Youtheory, B12B6 On The Go, Raspberry, 12 Packets, 1 fl oz (30 ml) Each</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/bell-lifestyle-supreme-immune-support-90-veggie-capsules/41201</t>
+          <t>https://www.iherb.com/pr/youtheory-b12b6-on-the-go-raspberry-12-packets-1-fl-oz-30-ml-each/115849</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bel/bel11012/c/41.jpg</t>
+          <t>https://s3.images-iherb.com/you/you92028/c/21.jpg</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>$19.78</t>
+          <t>$12.09</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Hanskin, Real Complexion, Hyaluron Pink Capsule Serum, 1.69 fl oz (50 ml)</t>
+          <t>Om Mushrooms, Immune Multi Boost, Lemon &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/hanskin-real-complexion-hyaluron-pink-capsule-serum-1-69-fl-oz-50-ml/104846</t>
+          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-lemon-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110709</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/hki/hki23173/c/9.jpg</t>
+          <t>https://s3.images-iherb.com/omm/omm99605/c/14.jpg</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>$24.75</t>
+          <t>$20.24</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>21st Century, Protective Face Mask, ASTM F2100, Single Use Disposable Masks, 50 Masks, 5-10 ct Packs</t>
+          <t>Vitacost Melatonin -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/21st-century-protective-face-mask-astm-f2100-single-use-disposable-masks-50-masks-5-10-ct-packs/104887</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-tablets</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/cen/cen25319/c/9.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197017270.jpg</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>$32.10</t>
+          <t>$2.99</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Double Dare, OMG! Reversible Mega Hair Band, Hot Pink Plush &amp; Hot Pink Platinum, 1 Piece</t>
+          <t>Vitacost Melatonin Liquid -- 3 mg per serving - 2 fl oz</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-hot-pink-plush-hot-pink-platinum-1-piece/107689</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-liquid</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dbd/dbd53814/c/8.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Liquid-835003008148.jpg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>$11.34</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Double Dare, OMG! Reversible Mega Hair Band, White Plush &amp; Rainbow Platinum, 1 Piece</t>
+          <t>NOW Boron -- 3 mg - 250 Veg Capsules</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/double-dare-omg-reversible-mega-hair-band-white-plush-rainbow-platinum-1-piece/107690</t>
+          <t>https://www.vitacost.com/now-boron</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/dbd/dbd53817/c/13.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014122.jpg</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>$11.34</t>
+          <t>$11.49</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>New Nordic US Inc, Active Immune, Immune Support, 30 Tablets</t>
+          <t>NOW Astaxanthin -- 4 mg - 90 Softgels</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/new-nordic-active-immune-immune-support-30-tablets/104027</t>
+          <t>https://www.vitacost.com/now-astaxanthin</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/nno/nno00010/c/9.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW-Foods/NOW-Astaxanthin-733739023056.jpg</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>$12.26</t>
+          <t>$16.49</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Luseta Beauty, Disposable Protection Face Mask, 50 Pack</t>
+          <t>Vitacost Zeaxanthin -- 4 mg - 60 Liquid Capsules</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/luseta-beauty-disposable-protection-face-mask-50-pack/100099</t>
+          <t>https://www.vitacost.com/vitacost-zeaxanthin-4-mg-60-liquid-capsules-4</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/lby/lby44036/c/18.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Zeaxanthin-844197017102.jpg</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>$13.20</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Source Naturals, Wellness, Larch Extract, 60 Tablets</t>
+          <t>Nature's Way Boron Complex - Bone Support -- 3 mg Per Ser...</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/source-naturals-wellness-larch-extract-60-tablets/1480</t>
+          <t>https://www.vitacost.com/natures-way-boron-complex-bone-support</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/sns/sns01324/c/4.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Way/Natures-Way-Boron-Complex-Bone-Support-033674411018.jpg</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>$16.10</t>
+          <t>$6.29</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Wedderspoon, Raw Multifloral Manuka Honey, KFactor 12, 8.8 oz (250 g)</t>
+          <t>Life Extension Boron -- 3 mg - 100 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/wedderspoon-raw-multifloral-manuka-honey-kfactor-12-8-8-oz-250-g/69037</t>
+          <t>https://www.vitacost.com/life-extension-boron-3-mg-100-vegetarian-capsules-2</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/wsp/wsp02004/c/31.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Boron-737870166115.jpg</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>$18.59</t>
+          <t>$6.28</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Boiron, Single Remedies, Ruta Graveolens, 6C, Approx 80 Pellets</t>
+          <t>Vitacost Melatonin -- 3 mg - 300 Capsules</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/boiron-single-remedies-ruta-graveolens-6c-approx-80-pellets/58040</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-300-capsules-1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/bos/bos64308/c/35.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003002658.jpg</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>$6.54</t>
+          <t>$9.99</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SteelFit, Steel Sweat, Thermogenic Pre-Workout, Lava Lemon Lime, 5.29 oz (150 g)</t>
+          <t>Natrol Melatonin Time Release -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/steelfit-steel-sweat-thermogenic-pre-workout-lava-lemon-lime-5-29-oz-150-g/121617</t>
+          <t>https://www.vitacost.com/natrol-melatonin-time-release-3-mg-100-tablets</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/stf/stf05061/c/12.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Time-Release-047469004583.jpg</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>$20.44</t>
+          <t>$8.63</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Gerard Cosmetics, Hydra Matte Liquid Lipstick, Boss Lady,  0.085 oz (2.5 ml)</t>
+          <t>Solaray Copper -- 2 mg - 100 VegCaps</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/gerard-cosmetics-hydra-matte-liquid-lipstick-boss-lady-0-085-oz-2-5-ml/114376</t>
+          <t>https://www.vitacost.com/solaray-copper</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/gco/gco13830/c/18.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Copper-076280459319.jpg</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>$13.96</t>
+          <t>$7.99</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>310 Nutrition, Meal Replacement Shake, Vanilla, 28.6 oz (812 g)</t>
+          <t>NOW Astaxanthin -- 4 mg - 60 Veggie Softgels</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/310-nutrition-meal-replacement-shake-vanilla-28-6-oz-812-g/114796</t>
+          <t>https://www.vitacost.com/now-astaxanthin-4-mg-60-veggie-softgels</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/ttn/ttn83045/c/2.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Astaxanthin-733739032515.jpg</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>$41.66</t>
+          <t>$10.99</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Youtheory, K2D3 On Th Go, Peach, 12 Packets, 1 fl oz (30 ml) Each</t>
+          <t>NOW Melatonin -- 3 mg - 180 Capsules</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/youtheory-k2d3-on-th-go-peach-12-packets-1-fl-oz-30-ml-each/115846</t>
+          <t>https://www.vitacost.com/now-melatonin</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/you/you92030/c/21.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW-Foods/NOW-Melatonin-733739032577.jpg</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>$12.26</t>
+          <t>$8.49</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Youtheory, B12B6 On The Go, Raspberry, 12 Packets, 1 fl oz (30 ml) Each</t>
+          <t>Vitacost Melatonin -- 1 mg - 300 Capsules</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/youtheory-b12b6-on-the-go-raspberry-12-packets-1-fl-oz-30-ml-each/115849</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-1-mg-300-capsules</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/you/you92028/c/21.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003007264.jpg</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>$12.09</t>
+          <t>$7.99</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Om Mushrooms, Immune Multi Boost, Lemon &amp; Elderberry Juice Drink Mix, 10 Packets, 0.53 oz (15 g) Each</t>
+          <t>Vitacost Melatonin Natural Cherry -- 1 mg - 100 Chewable ...</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.iherb.com/pr/om-mushrooms-immune-multi-boost-lemon-elderberry-juice-drink-mix-10-packets-0-53-oz-15-g-each/110709</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-natural-cherry</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://s3.images-iherb.com/omm/omm99605/c/14.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Natural-Cherry-844197019632.jpg</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>$20.24</t>
+          <t>$4.37</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 100 Tablets</t>
+          <t>Nature's Bounty Melatonin -- 1 mg - 180 Tablets</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-tablets</t>
+          <t>https://www.vitacost.com/natures-bounty-melatonin-1-mg-180-tablets</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197017270.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312028328.jpg</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>$2.99</t>
+          <t>$4.99</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin Liquid -- 3 mg per serving - 2 fl oz</t>
+          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin® Dietary Sup...</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-liquid</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-120-gel-caps</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Liquid-835003008148.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035133.jpg</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$29.99</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>NOW Boron -- 3 mg - 250 Veg Capsules</t>
+          <t>NOW Boron -- 3 mg - 100 Veg Capsules</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-boron</t>
+          <t>https://www.vitacost.com/now-boron-3-mg-100-veg-capsules</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014122.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014108.jpg</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>$11.49</t>
+          <t>$5.49</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NOW Astaxanthin -- 4 mg - 90 Softgels</t>
+          <t>Source Naturals Triple Boron -- 3 mg - 200 Capsules</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-astaxanthin</t>
+          <t>https://www.vitacost.com/source-naturals-triple-boron</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW-Foods/NOW-Astaxanthin-733739023056.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Triple-Boron-021078019145.jpg</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>$16.49</t>
+          <t>$10.49</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Vitacost Zeaxanthin -- 4 mg - 60 Liquid Capsules</t>
+          <t>Source Naturals Melatonin NutraSpray™ Natural Orange -- 1...</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-zeaxanthin-4-mg-60-liquid-capsules-4</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-nutraspray</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Zeaxanthin-844197017102.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-NutraSpray-Natural-Orange-021078003281.jpg</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$9.62</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Nature's Way Boron Complex - Bone Support -- 3 mg Per Ser...</t>
+          <t>Natrol Melatonin Strawberry -- 3 mg - 150 Fast-Dissolve T...</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-way-boron-complex-bone-support</t>
+          <t>https://www.vitacost.com/natrol-melatonin-strawberry-3-mg-150-fast-dissolve-tablets</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Way/Natures-Way-Boron-Complex-Bone-Support-033674411018.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Strawberry-047469072810.jpg</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>$6.29</t>
+          <t>$9.71</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Life Extension Boron -- 3 mg - 100 Vegetarian Capsules</t>
+          <t>Source Naturals MethylCobalamin Vitamin B12 Cherry -- 1 m...</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-boron-3-mg-100-vegetarian-capsules-2</t>
+          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Boron-737870166115.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B12-Cherry-021078012931.jpg</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>$6.28</t>
+          <t>$14.68</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 300 Capsules</t>
+          <t>Vitafusion Melatonin Gummies Sugar Free White Tea and Pea...</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-300-capsules-1</t>
+          <t>https://www.vitacost.com/vitafusion-melatonin-gummies-sugar-free</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003002658.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitafusion/Vitafusion-Melatonin-Gummies-Sugar-Free-White-Tea-and-Peach-027917026718.jpg</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$13.49</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Time Release -- 3 mg - 100 Tablets</t>
+          <t>Deva Vegan Astaxanthin Super Carotenoid -- 4 mg - 30 Vega...</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-time-release-3-mg-100-tablets</t>
+          <t>https://www.vitacost.com/deva-vegan-astaxanthin-super-carotenoid</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Time-Release-047469004583.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Deva/Deva-Vegan-Astaxanthin-Super-Carotenoid-895634000089.jpg</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>$8.63</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Solaray Copper -- 2 mg - 100 VegCaps</t>
+          <t>Life Extension Melatonin -- 1 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solaray-copper</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-1-mg-60-capsules</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Copper-076280459319.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870329060.jpg</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>$7.99</t>
+          <t>$5.29</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NOW Astaxanthin -- 4 mg - 60 Veggie Softgels</t>
+          <t>Natrol Kids Melatonin Gummy Sleep Aid for Children Ages 4...</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-astaxanthin-4-mg-60-veggie-softgels</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-gummy-sleep-aid-for-children-ages-4-and-up</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Astaxanthin-733739032515.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Gummy-Sleep-Aid-for-Children-Ages-4-and-Up-Berry-Flavored-047469075309.jpg</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>$10.99</t>
+          <t>$10.89</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 1 mg - 300 Capsules</t>
+          <t>Superior Source Melatonin -- 1 mg - 100 MicroLingual Tablets</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-1-mg-300-capsules</t>
+          <t>https://www.vitacost.com/superior-source-melatonin-1-mg-100-microlingual-tablets</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003007264.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635907304.jpg</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>$7.99</t>
+          <t>$4.98</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin Natural Cherry -- 1 mg - 100 Chewable ...</t>
+          <t>Life Extension Astaxanthin with Phospholipids -- 4 mg - 3...</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-natural-cherry</t>
+          <t>https://www.vitacost.com/life-extension-astaxanthin-with-phospholipids-4-mg-30-softgels-3</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-Natural-Cherry-844197019632.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Astaxanthin-with-Phospholipids-737870192336.jpg</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>$4.37</t>
+          <t>$12.01</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Nature's Bounty Melatonin -- 1 mg - 180 Tablets</t>
+          <t>Bluebonnet Nutrition EarthSweet® Chewables Melatonin Rasp...</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-bounty-melatonin-1-mg-180-tablets</t>
+          <t>https://www.vitacost.com/bluebonnet-nutrition-earthsweet-chewables-melatonin-raspberry-1-mg-120-chewable-tablets</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312028328.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Bluebonnet-Nutrition/Bluebonnet-Nutrition-EarthSweet-Chewables-Melatonin-Raspberry-743715009912.jpg</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>$4.99</t>
+          <t>$8.76</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin® Dietary Sup...</t>
+          <t>Nature Made Melatonin -- 3 mg - 240 Tablets</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-120-gel-caps</t>
+          <t>https://www.vitacost.com/nature-made-melatonin-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035133.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nature-Made/Nature-Made-Melatonin-031604027421.jpg</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>$29.99</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>NOW Boron -- 3 mg - 100 Veg Capsules</t>
+          <t>Vitacost Melatonin -- 2.5 mg - 60 Chewable Tablets</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-boron-3-mg-100-veg-capsules</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-2-5-mg-60-chewable-tablets</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Boron-733739014108.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197029495.jpg</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>$5.49</t>
+          <t>$3.99</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Source Naturals Triple Boron -- 3 mg - 200 Capsules</t>
+          <t>NOW Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-triple-boron</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-60-vegetarian-capsules</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Triple-Boron-021078019145.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032553.jpg</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>$10.49</t>
+          <t>$3.99</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin NutraSpray™ Natural Orange -- 1...</t>
+          <t>Life Extension Melatonin -- 3 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-nutraspray</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-NutraSpray-Natural-Orange-021078003281.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870332060.jpg</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>$9.62</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Strawberry -- 3 mg - 150 Fast-Dissolve T...</t>
+          <t>Vitacost Melatonin -- 3 mg - 100 Capsules</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-strawberry-3-mg-150-fast-dissolve-tablets</t>
+          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-capsules</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Strawberry-047469072810.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003000593.jpg</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>$9.71</t>
+          <t>$4.19</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Source Naturals MethylCobalamin Vitamin B12 Cherry -- 1 m...</t>
+          <t>Healthy Origins Astaxanthin -- 4 mg - 150 Softgels</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b12</t>
+          <t>https://www.vitacost.com/healthy-origins-astaxanthin-4-mg-150-softgels</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B12-Cherry-021078012931.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Healthy-Origins/Healthy-Origins-Astaxanthin-603573849160.jpg</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>$14.68</t>
+          <t>$26.99</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Vitafusion Melatonin Gummies Sugar Free White Tea and Pea...</t>
+          <t>Life Extension Melatonin -- 3 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitafusion-melatonin-gummies-sugar-free</t>
+          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-capsules</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitafusion/Vitafusion-Melatonin-Gummies-Sugar-Free-White-Tea-and-Peach-027917026718.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870330066.jpg</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>$13.49</t>
+          <t>$7.49</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Deva Vegan Astaxanthin Super Carotenoid -- 4 mg - 30 Vega...</t>
+          <t>Vibrant Health Super Natural Boron -- 3 mg - 60 Vegetable...</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/deva-vegan-astaxanthin-super-carotenoid</t>
+          <t>https://www.vitacost.com/vibrant-health-super-natural-boron</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Deva/Deva-Vegan-Astaxanthin-Super-Carotenoid-895634000089.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Vibrant-Health/Vibrant-Health-Super-Natural-Boron-074306800367.jpg</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$13.49</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 1 mg - 60 Capsules</t>
+          <t>Source Naturals Melatonin Sublingual Peppermint -- 1 mg -...</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-1-mg-60-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-peppermint-1-mg-100-lozenges</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870329060.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Peppermint-021078007098.jpg</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>$5.29</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Natrol Kids Melatonin Gummy Sleep Aid for Children Ages 4...</t>
+          <t>Source Naturals Melatonin Lozenges Orange -- 1 mg - 100 L...</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-gummy-sleep-aid-for-children-ages-4-and-up</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Gummy-Sleep-Aid-for-Children-Ages-4-and-Up-Berry-Flavored-047469075309.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078007067.jpg</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>$10.89</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Superior Source Melatonin -- 1 mg - 100 MicroLingual Tablets</t>
+          <t>Source Naturals Melatonin Orange -- 2.5 mg - 120 Lozenges</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/superior-source-melatonin-1-mg-100-microlingual-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-120-lozenges</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635907304.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002727.jpg</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>$4.98</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Life Extension Astaxanthin with Phospholipids -- 4 mg - 3...</t>
+          <t>Pure Encapsulations Melatonin -- 3 mg - 180 Capsules</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-astaxanthin-with-phospholipids-4-mg-30-softgels-3</t>
+          <t>https://www.vitacost.com/pure-encapsulations-melatonin-3-mg-180-capsules</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Astaxanthin-with-Phospholipids-737870192336.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Pure-Encapsulations/Pure-Encapsulations-Melatonin-766298001814.jpg</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>$12.01</t>
+          <t>$35.80</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 2.5 mg - 60 Chewable Tablets</t>
+          <t>Thorne Research 5-MTHF Methylfolate -- 1 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-2-5-mg-60-chewable-tablets</t>
+          <t>https://www.vitacost.com/thorne-research-5-mthf-methylfolate</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-844197029495.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Thorne-Research/Thorne-Research-5-MTHF-Methylfolate-693749129011.jpg</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$22.00</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
+          <t>Superior Source Melatonin -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-60-vegetarian-capsules</t>
+          <t>https://www.vitacost.com/superior-source-melatonin-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032553.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635900008.jpg</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$5.69</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 3 mg - 60 Lozenges</t>
+          <t>Source Naturals Melatonin Peppermint -- 2.5 mg - 240 Loze...</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-2-5-mg-240-lozenges</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870332060.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078002048.jpg</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>$5.99</t>
+          <t>$22.75</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Vitacost Melatonin -- 3 mg - 100 Capsules</t>
+          <t>Solgar Melatonin -- 3 mg - 120 Nuggets</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vitacost-melatonin-3-mg-100-capsules</t>
+          <t>https://www.vitacost.com/solgar-melatonin-3-mg-120-nuggets</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vitacost/Vitacost-Melatonin-835003000593.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solgar/Solgar-Melatonin-033984019355.jpg</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>$4.19</t>
+          <t>$8.24</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Healthy Origins Astaxanthin -- 4 mg - 150 Softgels</t>
+          <t>Nature's Bounty Melatonin -- 3 mg - 120 Quick Dissolve Ta...</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/healthy-origins-astaxanthin-4-mg-150-softgels</t>
+          <t>https://www.vitacost.com/natures-bounty-melatonin-3-mg-120-quick-dissolve-tablets</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Healthy-Origins/Healthy-Origins-Astaxanthin-603573849160.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312079016.jpg</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>$26.99</t>
+          <t>$6.79</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Life Extension Melatonin -- 3 mg - 60 Capsules</t>
+          <t>Source Naturals Melatonin Peppermint -- 1 mg - 300 Lozenges</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-melatonin-3-mg-60-capsules</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-300-lozenges</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Melatonin-737870330066.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007111.jpg</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>$7.49</t>
+          <t>$17.85</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vibrant Health Super Natural Boron -- 3 mg - 60 Vegetable...</t>
+          <t>Natrol Liquid Melatonin Sleep Berry -- 2.5 mg - 8 fl oz</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/vibrant-health-super-natural-boron</t>
+          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry-2-5-mg-8-fl-oz</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Vibrant-Health/Vibrant-Health-Super-Natural-Boron-074306800367.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074050.jpg</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>$13.49</t>
+          <t>$10.99</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Sublingual Peppermint -- 1 mg -...</t>
+          <t>NOW Melatonin -- 1 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-peppermint-1-mg-100-lozenges</t>
+          <t>https://www.vitacost.com/now-melatonin-1-mg-100-tablets</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Peppermint-021078007098.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032621.jpg</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$5.49</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Lozenges Orange -- 1 mg - 100 L...</t>
+          <t>NOW Melatonin -- 3 mg - 180 Lozenges</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-180-lozenges</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078007067.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032591.jpg</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$7.49</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Orange -- 2.5 mg - 120 Lozenges</t>
+          <t>Nutrex Hawaii BioAstin Hawaiian Astaxanthin Dietary Suppl...</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-120-lozenges</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-60-softgels</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002727.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035089.jpg</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>$11.89</t>
+          <t>$17.49</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Pure Encapsulations Melatonin -- 3 mg - 180 Capsules</t>
+          <t>Life Extension Vitamin B12 -- 1 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/pure-encapsulations-melatonin-3-mg-180-capsules</t>
+          <t>https://www.vitacost.com/life-extension-vitamin-b12-1-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Pure-Encapsulations/Pure-Encapsulations-Melatonin-766298001814.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Vitamin-B12-737870153665.jpg</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>$35.80</t>
+          <t>$7.51</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Thorne Research 5-MTHF Methylfolate -- 1 mg - 60 Capsules</t>
+          <t>Source Naturals Melatonin Orange -- 1 mg - 300 Lozenges</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/thorne-research-5-mthf-methylfolate</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-1-mg-300-lozenges</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Thorne-Research/Thorne-Research-5-MTHF-Methylfolate-693749129011.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078007081.jpg</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>$22.00</t>
+          <t>$17.85</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Superior Source Melatonin -- 3 mg - 60 Tablets</t>
+          <t>Natrol Melatonin Fast Dissolve Strawberry -- 1 mg - 90 Ta...</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/superior-source-melatonin-3-mg-60-tablets</t>
+          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve-strawberry-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Superior-Source/Superior-Source-Melatonin-076635900008.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469063245.jpg</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>$5.69</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Peppermint -- 2.5 mg - 240 Loze...</t>
+          <t>MRM Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-2-5-mg-240-lozenges</t>
+          <t>https://www.vitacost.com/mrm-melatonin-3-mg-60-vegetarian-capsules-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078002048.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/MRM/MRM-Melatonin-609492570017.jpg</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>$22.75</t>
+          <t>$5.04</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Solgar Melatonin -- 3 mg - 120 Nuggets</t>
+          <t>Natrol Kids Melatonin Sleep Aid Gummy for Children Ages 4...</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solgar-melatonin-3-mg-120-nuggets</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-sleep-aid-gummy-for-children-ages-4-and-up</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solgar/Solgar-Melatonin-033984019355.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Sleep-Aid-Gummy-for-Children-Ages-4-and-Up-Berry-Flavored-047469076924.jpg</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>$8.24</t>
+          <t>$8.71</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Nature's Bounty Melatonin -- 3 mg - 120 Quick Dissolve Ta...</t>
+          <t>Natural Vitality Calm Sleep -- 3 mg - 120 Capsules</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natures-bounty-melatonin-3-mg-120-quick-dissolve-tablets</t>
+          <t>https://www.vitacost.com/natural-vitality-calm-sleep</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natures-Bounty/Natures-Bounty-Melatonin-074312079016.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natural-Vitality/Natural-Vitality-Calm-Sleep-183405043619.jpg</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>$6.79</t>
+          <t>$21.33</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Peppermint -- 1 mg - 300 Lozenges</t>
+          <t>Solaray Tetra-Boron™ -- 3 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-300-lozenges</t>
+          <t>https://www.vitacost.com/solaray-tetra-boron</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007111.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Tetra-Boron-076280045789.jpg</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>$17.85</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Natrol Liquid Melatonin Sleep Berry -- 2.5 mg - 8 fl oz</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 120 Tab...</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry-2-5-mg-8-fl-oz</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-120-tablets</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074050.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000662.jpg</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>$10.99</t>
+          <t>$13.65</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 1 mg - 100 Tablets</t>
+          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin Vegan Formul...</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-1-mg-100-tablets</t>
+          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-vegan-formula-dietary-supplement</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032621.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Vegan-Formula-Dietary-Supplement-732894500136.jpg</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>$5.49</t>
+          <t>$33.99</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 180 Lozenges</t>
+          <t>Source Naturals Melatonin Lozenges Orange -- 2.5 mg - 240...</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-180-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges-orange</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032591.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078002833.jpg</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>$7.49</t>
+          <t>$22.75</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin Hawaiian Astaxanthin Dietary Suppl...</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 240 Tab...</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-dietary-supplement-4-mg-60-softgels</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Dietary-Supplement-732894035089.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000679.jpg</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>$17.49</t>
+          <t>$26.08</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Life Extension Vitamin B12 -- 1 mg - 60 Lozenges</t>
+          <t>Country Life Melatonin -- 3 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/life-extension-vitamin-b12-1-mg-60-lozenges</t>
+          <t>https://www.vitacost.com/country-life-melatonin-3-mg-90-tablets</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Vitamin-B12-737870153665.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016892.jpg</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>$7.51</t>
+          <t>$11.39</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Orange -- 1 mg - 300 Lozenges</t>
+          <t>Dr. Mercola Iodine -- 1.5 mg - 30 Capsules</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-1-mg-300-lozenges</t>
+          <t>https://www.vitacost.com/dr-mercola-iodine-1-5-mg-30-capsules-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078007081.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Iodine-813006016148.jpg</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>$17.85</t>
+          <t>$8.97</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Fast Dissolve Strawberry -- 1 mg - 90 Ta...</t>
+          <t>Natrol Melatonin Sleep -- 1 mg - 180 Tablets</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve-strawberry-1-mg-90-tablets</t>
+          <t>https://www.vitacost.com/natrol-melatonin-sleep</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469063245.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004668.jpg</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>$7.55</t>
+          <t>$8.60</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MRM Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
+          <t>NOW Copper Glycinate -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/mrm-melatonin-3-mg-60-vegetarian-capsules-1</t>
+          <t>https://www.vitacost.com/now-copper-glycinate</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/MRM/MRM-Melatonin-609492570017.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Copper-Glycinate-733739014337.jpg</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>$5.04</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Natrol Kids Melatonin Sleep Aid Gummy for Children Ages 4...</t>
+          <t>Terry Naturally Tri-Iodine™ -- 3 mg - 90 Capsules</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-sleep-aid-gummy-for-children-ages-4-and-up</t>
+          <t>https://www.vitacost.com/terry-naturally-tri-iodine-3-mg-90-capsules-1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Sleep-Aid-Gummy-for-Children-Ages-4-and-Up-Berry-Flavored-047469076924.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Terry-Naturally/Terry-Naturally-Tri-Iodine-367703420093.jpg</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>$8.71</t>
+          <t>$20.76</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Solaray Tetra-Boron™ -- 3 mg - 100 Tablets</t>
+          <t>NOW Melatonin -- 3 mg - 90 Lozenges</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/solaray-tetra-boron</t>
+          <t>https://www.vitacost.com/now-melatonin-3-mg-90-lozenges</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Tetra-Boron-076280045789.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032584.jpg</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>$8.99</t>
+          <t>$4.09</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 120 Tab...</t>
+          <t>NaturesPlus Copper -- 3 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-120-tablets</t>
+          <t>https://www.vitacost.com/naturesplus-copper</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000662.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Copper-097467034303.jpg</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>$13.65</t>
+          <t>$9.31</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Nutrex Hawaii BioAstin® Hawaiian Astaxanthin Vegan Formul...</t>
+          <t>KAL Melatonin Drop Ins™ Dietary Supplement Natural Raspbe...</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nutrex-hawaii-bioastin-hawaiian-astaxanthin-vegan-formula-dietary-supplement</t>
+          <t>https://www.vitacost.com/kal-melatonin-drop-ins-dietary-supplement</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nutrex-Hawaii/Nutrex-Hawaii-BioAstin-Hawaiian-Astaxanthin-Vegan-Formula-Dietary-Supplement-732894500136.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Drop-Ins-Dietary-Supplement-Natural-Raspberry-021245970354.jpg</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>$33.99</t>
+          <t>$12.49</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Lozenges Orange -- 2.5 mg - 240...</t>
+          <t>Douglas Laboratories Melatonin P.R. -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-lozenges-orange</t>
+          <t>https://www.vitacost.com/douglas-laboratories-melatonin-p-r-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Lozenges-Orange-021078002833.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Douglas-Laboratories/Douglas-Laboratories-Melatonin-P-R-310539005187.jpg</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>$22.75</t>
+          <t>$16.80</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 240 Tab...</t>
+          <t>Trace Minerals Research Ionic Copper Dietary Supplement -...</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-240-tablets</t>
+          <t>https://www.vitacost.com/trace-minerals-research-ionic-copper-dietary-supplement</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000679.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Trace-Minerals-Research/Trace-Minerals-Research-Ionic-Copper-Dietary-Supplement-878941003417.jpg</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>$26.08</t>
+          <t>$15.99</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Country Life Melatonin -- 3 mg - 90 Tablets</t>
+          <t>Nature Made Melatonin -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/country-life-melatonin-3-mg-90-tablets</t>
+          <t>https://www.vitacost.com/nature-made-melatonin-3-mg-120-tablets</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016892.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nature-Made/Nature-Made-Melatonin-031604027414.jpg</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>$11.39</t>
+          <t>$5.99</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Dr. Mercola Iodine -- 1.5 mg - 30 Capsules</t>
+          <t>Natrol Kids Melatonin Fast Dissolve Tablets with Lemon Ba...</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/dr-mercola-iodine-1-5-mg-30-capsules-1</t>
+          <t>https://www.vitacost.com/natrol-kids-melatonin-fast-dissolve-tablets-with-lemon-balm-for-children-ages-4-and-up-drug-free</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Iodine-813006016148.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Fast-Dissolve-Tablets-with-Lemon-Balm-for-Children-Ages-4-and-Up-Drug-Free-Strawberry-Flavored-047469075293.jpg</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>$8.97</t>
+          <t>$8.09</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Sleep -- 1 mg - 180 Tablets</t>
+          <t>KAL Melatonin -- 1 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-sleep</t>
+          <t>https://www.vitacost.com/kal-melatonin-1-mg-120-tablets</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004668.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-021245522607.jpg</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>$8.60</t>
+          <t>$7.99</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>NOW Copper Glycinate -- 3 mg - 120 Tablets</t>
+          <t>MegaFood Melatonin Berry Good Sleep® Gummies Berry -- 3 m...</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-copper-glycinate</t>
+          <t>https://www.vitacost.com/megafood-melatonin-berry-good-sleep-gummies</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Copper-Glycinate-733739014337.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/MegaFood/MegaFood-Melatonin-Berry-Good-Sleep-Gummies-Berry-051494104156.jpg</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$13.99</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Terry Naturally Tri-Iodine™ -- 3 mg - 90 Capsules</t>
+          <t>Solaray Boron -- 3 mg - 60 VegCaps</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/terry-naturally-tri-iodine-3-mg-90-capsules-1</t>
+          <t>https://www.vitacost.com/solaray-boron</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Terry-Naturally/Terry-Naturally-Tri-Iodine-367703420093.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Solaray/Solaray-Boron-076280045772.jpg</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>$20.76</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NOW Melatonin -- 3 mg - 90 Lozenges</t>
+          <t>Natrol Melatonin Fast Dissolve Strawberry -- 3 mg - 90 Ta...</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/now-melatonin-3-mg-90-lozenges</t>
+          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NOW/NOW-Melatonin-733739032584.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469060763.jpg</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>$4.09</t>
+          <t>$6.99</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>NaturesPlus Copper -- 3 mg - 90 Tablets</t>
+          <t>Dr. Mercola Organic Astaxanthin -- 4 mg - 90 Capsules</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/naturesplus-copper</t>
+          <t>https://www.vitacost.com/dr-mercola-organic-astaxanthin</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Copper-097467034303.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Organic-Astaxanthin-810487036245.jpg</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>$9.31</t>
+          <t>$39.97</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>KAL Melatonin Drop Ins™ Dietary Supplement Natural Raspbe...</t>
+          <t>Nordic Naturals Zero Sugar Melatonin Gummies Raspberry --...</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/kal-melatonin-drop-ins-dietary-supplement</t>
+          <t>https://www.vitacost.com/nordic-naturals-zero-sugar-melatonin-gummies-raspberry</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Drop-Ins-Dietary-Supplement-Natural-Raspberry-021245970354.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nordic-Naturals/Nordic-Naturals-Zero-Sugar-Melatonin-Gummies-Raspberry-768990301896.jpg</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>$12.49</t>
+          <t>$30.20</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Trace Minerals Research Ionic Copper Dietary Supplement -...</t>
+          <t>Natrol Melatonin -- 3 mg - 240 Tablets</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/trace-minerals-research-ionic-copper-dietary-supplement</t>
+          <t>https://www.vitacost.com/natrol-melatonin-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Trace-Minerals-Research/Trace-Minerals-Research-Ionic-Copper-Dietary-Supplement-878941003417.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469160685.jpg</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>$15.99</t>
+          <t>$18.35</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Natrol Kids Melatonin Fast Dissolve Tablets with Lemon Ba...</t>
+          <t>DaVinci Laboratories 5-MTHF -- 1 mg - 60 Capsules</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-kids-melatonin-fast-dissolve-tablets-with-lemon-balm-for-children-ages-4-and-up-drug-free</t>
+          <t>https://www.vitacost.com/davinci-laboratories-5-mthf-1-mg-60-capsules-1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Kids-Melatonin-Fast-Dissolve-Tablets-with-Lemon-Balm-for-Children-Ages-4-and-Up-Drug-Free-Strawberry-Flavored-047469075293.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/DaVinci-Laboratories/DaVinci-Laboratories-5-MTHF-026664003324.jpg</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>$8.09</t>
+          <t>$25.60</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MegaFood Melatonin Berry Good Sleep® Gummies Berry -- 3 m...</t>
+          <t>Kal Melatonin -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/megafood-melatonin-berry-good-sleep-gummies</t>
+          <t>https://www.vitacost.com/kal-melatonin</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/MegaFood/MegaFood-Melatonin-Berry-Good-Sleep-Gummies-Berry-051494104156.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/Kal-Melatonin-021245753124.jpg</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>$13.99</t>
+          <t>$14.99</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Fast Dissolve Strawberry -- 3 mg - 90 Ta...</t>
+          <t>KAL Melatonin Sustained Release -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-fast-dissolve</t>
+          <t>https://www.vitacost.com/kal-melatonin-sustained-release</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Fast-Dissolve-Strawberry-047469060763.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Sustained-Release-021245750123.jpg</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$14.99</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Dr. Mercola Organic Astaxanthin -- 4 mg - 90 Capsules</t>
+          <t>Source Naturals Sleep Science Melatonin Peppermint -- 2.5...</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/dr-mercola-organic-astaxanthin</t>
+          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin-peppermint</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Organic-Astaxanthin-810487036245.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Peppermint-021078000853.jpg</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>$39.97</t>
+          <t>$11.89</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Nordic Naturals Zero Sugar Melatonin Gummies Raspberry --...</t>
+          <t>Source Naturals Timed Release Melatonin -- 2 mg - 120 Tab...</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/nordic-naturals-zero-sugar-melatonin-gummies-raspberry</t>
+          <t>https://www.vitacost.com/source-naturals-timed-release-melatonin-2-mg-120-tablets</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Nordic-Naturals/Nordic-Naturals-Zero-Sugar-Melatonin-Gummies-Raspberry-768990301896.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Timed-Release-Melatonin-021078000631.jpg</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>$30.20</t>
+          <t>$11.55</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Natrol Melatonin -- 3 mg - 240 Tablets</t>
+          <t>Country Life Melatonin -- 1 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-3-mg-240-tablets</t>
+          <t>https://www.vitacost.com/country-life-melatonin-1-mg-120-tablets</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469160685.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016915.jpg</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>$18.35</t>
+          <t>$9.07</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>KAL Melatonin Sustained Release -- 3 mg - 120 Tablets</t>
+          <t>Source Naturals Vegan True™ Melatonin Orange -- 2.5 mg - ...</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/kal-melatonin-sustained-release</t>
+          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-orange</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Sustained-Release-021245750123.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-Orange-021078025801.jpg</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>$14.99</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Source Naturals Sleep Science Melatonin Peppermint -- 2.5...</t>
+          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 180 Che...</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin-peppermint</t>
+          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin-3-mg-180-chewable-tablets-1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Peppermint-021078000853.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027166.jpg</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>$11.89</t>
+          <t>$9.77</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Source Naturals Timed Release Melatonin -- 2 mg - 120 Tab...</t>
+          <t>Source Naturals MethylCobalamin Vitamin B-12 Cherry -- 1 ...</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-timed-release-melatonin-2-mg-120-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b-12-cherry</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Timed-Release-Melatonin-021078000631.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B-12-Cherry-021078012924.jpg</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>$11.55</t>
+          <t>$8.05</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Country Life Melatonin -- 1 mg - 120 Tablets</t>
+          <t>Carlson Melatonin Gummies Natural Strawberry -- 2.5 mg - ...</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/country-life-melatonin-1-mg-120-tablets</t>
+          <t>https://www.vitacost.com/carlson-melatonin-gummies-natural-strawberry</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016915.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Carlson/Carlson-Melatonin-Gummies-Natural-Strawberry-088395492006.jpg</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>$9.07</t>
+          <t>$12.73</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Source Naturals Vegan True™ Melatonin Orange -- 2.5 mg - ...</t>
+          <t>Natrol Melatonin Sleep -- 1 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-orange</t>
+          <t>https://www.vitacost.com/natrol-melatonin-sleep-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-Orange-021078025801.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004675.jpg</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 180 Che...</t>
+          <t>Natrol Liquid Melatonin Sleep Berry -- 1 mg - 2 fl oz</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin-3-mg-180-chewable-tablets-1</t>
+          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027166.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074029.jpg</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>$9.77</t>
+          <t>$5.37</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Source Naturals MethylCobalamin Vitamin B-12 Cherry -- 1 ...</t>
+          <t>Source Naturals Melatonin -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-methylcobalamin-vitamin-b-12-cherry</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-MethylCobalamin-Vitamin-B-12-Cherry-021078012924.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005506.jpg</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>$8.05</t>
+          <t>$5.95</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Carlson Melatonin Gummies Natural Strawberry -- 2.5 mg - ...</t>
+          <t>Source Naturals Vegan True™ MethylCobalamin -- 1 mg - 60 ...</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/carlson-melatonin-gummies-natural-strawberry</t>
+          <t>https://www.vitacost.com/source-naturals-vegan-true-methylcobalamin</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Carlson/Carlson-Melatonin-Gummies-Natural-Strawberry-088395492006.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-MethylCobalamin-021078025764.jpg</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>$12.73</t>
+          <t>$8.05</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Natrol Melatonin Sleep -- 1 mg - 90 Tablets</t>
+          <t>Source Naturals Melatonin -- 1 mg - 100 Tablets</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-sleep-1-mg-90-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-100-tablets</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-Sleep-047469004675.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078007197.jpg</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>$7.55</t>
+          <t>$6.13</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Natrol Liquid Melatonin Sleep Berry -- 1 mg - 2 fl oz</t>
+          <t>Source Naturals Melatonin Sublingual Liquid Orange -- 1 m...</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-liquid-melatonin-sleep-berry</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-liquid</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Liquid-Melatonin-Sleep-Berry-047469074029.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Liquid-Orange-021078000860.jpg</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>$5.37</t>
+          <t>$8.58</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin -- 3 mg - 60 Tablets</t>
+          <t>Source Naturals Melatonin Timed Release -- 2 mg - 240 Tab...</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-60-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-2-mg-240-tablets-1</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005506.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000648.jpg</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>$5.95</t>
+          <t>$22.05</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin -- 1 mg - 100 Tablets</t>
+          <t>Source Naturals Melatonin Peppermint -- 1 mg - 200 Lozenges</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-100-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-200-lozenges</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078007197.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007104.jpg</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>$6.13</t>
+          <t>$12.25</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Sublingual Liquid Orange -- 1 m...</t>
+          <t>Source Naturals Sleep Science® Melatonin Orange -- 1 mg -...</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-sublingual-liquid</t>
+          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Sublingual-Liquid-Orange-021078000860.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Orange-021078007074.jpg</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>$8.58</t>
+          <t>$12.25</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 2 mg - 240 Tab...</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 120 Softgels</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-2-mg-240-tablets-1</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000648.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019565.jpg</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>$22.05</t>
+          <t>$31.49</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Peppermint -- 1 mg - 200 Lozenges</t>
+          <t>Source Naturals Melatonin Timed Release -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-peppermint-1-mg-200-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-60-tablets-1</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Peppermint-021078007104.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000655.jpg</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>$12.25</t>
+          <t>$7.18</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Source Naturals Sleep Science® Melatonin Orange -- 1 mg -...</t>
+          <t>Mt Angel Vitamins Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-sleep-science-melatonin</t>
+          <t>https://www.vitacost.com/mt-angel-vitamins-melatonin</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Sleep-Science-Melatonin-Orange-021078007074.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Mt-Angel-Vitamins/Mt-Angel-Vitamins-Melatonin-768305070080.jpg</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>$12.25</t>
+          <t>$9.42</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 120 Softgels</t>
+          <t>Douglas Laboratories Melatonin -- 3 mg - 60 Vegetarian Ca...</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin</t>
+          <t>https://www.vitacost.com/douglas-laboratories-melatonin-3-mg-60-vegetarian-capsules</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019565.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Douglas-Laboratories/Douglas-Laboratories-Melatonin-310539977859.jpg</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>$31.49</t>
+          <t>$14.43</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Timed Release -- 3 mg - 60 Tablets</t>
+          <t>Source Naturals Melatonin Complex™ Orange -- 3 mg - 100 S...</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-timed-release-3-mg-60-tablets-1</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-complex-orange-3-mg-100-sublingual-tablets-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Timed-Release-021078000655.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Complex-Orange-021078005865.jpg</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>$7.18</t>
+          <t>$16.49</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Mt Angel Vitamins Melatonin -- 3 mg - 60 Vegetarian Capsules</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 60 Softgels</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/mt-angel-vitamins-melatonin</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-60-softgels</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Mt-Angel-Vitamins/Mt-Angel-Vitamins-Melatonin-768305070080.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019558.jpg</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>$9.42</t>
+          <t>$16.28</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Douglas Laboratories Melatonin -- 3 mg - 60 Vegetarian Ca...</t>
+          <t>Olympian Labs Melatonin Liquid -- 1 mg - 2 fl oz</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/douglas-laboratories-melatonin-3-mg-60-vegetarian-capsules</t>
+          <t>https://www.vitacost.com/olympian-labs-melatonin-liquid</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Douglas-Laboratories/Douglas-Laboratories-Melatonin-310539977859.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Olympian-Labs/Olympian-Labs-Melatonin-Liquid-710013910974.jpg</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>$14.43</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Complex™ Orange -- 3 mg - 100 S...</t>
+          <t>Source Naturals Melatonin Orange -- 2.5 mg - 60 Lozenges</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-complex-orange-3-mg-100-sublingual-tablets-1</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-60-lozenges</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Complex-Orange-021078005865.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002710.jpg</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>$16.49</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 60 Softgels</t>
+          <t>Natrol Melatonin -- 3 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-60-softgels</t>
+          <t>https://www.vitacost.com/natrol-melatonin</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078019558.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005115.jpg</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>$16.28</t>
+          <t>$12.95</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin Orange -- 2.5 mg - 60 Lozenges</t>
+          <t>Source Naturals Melatonin -- 3 mg - 240 Tablets</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-orange-2-5-mg-60-lozenges</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-240-tablets</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-Orange-021078002710.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005520.jpg</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$21.35</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Natrol Melatonin -- 3 mg - 120 Tablets</t>
+          <t>Thompson Melatonin -- 3 mg - 30 Tablets</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin</t>
+          <t>https://www.vitacost.com/thompson-melatonin</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469005115.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Thompson/Thompson-Melatonin-031315192500.jpg</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>$12.95</t>
+          <t>$3.49</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Source Naturals Melatonin -- 3 mg - 240 Tablets</t>
+          <t>Source Naturals Melatonin -- 1 mg - 300 Tablets</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-240-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-300-tablets</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078005520.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078007210.jpg</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>$21.35</t>
+          <t>$16.79</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Thompson Melatonin -- 3 mg - 30 Tablets</t>
+          <t>Country Life Melatonin -- 1 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/thompson-melatonin</t>
+          <t>https://www.vitacost.com/country-life-melatonin-1-mg-60-tablets</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Thompson/Thompson-Melatonin-031315192500.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016908.jpg</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>$3.49</t>
+          <t>$6.44</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Country Life Melatonin -- 1 mg - 60 Tablets</t>
+          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 90 Chew...</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/country-life-melatonin-1-mg-60-tablets</t>
+          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016908.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027159.jpg</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>$6.44</t>
+          <t>$5.57</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Natural Factors Stress-Relax® Melatonin -- 3 mg - 90 Chew...</t>
+          <t>Source Naturals Melatonin -- 1 mg - 100 Vegetarian Capsules</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natural-factors-stress-relax-melatonin</t>
+          <t>https://www.vitacost.com/source-naturals-melatonin-1-mg-100-vegetarian-capsules-2</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natural-Factors/Natural-Factors-Stress-Relax-Melatonin-068958027159.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078024071.jpg</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>$5.57</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
@@ -7238,196 +7318,416 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Natrol Melatonin -- 1 mg - 90 Tablets</t>
+          <t>Nutricost Kids Melatonin -- 1 mg - 120 Gummies</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/natrol-melatonin-1-mg-90-tablets</t>
+          <t>https://www.vitacost.com/nutricost-kids-melatonin</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469004651.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Nutricost/Nutricost-Kids-Melatonin-810014672526.jpg</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>$7.55</t>
+          <t>$11.95</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Source Naturals Astaxanthin -- 2 mg - 120 Tablets</t>
+          <t>Natrol Melatonin -- 1 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-120-tablets</t>
+          <t>https://www.vitacost.com/natrol-melatonin-1-mg-90-tablets</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078015024.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Natrol/Natrol-Melatonin-047469004651.jpg</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>$27.83</t>
+          <t>$7.55</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Source Naturals Vegan True™ Melatonin -- 3 mg - 60 Vegeta...</t>
+          <t>Source Naturals Astaxanthin -- 2 mg - 120 Tablets</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-3-mg-60-vegetarian-capsules-1</t>
+          <t>https://www.vitacost.com/source-naturals-astaxanthin-2-mg-120-tablets</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-021078025818.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Astaxanthin-021078015024.jpg</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>$6.48</t>
+          <t>$27.83</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KAL Melatonin Dietary Supplement -- 3 mg - 60 Tablets</t>
+          <t>Source Naturals Vegan True™ Melatonin -- 3 mg - 60 Vegeta...</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/kal-melatonin-dietary-supplement-3-mg-60-tablets</t>
+          <t>https://www.vitacost.com/source-naturals-vegan-true-melatonin-3-mg-60-vegetarian-capsules-1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Dietary-Supplement-021245750062.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Vegan-True-Melatonin-021078025818.jpg</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>$8.99</t>
+          <t>$6.48</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Protocol For Life Balance Melatonin -- 3 mg - 120 Lozenges</t>
+          <t>Life Extension Science Melatonin Strawberry -- 3 mg - 60 ...</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/protocol-for-life-balance-melatonin</t>
+          <t>https://www.vitacost.com/life-extension-science-melatonin</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Protocol-For-Life-Balance/Protocol-For-Life-Balance-Melatonin-707359132580.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Life-Extension/Life-Extension-Science-Melatonin-Strawberry-737870250364.jpg</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>$11.04</t>
+          <t>$16.50</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Country Life Melatonin -- 3 mg - 30 Tablets</t>
+          <t>KAL Melatonin Dietary Supplement -- 3 mg - 60 Tablets</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/country-life-melatonin-3-mg-30-tablets-1</t>
+          <t>https://www.vitacost.com/kal-melatonin-dietary-supplement-3-mg-60-tablets</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016885.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/KAL-Melatonin-Dietary-Supplement-021245750062.jpg</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>$6.44</t>
+          <t>$8.99</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Good Day Chocolate Adults Sleep Supplement Milk Chocolate...</t>
+          <t>NaturesPlus Melatonin -- 3 mg - 90 Tablets</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/good-day-chocolate-adults-sleep-supplement-milk-chocolate-1-mg-80-candy-coated-pieces</t>
+          <t>https://www.vitacost.com/naturesplus-melatonin-3-mg-90-tablets</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adults-Sleep-Supplement-Milk-Chocolate-858982004437.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Melatonin-097467476257.jpg</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>$15.99</t>
+          <t>$6.76</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Dr. Mercola Melatonin Sleep Support Natural Raspberry -- ...</t>
+          <t>Protocol For Life Balance Melatonin -- 3 mg - 120 Lozenges</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/dr-mercola-melatonin-sleep-support</t>
+          <t>https://www.vitacost.com/protocol-for-life-balance-melatonin</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Melatonin-Sleep-Support-Natural-Raspberry-813006011976.jpg</t>
+          <t>https://www.vitacost.com/Images/Products/150/Protocol-For-Life-Balance/Protocol-For-Life-Balance-Melatonin-707359132580.jpg</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>$14.97</t>
+          <t>$11.04</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
+          <t>Country Life Melatonin -- 3 mg - 30 Tablets</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/country-life-melatonin-3-mg-30-tablets-1</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Country-Life/Country-Life-Melatonin-015794016885.jpg</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>$6.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Source Naturals Melatonin -- 3 mg - 120 Vegetarian Capsules</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/source-naturals-melatonin-3-mg-120-vegetarian-capsules-1</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Source-Naturals/Source-Naturals-Melatonin-021078024064.jpg</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>$12.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>NaturesPlus Melatonin -- 1 mg - 90 Tablets</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/naturesplus-melatonin-1-mg-90-tablets</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/NaturesPlus/NaturesPlus-Melatonin-097467476240.jpg</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>$5.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>NutraBio Melatonin -- 3 mg - 120 Capsules</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/nutrabio-melatonin</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/NutraBio/NutraBio-Melatonin-649908517663.jpg</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>$10.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Kal Melatonin -- 3 mg - 60 Tablets</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/kal-melatonin-3-mg-60-tablets</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/KAL/Kal-Melatonin-021245753032.jpg</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>$8.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Good Day Chocolate Adults Sleep Supplement Milk Chocolate...</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/good-day-chocolate-adults-sleep-supplement-milk-chocolate-1-mg-80-candy-coated-pieces</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adults-Sleep-Supplement-Milk-Chocolate-858982004437.jpg</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Good Day Chocolate Adult Sleep Supplement Dark Chocolate ...</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/good-day-chocolate-adult-sleep-supplement-dark-chocolate</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Good-Day-Chocolate/Good-Day-Chocolate-Adult-Sleep-Supplement-Dark-Chocolate-858982004819.jpg</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>$16.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Dr. Mercola Melatonin Sleep Support Natural Raspberry -- ...</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/dr-mercola-melatonin-sleep-support</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Dr-Mercola/Dr-Mercola-Melatonin-Sleep-Support-Natural-Raspberry-813006011976.jpg</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>$14.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Healthy Origins Astaxanthin -- 4 mg - 60 Softgels</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/healthy-origins-astaxanthin-4-mg-60-softgels</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/Healthy-Origins/Healthy-Origins-Astaxanthin-603573849139.jpg</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>$14.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>NutriGold Astaxanthin Gold™ -- 4 mg - 60 Softgels</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/nutrigold-astaxanthin-gold-4-mg-60-softgels</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.vitacost.com/Images/Products/150/NutriGold/NutriGold-Astaxanthin-Gold-859447002906.jpg</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>$17.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
           <t>NutriGold Astaxanthin Gold™ -- 4 mg - 120 Softgels</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B334" t="inlineStr">
         <is>
           <t>https://www.vitacost.com/nutrigold-astaxanthin-gold</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>https://www.vitacost.com/Images/Products/150/NutriGold/NutriGold-Astaxanthin-Gold-859447002524.jpg</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
+      <c r="D334" t="inlineStr">
         <is>
           <t>$29.99</t>
         </is>
